--- a/data/r1.xlsx
+++ b/data/r1.xlsx
@@ -452,12 +452,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Station2_Inverter1_MinusWire</t>
+          <t>Station2_Inverter1_PlusWire</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Station2_Inverter1_PlusWire</t>
+          <t>Station2_Inverter1_MinusWire</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -474,10 +474,10 @@
         <v>29.298</v>
       </c>
       <c r="C2" t="n">
+        <v>27.449</v>
+      </c>
+      <c r="D2" t="n">
         <v>27.849</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.449</v>
       </c>
       <c r="E2" t="n">
         <v>26.359</v>
@@ -499,10 +499,10 @@
         <v>44154.53871012732</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
         <v>27.5</v>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -510,10 +510,10 @@
         <v>44154.53871039352</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>27.1</v>
       </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -554,10 +554,10 @@
         <v>44154.59098606482</v>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="C9" t="n">
         <v>27.6</v>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -565,10 +565,10 @@
         <v>44154.59168012731</v>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
         <v>28.3</v>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -587,10 +587,10 @@
         <v>44154.62867127315</v>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
         <v>26.1</v>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -598,10 +598,10 @@
         <v>44154.628671875</v>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
+      <c r="C13" t="n">
         <v>25.8</v>
       </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -631,10 +631,10 @@
         <v>44155.14295167824</v>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
         <v>27.1</v>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -642,10 +642,10 @@
         <v>44155.14295202546</v>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
+      <c r="C17" t="n">
         <v>27.1</v>
       </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -675,10 +675,10 @@
         <v>44155.14972581019</v>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
         <v>27.1</v>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -686,10 +686,10 @@
         <v>44155.14972665509</v>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
+      <c r="C21" t="n">
         <v>27.1</v>
       </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -719,10 +719,10 @@
         <v>44155.30831439815</v>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="n">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
         <v>22.2</v>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -730,10 +730,10 @@
         <v>44155.3083152662</v>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
+      <c r="C25" t="n">
         <v>22.2</v>
       </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -763,10 +763,10 @@
         <v>44155.6016850463</v>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
         <v>27.8</v>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -774,10 +774,10 @@
         <v>44155.60255376157</v>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
+      <c r="C29" t="n">
         <v>27.6</v>
       </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -807,10 +807,10 @@
         <v>44155.89298903935</v>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
         <v>27.6</v>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -818,10 +818,10 @@
         <v>44155.89298967593</v>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="n">
+      <c r="C33" t="n">
         <v>27.1</v>
       </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -851,10 +851,10 @@
         <v>44155.89976268519</v>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
         <v>27.6</v>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -862,10 +862,10 @@
         <v>44155.89976303241</v>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
+      <c r="C37" t="n">
         <v>27.1</v>
       </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -906,10 +906,10 @@
         <v>44156.6430224537</v>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
         <v>27.6</v>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -917,10 +917,10 @@
         <v>44156.64302349537</v>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
+      <c r="C42" t="n">
         <v>27.1</v>
       </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -950,10 +950,10 @@
         <v>44156.64979732639</v>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="n">
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
         <v>27.6</v>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -961,10 +961,10 @@
         <v>44156.64979787037</v>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
+      <c r="C46" t="n">
         <v>27.1</v>
       </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -994,10 +994,10 @@
         <v>44157.3930474537</v>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="n">
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
         <v>27.6</v>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1005,10 +1005,10 @@
         <v>44157.39304773148</v>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="n">
+      <c r="C50" t="n">
         <v>27.1</v>
       </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -1038,10 +1038,10 @@
         <v>44157.3998215625</v>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="n">
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="n">
         <v>27.6</v>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -1049,10 +1049,10 @@
         <v>44157.39982193287</v>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="n">
+      <c r="C54" t="n">
         <v>27.1</v>
       </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -1082,10 +1082,10 @@
         <v>44158.14307793981</v>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="n">
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
         <v>27.6</v>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -1093,10 +1093,10 @@
         <v>44158.14307850695</v>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="n">
+      <c r="C58" t="n">
         <v>27.1</v>
       </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -1126,10 +1126,10 @@
         <v>44158.14985342592</v>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="n">
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="n">
         <v>27.6</v>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -1137,10 +1137,10 @@
         <v>44158.14985399305</v>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="n">
+      <c r="C62" t="n">
         <v>27.1</v>
       </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -1159,10 +1159,10 @@
         <v>44158.30739865741</v>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="n">
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="n">
         <v>20.8</v>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -1170,10 +1170,10 @@
         <v>44158.30739894676</v>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="n">
+      <c r="C65" t="n">
         <v>20.8</v>
       </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -1236,10 +1236,10 @@
         <v>44158.89312211805</v>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="n">
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="n">
         <v>25.4</v>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -1247,10 +1247,10 @@
         <v>44158.89312261574</v>
       </c>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="n">
+      <c r="C72" t="n">
         <v>26</v>
       </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -1280,10 +1280,10 @@
         <v>44158.8998965162</v>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="n">
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="n">
         <v>25.4</v>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -1291,10 +1291,10 @@
         <v>44158.89989708333</v>
       </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="n">
+      <c r="C76" t="n">
         <v>26</v>
       </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -1324,10 +1324,10 @@
         <v>44159.30357228009</v>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="n">
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="n">
         <v>20.8</v>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -1335,10 +1335,10 @@
         <v>44159.30357268519</v>
       </c>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="n">
+      <c r="C80" t="n">
         <v>20.8</v>
       </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -1390,10 +1390,10 @@
         <v>44159.64316133102</v>
       </c>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="n">
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="n">
         <v>27.3</v>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -1401,10 +1401,10 @@
         <v>44159.64316222222</v>
       </c>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="n">
+      <c r="C86" t="n">
         <v>26.8</v>
       </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -1434,10 +1434,10 @@
         <v>44159.64976189814</v>
       </c>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="n">
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="n">
         <v>27.3</v>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -1445,10 +1445,10 @@
         <v>44159.64976280092</v>
       </c>
       <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="n">
+      <c r="C90" t="n">
         <v>26.8</v>
       </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -1489,10 +1489,10 @@
         <v>44160.31345938658</v>
       </c>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="n">
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="n">
         <v>21.6</v>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -1500,10 +1500,10 @@
         <v>44160.31346005787</v>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="n">
+      <c r="C95" t="n">
         <v>21.6</v>
       </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -1533,10 +1533,10 @@
         <v>44160.39302025463</v>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="n">
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="n">
         <v>25.8</v>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -1544,10 +1544,10 @@
         <v>44160.39319356481</v>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="n">
+      <c r="C99" t="n">
         <v>25.1</v>
       </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -1588,10 +1588,10 @@
         <v>44160.39979506945</v>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="n">
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="n">
         <v>25.8</v>
       </c>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
@@ -1599,10 +1599,10 @@
         <v>44160.399795625</v>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="n">
+      <c r="C104" t="n">
         <v>25.1</v>
       </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -1621,10 +1621,10 @@
         <v>44160.39997012731</v>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="n">
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="n">
         <v>25.1</v>
       </c>
-      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -1632,10 +1632,10 @@
         <v>44160.39997053241</v>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="n">
+      <c r="C107" t="n">
         <v>24.9</v>
       </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -1676,10 +1676,10 @@
         <v>44160.62056413195</v>
       </c>
       <c r="B111" t="inlineStr"/>
-      <c r="C111" t="n">
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="n">
         <v>27.6</v>
       </c>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -1687,10 +1687,10 @@
         <v>44160.62056451389</v>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="n">
+      <c r="C112" t="n">
         <v>27.1</v>
       </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -1720,10 +1720,10 @@
         <v>44161.14304506945</v>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="n">
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="n">
         <v>27.6</v>
       </c>
-      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -1731,10 +1731,10 @@
         <v>44161.14304582176</v>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="n">
+      <c r="C116" t="n">
         <v>27.1</v>
       </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -1764,10 +1764,10 @@
         <v>44161.14981879629</v>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="n">
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="n">
         <v>27.6</v>
       </c>
-      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -1775,10 +1775,10 @@
         <v>44161.14981905092</v>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="n">
+      <c r="C120" t="n">
         <v>27.1</v>
       </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
     </row>
     <row r="121">
@@ -1797,10 +1797,10 @@
         <v>44161.30980199074</v>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="n">
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="n">
         <v>21.2</v>
       </c>
-      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
     </row>
     <row r="123">
@@ -1808,10 +1808,10 @@
         <v>44161.3098028588</v>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="n">
+      <c r="C123" t="n">
         <v>21.2</v>
       </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
     </row>
     <row r="124">
@@ -1863,10 +1863,10 @@
         <v>44161.89307243055</v>
       </c>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" t="n">
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="n">
         <v>26.6</v>
       </c>
-      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
     </row>
     <row r="129">
@@ -1874,10 +1874,10 @@
         <v>44161.89307275463</v>
       </c>
       <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="n">
+      <c r="C129" t="n">
         <v>25.8</v>
       </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
     </row>
     <row r="130">
@@ -1907,10 +1907,10 @@
         <v>44161.899846875</v>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="n">
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="n">
         <v>26.6</v>
       </c>
-      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
     </row>
     <row r="133">
@@ -1918,10 +1918,10 @@
         <v>44161.89984753473</v>
       </c>
       <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="n">
+      <c r="C133" t="n">
         <v>25.8</v>
       </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -1951,10 +1951,10 @@
         <v>44161.9649844213</v>
       </c>
       <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="n">
+      <c r="C136" t="n">
         <v>22.7</v>
       </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -1962,10 +1962,10 @@
         <v>44161.96567857639</v>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="n">
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
         <v>23.5</v>
       </c>
-      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
@@ -1995,10 +1995,10 @@
         <v>44162.58700458334</v>
       </c>
       <c r="B140" t="inlineStr"/>
-      <c r="C140" t="n">
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
         <v>27.5</v>
       </c>
-      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
     </row>
     <row r="141">
@@ -2006,10 +2006,10 @@
         <v>44162.58700550926</v>
       </c>
       <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="n">
+      <c r="C141" t="n">
         <v>27.1</v>
       </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
     </row>
     <row r="142">
@@ -2039,10 +2039,10 @@
         <v>44162.64310878472</v>
       </c>
       <c r="B144" t="inlineStr"/>
-      <c r="C144" t="n">
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
         <v>26.8</v>
       </c>
-      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
     </row>
     <row r="145">
@@ -2050,10 +2050,10 @@
         <v>44162.64310953704</v>
       </c>
       <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="n">
+      <c r="C145" t="n">
         <v>26.3</v>
       </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -2083,10 +2083,10 @@
         <v>44162.6498834838</v>
       </c>
       <c r="B148" t="inlineStr"/>
-      <c r="C148" t="n">
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
         <v>26.8</v>
       </c>
-      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
     </row>
     <row r="149">
@@ -2094,10 +2094,10 @@
         <v>44162.64988434028</v>
       </c>
       <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="n">
+      <c r="C149" t="n">
         <v>26.3</v>
       </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -2127,10 +2127,10 @@
         <v>44163.02195914352</v>
       </c>
       <c r="B152" t="inlineStr"/>
-      <c r="C152" t="n">
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
         <v>26.8</v>
       </c>
-      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -2138,10 +2138,10 @@
         <v>44163.02195964121</v>
       </c>
       <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="n">
+      <c r="C153" t="n">
         <v>26.3</v>
       </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
     </row>
     <row r="154">
@@ -2171,10 +2171,10 @@
         <v>44165.38460400463</v>
       </c>
       <c r="B156" t="inlineStr"/>
-      <c r="C156" t="n">
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
         <v>24.6</v>
       </c>
-      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
     </row>
     <row r="157">
@@ -2182,10 +2182,10 @@
         <v>44165.38460461806</v>
       </c>
       <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="n">
+      <c r="C157" t="n">
         <v>24.2</v>
       </c>
+      <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
     </row>
     <row r="158">
@@ -2204,10 +2204,10 @@
         <v>44165.44209931713</v>
       </c>
       <c r="B159" t="inlineStr"/>
-      <c r="C159" t="n">
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
         <v>23.7</v>
       </c>
-      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
     </row>
     <row r="160">
@@ -2215,10 +2215,10 @@
         <v>44165.4421</v>
       </c>
       <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="n">
+      <c r="C160" t="n">
         <v>23.3</v>
       </c>
+      <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
     </row>
     <row r="161">
@@ -2237,10 +2237,10 @@
         <v>44165.58453512732</v>
       </c>
       <c r="B162" t="inlineStr"/>
-      <c r="C162" t="n">
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
         <v>26.1</v>
       </c>
-      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
     </row>
     <row r="163">
@@ -2248,10 +2248,10 @@
         <v>44165.58523038194</v>
       </c>
       <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="n">
+      <c r="C163" t="n">
         <v>26</v>
       </c>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
     </row>
     <row r="164">
@@ -2259,10 +2259,10 @@
         <v>44165.64168238426</v>
       </c>
       <c r="B164" t="inlineStr"/>
-      <c r="C164" t="n">
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
         <v>25.6</v>
       </c>
-      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
     </row>
     <row r="165">
@@ -2270,10 +2270,10 @@
         <v>44165.64168309027</v>
       </c>
       <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="n">
+      <c r="C165" t="n">
         <v>24.9</v>
       </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
     </row>
     <row r="166">
@@ -2325,10 +2325,10 @@
         <v>44165.6484578588</v>
       </c>
       <c r="B170" t="inlineStr"/>
-      <c r="C170" t="n">
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="n">
         <v>25.6</v>
       </c>
-      <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -2336,10 +2336,10 @@
         <v>44165.64845883102</v>
       </c>
       <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="n">
+      <c r="C171" t="n">
         <v>24.9</v>
       </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
     </row>
     <row r="172">
@@ -2358,10 +2358,10 @@
         <v>44166.30130700232</v>
       </c>
       <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="n">
+      <c r="C173" t="n">
         <v>20.6</v>
       </c>
+      <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
     </row>
     <row r="174">
@@ -2369,10 +2369,10 @@
         <v>44166.30200138889</v>
       </c>
       <c r="B174" t="inlineStr"/>
-      <c r="C174" t="n">
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="n">
         <v>21</v>
       </c>
-      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
     </row>
     <row r="175">
@@ -2424,10 +2424,10 @@
         <v>44166.39233857639</v>
       </c>
       <c r="B179" t="inlineStr"/>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="n">
+      <c r="C179" t="n">
         <v>24.4</v>
       </c>
+      <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
     </row>
     <row r="180">
@@ -2435,10 +2435,10 @@
         <v>44166.39303289352</v>
       </c>
       <c r="B180" t="inlineStr"/>
-      <c r="C180" t="n">
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="n">
         <v>25.3</v>
       </c>
-      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
     </row>
     <row r="181">
@@ -2468,10 +2468,10 @@
         <v>44166.39824457176</v>
       </c>
       <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="n">
+      <c r="C183" t="n">
         <v>24.4</v>
       </c>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
     </row>
     <row r="184">
@@ -2490,10 +2490,10 @@
         <v>44166.39841790509</v>
       </c>
       <c r="B185" t="inlineStr"/>
-      <c r="C185" t="n">
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="n">
         <v>25.3</v>
       </c>
-      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
     </row>
     <row r="186">
@@ -2501,10 +2501,10 @@
         <v>44166.41526950231</v>
       </c>
       <c r="B186" t="inlineStr"/>
-      <c r="C186" t="n">
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="n">
         <v>24.2</v>
       </c>
-      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
     </row>
     <row r="187">
@@ -2512,10 +2512,10 @@
         <v>44166.41526980324</v>
       </c>
       <c r="B187" t="inlineStr"/>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="n">
+      <c r="C187" t="n">
         <v>24</v>
       </c>
+      <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
     </row>
     <row r="188">
@@ -2545,10 +2545,10 @@
         <v>44166.54747416667</v>
       </c>
       <c r="B190" t="inlineStr"/>
-      <c r="C190" t="n">
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="n">
         <v>26.3</v>
       </c>
-      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
     </row>
     <row r="191">
@@ -2567,10 +2567,10 @@
         <v>44166.63345859954</v>
       </c>
       <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="n">
+      <c r="C192" t="n">
         <v>25.8</v>
       </c>
+      <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
     </row>
     <row r="193">
@@ -2589,10 +2589,10 @@
         <v>44167.14172472222</v>
       </c>
       <c r="B194" t="inlineStr"/>
-      <c r="C194" t="n">
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="n">
         <v>26.1</v>
       </c>
-      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
     </row>
     <row r="195">
@@ -2600,10 +2600,10 @@
         <v>44167.14172506944</v>
       </c>
       <c r="B195" t="inlineStr"/>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="n">
+      <c r="C195" t="n">
         <v>25.8</v>
       </c>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
     </row>
     <row r="196">
@@ -2633,10 +2633,10 @@
         <v>44167.14850041667</v>
       </c>
       <c r="B198" t="inlineStr"/>
-      <c r="C198" t="n">
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="n">
         <v>26.1</v>
       </c>
-      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
     </row>
     <row r="199">
@@ -2644,10 +2644,10 @@
         <v>44167.14850136574</v>
       </c>
       <c r="B199" t="inlineStr"/>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="n">
+      <c r="C199" t="n">
         <v>25.8</v>
       </c>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
     </row>
     <row r="200">
@@ -2677,10 +2677,10 @@
         <v>44167.3067645949</v>
       </c>
       <c r="B202" t="inlineStr"/>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="n">
+      <c r="C202" t="n">
         <v>21</v>
       </c>
+      <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr"/>
     </row>
     <row r="203">
@@ -2699,10 +2699,10 @@
         <v>44167.30884824074</v>
       </c>
       <c r="B204" t="inlineStr"/>
-      <c r="C204" t="n">
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="n">
         <v>22.7</v>
       </c>
-      <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
     </row>
     <row r="205">
@@ -2732,10 +2732,10 @@
         <v>44167.51540326389</v>
       </c>
       <c r="B207" t="inlineStr"/>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="n">
+      <c r="C207" t="n">
         <v>26.6</v>
       </c>
+      <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
     </row>
     <row r="208">
@@ -2743,10 +2743,10 @@
         <v>44167.51609788195</v>
       </c>
       <c r="B208" t="inlineStr"/>
-      <c r="C208" t="n">
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="n">
         <v>27.3</v>
       </c>
-      <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
     </row>
     <row r="209">
@@ -2765,10 +2765,10 @@
         <v>44167.8916496875</v>
       </c>
       <c r="B210" t="inlineStr"/>
-      <c r="C210" t="n">
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="n">
         <v>24.4</v>
       </c>
-      <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
     </row>
     <row r="211">
@@ -2776,10 +2776,10 @@
         <v>44167.8916503588</v>
       </c>
       <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="n">
+      <c r="C211" t="n">
         <v>24</v>
       </c>
+      <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
     </row>
     <row r="212">
@@ -2809,10 +2809,10 @@
         <v>44167.89842381945</v>
       </c>
       <c r="B214" t="inlineStr"/>
-      <c r="C214" t="n">
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="n">
         <v>24.4</v>
       </c>
-      <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr"/>
     </row>
     <row r="215">
@@ -2820,10 +2820,10 @@
         <v>44167.89842467593</v>
       </c>
       <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="n">
+      <c r="C215" t="n">
         <v>24</v>
       </c>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr"/>
     </row>
     <row r="216">
@@ -2842,10 +2842,10 @@
         <v>44168.30439560185</v>
       </c>
       <c r="B217" t="inlineStr"/>
-      <c r="C217" t="n">
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="n">
         <v>20</v>
       </c>
-      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
     </row>
     <row r="218">
@@ -2853,10 +2853,10 @@
         <v>44168.30439680556</v>
       </c>
       <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="n">
+      <c r="C218" t="n">
         <v>20</v>
       </c>
+      <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
     </row>
     <row r="219">
@@ -2886,10 +2886,10 @@
         <v>44168.51910737268</v>
       </c>
       <c r="B221" t="inlineStr"/>
-      <c r="C221" t="n">
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="n">
         <v>26</v>
       </c>
-      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr"/>
     </row>
     <row r="222">
@@ -2919,10 +2919,10 @@
         <v>44168.6094306713</v>
       </c>
       <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="n">
+      <c r="C224" t="n">
         <v>25.6</v>
       </c>
+      <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr"/>
     </row>
     <row r="225">
@@ -2941,10 +2941,10 @@
         <v>44168.64173824074</v>
       </c>
       <c r="B226" t="inlineStr"/>
-      <c r="C226" t="n">
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="n">
         <v>26</v>
       </c>
-      <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr"/>
     </row>
     <row r="227">
@@ -2952,10 +2952,10 @@
         <v>44168.64173854166</v>
       </c>
       <c r="B227" t="inlineStr"/>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="n">
+      <c r="C227" t="n">
         <v>25.6</v>
       </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
     </row>
     <row r="228">
@@ -2985,10 +2985,10 @@
         <v>44168.64851295139</v>
       </c>
       <c r="B230" t="inlineStr"/>
-      <c r="C230" t="n">
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="n">
         <v>26</v>
       </c>
-      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
     </row>
     <row r="231">
@@ -2996,10 +2996,10 @@
         <v>44168.64851333333</v>
       </c>
       <c r="B231" t="inlineStr"/>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="n">
+      <c r="C231" t="n">
         <v>25.6</v>
       </c>
+      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr"/>
     </row>
     <row r="232">
@@ -3029,10 +3029,10 @@
         <v>44169.39165209491</v>
       </c>
       <c r="B234" t="inlineStr"/>
-      <c r="C234" t="n">
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="n">
         <v>26</v>
       </c>
-      <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
     </row>
     <row r="235">
@@ -3040,10 +3040,10 @@
         <v>44169.39165280093</v>
       </c>
       <c r="B235" t="inlineStr"/>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="n">
+      <c r="C235" t="n">
         <v>25.6</v>
       </c>
+      <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr"/>
     </row>
     <row r="236">
@@ -3073,10 +3073,10 @@
         <v>44169.3984268287</v>
       </c>
       <c r="B238" t="inlineStr"/>
-      <c r="C238" t="n">
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="n">
         <v>26</v>
       </c>
-      <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr"/>
     </row>
     <row r="239">
@@ -3084,10 +3084,10 @@
         <v>44169.39842737268</v>
       </c>
       <c r="B239" t="inlineStr"/>
-      <c r="C239" t="inlineStr"/>
-      <c r="D239" t="n">
+      <c r="C239" t="n">
         <v>25.6</v>
       </c>
+      <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
     </row>
     <row r="240">
@@ -3106,10 +3106,10 @@
         <v>44169.53686702546</v>
       </c>
       <c r="B241" t="inlineStr"/>
-      <c r="C241" t="n">
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="n">
         <v>21.6</v>
       </c>
-      <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
     </row>
     <row r="242">
@@ -3117,10 +3117,10 @@
         <v>44169.53686774305</v>
       </c>
       <c r="B242" t="inlineStr"/>
-      <c r="C242" t="inlineStr"/>
-      <c r="D242" t="n">
+      <c r="C242" t="n">
         <v>21.8</v>
       </c>
+      <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
     </row>
     <row r="243">
@@ -3161,10 +3161,10 @@
         <v>44170.14169006945</v>
       </c>
       <c r="B246" t="inlineStr"/>
-      <c r="C246" t="n">
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="n">
         <v>25.1</v>
       </c>
-      <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
     </row>
     <row r="247">
@@ -3172,10 +3172,10 @@
         <v>44170.14169045139</v>
       </c>
       <c r="B247" t="inlineStr"/>
-      <c r="C247" t="inlineStr"/>
-      <c r="D247" t="n">
+      <c r="C247" t="n">
         <v>25.1</v>
       </c>
+      <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr"/>
     </row>
     <row r="248">
@@ -3205,10 +3205,10 @@
         <v>44170.14846449074</v>
       </c>
       <c r="B250" t="inlineStr"/>
-      <c r="C250" t="n">
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="n">
         <v>25.1</v>
       </c>
-      <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr"/>
     </row>
     <row r="251">
@@ -3216,10 +3216,10 @@
         <v>44170.14846484954</v>
       </c>
       <c r="B251" t="inlineStr"/>
-      <c r="C251" t="inlineStr"/>
-      <c r="D251" t="n">
+      <c r="C251" t="n">
         <v>25.1</v>
       </c>
+      <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr"/>
     </row>
     <row r="252">
@@ -3249,10 +3249,10 @@
         <v>44170.89174678241</v>
       </c>
       <c r="B254" t="inlineStr"/>
-      <c r="C254" t="n">
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="n">
         <v>25.1</v>
       </c>
-      <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr"/>
     </row>
     <row r="255">
@@ -3260,10 +3260,10 @@
         <v>44170.89174730324</v>
       </c>
       <c r="B255" t="inlineStr"/>
-      <c r="C255" t="inlineStr"/>
-      <c r="D255" t="n">
+      <c r="C255" t="n">
         <v>25.1</v>
       </c>
+      <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr"/>
     </row>
     <row r="256">
@@ -3293,10 +3293,10 @@
         <v>44170.89852206018</v>
       </c>
       <c r="B258" t="inlineStr"/>
-      <c r="C258" t="n">
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="n">
         <v>25.1</v>
       </c>
-      <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr"/>
     </row>
     <row r="259">
@@ -3304,10 +3304,10 @@
         <v>44170.89852269676</v>
       </c>
       <c r="B259" t="inlineStr"/>
-      <c r="C259" t="inlineStr"/>
-      <c r="D259" t="n">
+      <c r="C259" t="n">
         <v>25.1</v>
       </c>
+      <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr"/>
     </row>
     <row r="260">
@@ -3337,10 +3337,10 @@
         <v>44171.64181300926</v>
       </c>
       <c r="B262" t="inlineStr"/>
-      <c r="C262" t="n">
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="n">
         <v>25.1</v>
       </c>
-      <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr"/>
     </row>
     <row r="263">
@@ -3348,10 +3348,10 @@
         <v>44171.64181344907</v>
       </c>
       <c r="B263" t="inlineStr"/>
-      <c r="C263" t="inlineStr"/>
-      <c r="D263" t="n">
+      <c r="C263" t="n">
         <v>25.1</v>
       </c>
+      <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr"/>
     </row>
     <row r="264">
@@ -3381,10 +3381,10 @@
         <v>44171.64841341435</v>
       </c>
       <c r="B266" t="inlineStr"/>
-      <c r="C266" t="n">
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="n">
         <v>25.1</v>
       </c>
-      <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr"/>
     </row>
     <row r="267">
@@ -3392,10 +3392,10 @@
         <v>44171.64841376158</v>
       </c>
       <c r="B267" t="inlineStr"/>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="n">
+      <c r="C267" t="n">
         <v>25.1</v>
       </c>
+      <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr"/>
     </row>
     <row r="268">
@@ -3436,10 +3436,10 @@
         <v>44172.39169878472</v>
       </c>
       <c r="B271" t="inlineStr"/>
-      <c r="C271" t="n">
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="n">
         <v>25.1</v>
       </c>
-      <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr"/>
     </row>
     <row r="272">
@@ -3447,10 +3447,10 @@
         <v>44172.39169932871</v>
       </c>
       <c r="B272" t="inlineStr"/>
-      <c r="C272" t="inlineStr"/>
-      <c r="D272" t="n">
+      <c r="C272" t="n">
         <v>25.1</v>
       </c>
+      <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr"/>
     </row>
     <row r="273">
@@ -3480,10 +3480,10 @@
         <v>44172.39847351851</v>
       </c>
       <c r="B275" t="inlineStr"/>
-      <c r="C275" t="n">
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="n">
         <v>25.1</v>
       </c>
-      <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr"/>
     </row>
     <row r="276">
@@ -3491,10 +3491,10 @@
         <v>44172.39847399305</v>
       </c>
       <c r="B276" t="inlineStr"/>
-      <c r="C276" t="inlineStr"/>
-      <c r="D276" t="n">
+      <c r="C276" t="n">
         <v>25.1</v>
       </c>
+      <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr"/>
     </row>
     <row r="277">
@@ -3513,10 +3513,10 @@
         <v>44172.49678572916</v>
       </c>
       <c r="B278" t="inlineStr"/>
-      <c r="C278" t="n">
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="n">
         <v>22</v>
       </c>
-      <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr"/>
     </row>
     <row r="279">
@@ -3524,10 +3524,10 @@
         <v>44172.49678618056</v>
       </c>
       <c r="B279" t="inlineStr"/>
-      <c r="C279" t="inlineStr"/>
-      <c r="D279" t="n">
+      <c r="C279" t="n">
         <v>22.2</v>
       </c>
+      <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr"/>
     </row>
     <row r="280">
@@ -3568,10 +3568,10 @@
         <v>44173.14177997685</v>
       </c>
       <c r="B283" t="inlineStr"/>
-      <c r="C283" t="n">
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="n">
         <v>24.6</v>
       </c>
-      <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr"/>
     </row>
     <row r="284">
@@ -3579,10 +3579,10 @@
         <v>44173.14178040509</v>
       </c>
       <c r="B284" t="inlineStr"/>
-      <c r="C284" t="inlineStr"/>
-      <c r="D284" t="n">
+      <c r="C284" t="n">
         <v>24.6</v>
       </c>
+      <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr"/>
     </row>
     <row r="285">
@@ -3612,10 +3612,10 @@
         <v>44173.14855591435</v>
       </c>
       <c r="B287" t="inlineStr"/>
-      <c r="C287" t="n">
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="n">
         <v>24.6</v>
       </c>
-      <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr"/>
     </row>
     <row r="288">
@@ -3623,10 +3623,10 @@
         <v>44173.1485562963</v>
       </c>
       <c r="B288" t="inlineStr"/>
-      <c r="C288" t="inlineStr"/>
-      <c r="D288" t="n">
+      <c r="C288" t="n">
         <v>24.6</v>
       </c>
+      <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr"/>
     </row>
     <row r="289">
@@ -3667,10 +3667,10 @@
         <v>44173.31704039352</v>
       </c>
       <c r="B292" t="inlineStr"/>
-      <c r="C292" t="n">
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="n">
         <v>20</v>
       </c>
-      <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr"/>
     </row>
     <row r="293">
@@ -3678,10 +3678,10 @@
         <v>44173.31790978009</v>
       </c>
       <c r="B293" t="inlineStr"/>
-      <c r="C293" t="inlineStr"/>
-      <c r="D293" t="n">
+      <c r="C293" t="n">
         <v>20.6</v>
       </c>
+      <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr"/>
     </row>
     <row r="294">
@@ -3700,10 +3700,10 @@
         <v>44173.63213798611</v>
       </c>
       <c r="B295" t="inlineStr"/>
-      <c r="C295" t="n">
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="n">
         <v>26.1</v>
       </c>
-      <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr"/>
     </row>
     <row r="296">
@@ -3722,10 +3722,10 @@
         <v>44173.63700189815</v>
       </c>
       <c r="B297" t="inlineStr"/>
-      <c r="C297" t="inlineStr"/>
-      <c r="D297" t="n">
+      <c r="C297" t="n">
         <v>25.8</v>
       </c>
+      <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr"/>
     </row>
     <row r="298">
@@ -3744,10 +3744,10 @@
         <v>44173.89183168981</v>
       </c>
       <c r="B299" t="inlineStr"/>
-      <c r="C299" t="n">
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="n">
         <v>26</v>
       </c>
-      <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr"/>
     </row>
     <row r="300">
@@ -3755,10 +3755,10 @@
         <v>44173.89183222222</v>
       </c>
       <c r="B300" t="inlineStr"/>
-      <c r="C300" t="inlineStr"/>
-      <c r="D300" t="n">
+      <c r="C300" t="n">
         <v>25.8</v>
       </c>
+      <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr"/>
     </row>
     <row r="301">
@@ -3788,10 +3788,10 @@
         <v>44173.89843224537</v>
       </c>
       <c r="B303" t="inlineStr"/>
-      <c r="C303" t="n">
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="n">
         <v>26</v>
       </c>
-      <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr"/>
     </row>
     <row r="304">
@@ -3799,10 +3799,10 @@
         <v>44173.89860650463</v>
       </c>
       <c r="B304" t="inlineStr"/>
-      <c r="C304" t="inlineStr"/>
-      <c r="D304" t="n">
+      <c r="C304" t="n">
         <v>25.8</v>
       </c>
+      <c r="D304" t="inlineStr"/>
       <c r="E304" t="inlineStr"/>
     </row>
     <row r="305">
@@ -3832,10 +3832,10 @@
         <v>44174.35351820601</v>
       </c>
       <c r="B307" t="inlineStr"/>
-      <c r="C307" t="n">
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="n">
         <v>21.8</v>
       </c>
-      <c r="D307" t="inlineStr"/>
       <c r="E307" t="inlineStr"/>
     </row>
     <row r="308">
@@ -3854,10 +3854,10 @@
         <v>44174.35421320602</v>
       </c>
       <c r="B309" t="inlineStr"/>
-      <c r="C309" t="inlineStr"/>
-      <c r="D309" t="n">
+      <c r="C309" t="n">
         <v>22.6</v>
       </c>
+      <c r="D309" t="inlineStr"/>
       <c r="E309" t="inlineStr"/>
     </row>
     <row r="310">
@@ -3865,10 +3865,10 @@
         <v>44174.58315435185</v>
       </c>
       <c r="B310" t="inlineStr"/>
-      <c r="C310" t="n">
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="n">
         <v>26.1</v>
       </c>
-      <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr"/>
     </row>
     <row r="311">
@@ -3909,10 +3909,10 @@
         <v>44174.64169059028</v>
       </c>
       <c r="B314" t="inlineStr"/>
-      <c r="C314" t="n">
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="n">
         <v>25.8</v>
       </c>
-      <c r="D314" t="inlineStr"/>
       <c r="E314" t="inlineStr"/>
     </row>
     <row r="315">
@@ -3920,10 +3920,10 @@
         <v>44174.64169094907</v>
       </c>
       <c r="B315" t="inlineStr"/>
-      <c r="C315" t="inlineStr"/>
-      <c r="D315" t="n">
+      <c r="C315" t="n">
         <v>25.6</v>
       </c>
+      <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr"/>
     </row>
     <row r="316">
@@ -3953,10 +3953,10 @@
         <v>44174.648464375</v>
       </c>
       <c r="B318" t="inlineStr"/>
-      <c r="C318" t="n">
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="n">
         <v>25.8</v>
       </c>
-      <c r="D318" t="inlineStr"/>
       <c r="E318" t="inlineStr"/>
     </row>
     <row r="319">
@@ -3964,10 +3964,10 @@
         <v>44174.64846474537</v>
       </c>
       <c r="B319" t="inlineStr"/>
-      <c r="C319" t="inlineStr"/>
-      <c r="D319" t="n">
+      <c r="C319" t="n">
         <v>25.6</v>
       </c>
+      <c r="D319" t="inlineStr"/>
       <c r="E319" t="inlineStr"/>
     </row>
     <row r="320">
@@ -3986,10 +3986,10 @@
         <v>44174.65280739583</v>
       </c>
       <c r="B321" t="inlineStr"/>
-      <c r="C321" t="inlineStr"/>
-      <c r="D321" t="n">
+      <c r="C321" t="n">
         <v>25.8</v>
       </c>
+      <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr"/>
     </row>
     <row r="322">
@@ -3997,10 +3997,10 @@
         <v>44174.67087556713</v>
       </c>
       <c r="B322" t="inlineStr"/>
-      <c r="C322" t="n">
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="n">
         <v>26.3</v>
       </c>
-      <c r="D322" t="inlineStr"/>
       <c r="E322" t="inlineStr"/>
     </row>
     <row r="323">
@@ -4030,10 +4030,10 @@
         <v>44175.3130577662</v>
       </c>
       <c r="B325" t="inlineStr"/>
-      <c r="C325" t="inlineStr"/>
-      <c r="D325" t="n">
+      <c r="C325" t="n">
         <v>20.6</v>
       </c>
+      <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr"/>
     </row>
     <row r="326">
@@ -4041,10 +4041,10 @@
         <v>44175.31444686343</v>
       </c>
       <c r="B326" t="inlineStr"/>
-      <c r="C326" t="n">
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="n">
         <v>22</v>
       </c>
-      <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr"/>
     </row>
     <row r="327">
@@ -4063,10 +4063,10 @@
         <v>44175.39174501158</v>
       </c>
       <c r="B328" t="inlineStr"/>
-      <c r="C328" t="n">
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" t="n">
         <v>24.9</v>
       </c>
-      <c r="D328" t="inlineStr"/>
       <c r="E328" t="inlineStr"/>
     </row>
     <row r="329">
@@ -4074,10 +4074,10 @@
         <v>44175.39174537037</v>
       </c>
       <c r="B329" t="inlineStr"/>
-      <c r="C329" t="inlineStr"/>
-      <c r="D329" t="n">
+      <c r="C329" t="n">
         <v>24.6</v>
       </c>
+      <c r="D329" t="inlineStr"/>
       <c r="E329" t="inlineStr"/>
     </row>
     <row r="330">
@@ -4118,10 +4118,10 @@
         <v>44175.39851997685</v>
       </c>
       <c r="B333" t="inlineStr"/>
-      <c r="C333" t="n">
+      <c r="C333" t="inlineStr"/>
+      <c r="D333" t="n">
         <v>24.9</v>
       </c>
-      <c r="D333" t="inlineStr"/>
       <c r="E333" t="inlineStr"/>
     </row>
     <row r="334">
@@ -4129,10 +4129,10 @@
         <v>44175.39852030093</v>
       </c>
       <c r="B334" t="inlineStr"/>
-      <c r="C334" t="inlineStr"/>
-      <c r="D334" t="n">
+      <c r="C334" t="n">
         <v>24.6</v>
       </c>
+      <c r="D334" t="inlineStr"/>
       <c r="E334" t="inlineStr"/>
     </row>
     <row r="335">
@@ -4151,10 +4151,10 @@
         <v>44175.41363309028</v>
       </c>
       <c r="B336" t="inlineStr"/>
-      <c r="C336" t="inlineStr"/>
-      <c r="D336" t="n">
+      <c r="C336" t="n">
         <v>23.7</v>
       </c>
+      <c r="D336" t="inlineStr"/>
       <c r="E336" t="inlineStr"/>
     </row>
     <row r="337">
@@ -4173,10 +4173,10 @@
         <v>44175.41380628472</v>
       </c>
       <c r="B338" t="inlineStr"/>
-      <c r="C338" t="n">
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="n">
         <v>23.8</v>
       </c>
-      <c r="D338" t="inlineStr"/>
       <c r="E338" t="inlineStr"/>
     </row>
     <row r="339">
@@ -4195,10 +4195,10 @@
         <v>44175.66185686343</v>
       </c>
       <c r="B340" t="inlineStr"/>
-      <c r="C340" t="n">
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="n">
         <v>26.5</v>
       </c>
-      <c r="D340" t="inlineStr"/>
       <c r="E340" t="inlineStr"/>
     </row>
     <row r="341">
@@ -4206,10 +4206,10 @@
         <v>44175.66185815972</v>
       </c>
       <c r="B341" t="inlineStr"/>
-      <c r="C341" t="inlineStr"/>
-      <c r="D341" t="n">
+      <c r="C341" t="n">
         <v>26</v>
       </c>
+      <c r="D341" t="inlineStr"/>
       <c r="E341" t="inlineStr"/>
     </row>
     <row r="342">
@@ -4239,10 +4239,10 @@
         <v>44176.14179762732</v>
       </c>
       <c r="B344" t="inlineStr"/>
-      <c r="C344" t="n">
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="n">
         <v>26</v>
       </c>
-      <c r="D344" t="inlineStr"/>
       <c r="E344" t="inlineStr"/>
     </row>
     <row r="345">
@@ -4250,10 +4250,10 @@
         <v>44176.14179798611</v>
       </c>
       <c r="B345" t="inlineStr"/>
-      <c r="C345" t="inlineStr"/>
-      <c r="D345" t="n">
+      <c r="C345" t="n">
         <v>25.4</v>
       </c>
+      <c r="D345" t="inlineStr"/>
       <c r="E345" t="inlineStr"/>
     </row>
     <row r="346">
@@ -4283,10 +4283,10 @@
         <v>44176.14857221065</v>
       </c>
       <c r="B348" t="inlineStr"/>
-      <c r="C348" t="n">
+      <c r="C348" t="inlineStr"/>
+      <c r="D348" t="n">
         <v>26</v>
       </c>
-      <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr"/>
     </row>
     <row r="349">
@@ -4294,10 +4294,10 @@
         <v>44176.14857258102</v>
       </c>
       <c r="B349" t="inlineStr"/>
-      <c r="C349" t="inlineStr"/>
-      <c r="D349" t="n">
+      <c r="C349" t="n">
         <v>25.4</v>
       </c>
+      <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr"/>
     </row>
     <row r="350">
@@ -4316,10 +4316,10 @@
         <v>44176.3115025463</v>
       </c>
       <c r="B351" t="inlineStr"/>
-      <c r="C351" t="n">
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" t="n">
         <v>20</v>
       </c>
-      <c r="D351" t="inlineStr"/>
       <c r="E351" t="inlineStr"/>
     </row>
     <row r="352">
@@ -4338,10 +4338,10 @@
         <v>44176.31237166667</v>
       </c>
       <c r="B353" t="inlineStr"/>
-      <c r="C353" t="inlineStr"/>
-      <c r="D353" t="n">
+      <c r="C353" t="n">
         <v>20.4</v>
       </c>
+      <c r="D353" t="inlineStr"/>
       <c r="E353" t="inlineStr"/>
     </row>
     <row r="354">
@@ -4360,10 +4360,10 @@
         <v>44176.52828577546</v>
       </c>
       <c r="B355" t="inlineStr"/>
-      <c r="C355" t="n">
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="n">
         <v>26.1</v>
       </c>
-      <c r="D355" t="inlineStr"/>
       <c r="E355" t="inlineStr"/>
     </row>
     <row r="356">
@@ -4371,10 +4371,10 @@
         <v>44176.52828614583</v>
       </c>
       <c r="B356" t="inlineStr"/>
-      <c r="C356" t="inlineStr"/>
-      <c r="D356" t="n">
+      <c r="C356" t="n">
         <v>25.8</v>
       </c>
+      <c r="D356" t="inlineStr"/>
       <c r="E356" t="inlineStr"/>
     </row>
     <row r="357">
@@ -4415,10 +4415,10 @@
         <v>44176.89184891204</v>
       </c>
       <c r="B360" t="inlineStr"/>
-      <c r="C360" t="n">
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="n">
         <v>26</v>
       </c>
-      <c r="D360" t="inlineStr"/>
       <c r="E360" t="inlineStr"/>
     </row>
     <row r="361">
@@ -4426,10 +4426,10 @@
         <v>44176.89184928241</v>
       </c>
       <c r="B361" t="inlineStr"/>
-      <c r="C361" t="inlineStr"/>
-      <c r="D361" t="n">
+      <c r="C361" t="n">
         <v>25.6</v>
       </c>
+      <c r="D361" t="inlineStr"/>
       <c r="E361" t="inlineStr"/>
     </row>
     <row r="362">
@@ -4459,10 +4459,10 @@
         <v>44176.89845041667</v>
       </c>
       <c r="B364" t="inlineStr"/>
-      <c r="C364" t="n">
+      <c r="C364" t="inlineStr"/>
+      <c r="D364" t="n">
         <v>26</v>
       </c>
-      <c r="D364" t="inlineStr"/>
       <c r="E364" t="inlineStr"/>
     </row>
     <row r="365">
@@ -4470,10 +4470,10 @@
         <v>44176.89845078703</v>
       </c>
       <c r="B365" t="inlineStr"/>
-      <c r="C365" t="inlineStr"/>
-      <c r="D365" t="n">
+      <c r="C365" t="n">
         <v>25.6</v>
       </c>
+      <c r="D365" t="inlineStr"/>
       <c r="E365" t="inlineStr"/>
     </row>
     <row r="366">
@@ -4492,10 +4492,10 @@
         <v>44177.29919320602</v>
       </c>
       <c r="B367" t="inlineStr"/>
-      <c r="C367" t="n">
+      <c r="C367" t="inlineStr"/>
+      <c r="D367" t="n">
         <v>20.2</v>
       </c>
-      <c r="D367" t="inlineStr"/>
       <c r="E367" t="inlineStr"/>
     </row>
     <row r="368">
@@ -4503,10 +4503,10 @@
         <v>44177.2991937037</v>
       </c>
       <c r="B368" t="inlineStr"/>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="n">
+      <c r="C368" t="n">
         <v>20.2</v>
       </c>
+      <c r="D368" t="inlineStr"/>
       <c r="E368" t="inlineStr"/>
     </row>
     <row r="369">
@@ -4558,10 +4558,10 @@
         <v>44177.61133690972</v>
       </c>
       <c r="B373" t="inlineStr"/>
-      <c r="C373" t="n">
+      <c r="C373" t="inlineStr"/>
+      <c r="D373" t="n">
         <v>26.6</v>
       </c>
-      <c r="D373" t="inlineStr"/>
       <c r="E373" t="inlineStr"/>
     </row>
     <row r="374">
@@ -4569,10 +4569,10 @@
         <v>44177.61133743056</v>
       </c>
       <c r="B374" t="inlineStr"/>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="n">
+      <c r="C374" t="n">
         <v>26.3</v>
       </c>
+      <c r="D374" t="inlineStr"/>
       <c r="E374" t="inlineStr"/>
     </row>
     <row r="375">
@@ -4591,10 +4591,10 @@
         <v>44177.641734375</v>
       </c>
       <c r="B376" t="inlineStr"/>
-      <c r="C376" t="n">
+      <c r="C376" t="inlineStr"/>
+      <c r="D376" t="n">
         <v>26.6</v>
       </c>
-      <c r="D376" t="inlineStr"/>
       <c r="E376" t="inlineStr"/>
     </row>
     <row r="377">
@@ -4602,10 +4602,10 @@
         <v>44177.6417349537</v>
       </c>
       <c r="B377" t="inlineStr"/>
-      <c r="C377" t="inlineStr"/>
-      <c r="D377" t="n">
+      <c r="C377" t="n">
         <v>26.3</v>
       </c>
+      <c r="D377" t="inlineStr"/>
       <c r="E377" t="inlineStr"/>
     </row>
     <row r="378">
@@ -4635,10 +4635,10 @@
         <v>44177.64850837963</v>
       </c>
       <c r="B380" t="inlineStr"/>
-      <c r="C380" t="n">
+      <c r="C380" t="inlineStr"/>
+      <c r="D380" t="n">
         <v>26.6</v>
       </c>
-      <c r="D380" t="inlineStr"/>
       <c r="E380" t="inlineStr"/>
     </row>
     <row r="381">
@@ -4646,10 +4646,10 @@
         <v>44177.64850873843</v>
       </c>
       <c r="B381" t="inlineStr"/>
-      <c r="C381" t="inlineStr"/>
-      <c r="D381" t="n">
+      <c r="C381" t="n">
         <v>26.3</v>
       </c>
+      <c r="D381" t="inlineStr"/>
       <c r="E381" t="inlineStr"/>
     </row>
     <row r="382">
@@ -4679,10 +4679,10 @@
         <v>44178.39179732639</v>
       </c>
       <c r="B384" t="inlineStr"/>
-      <c r="C384" t="n">
+      <c r="C384" t="inlineStr"/>
+      <c r="D384" t="n">
         <v>26.6</v>
       </c>
-      <c r="D384" t="inlineStr"/>
       <c r="E384" t="inlineStr"/>
     </row>
     <row r="385">
@@ -4690,10 +4690,10 @@
         <v>44178.39179771991</v>
       </c>
       <c r="B385" t="inlineStr"/>
-      <c r="C385" t="inlineStr"/>
-      <c r="D385" t="n">
+      <c r="C385" t="n">
         <v>26.3</v>
       </c>
+      <c r="D385" t="inlineStr"/>
       <c r="E385" t="inlineStr"/>
     </row>
     <row r="386">
@@ -4723,10 +4723,10 @@
         <v>44178.39857173611</v>
       </c>
       <c r="B388" t="inlineStr"/>
-      <c r="C388" t="n">
+      <c r="C388" t="inlineStr"/>
+      <c r="D388" t="n">
         <v>26.6</v>
       </c>
-      <c r="D388" t="inlineStr"/>
       <c r="E388" t="inlineStr"/>
     </row>
     <row r="389">
@@ -4734,10 +4734,10 @@
         <v>44178.39857233797</v>
       </c>
       <c r="B389" t="inlineStr"/>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="n">
+      <c r="C389" t="n">
         <v>26.3</v>
       </c>
+      <c r="D389" t="inlineStr"/>
       <c r="E389" t="inlineStr"/>
     </row>
     <row r="390">
@@ -4767,10 +4767,10 @@
         <v>44179.14185842592</v>
       </c>
       <c r="B392" t="inlineStr"/>
-      <c r="C392" t="n">
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="n">
         <v>26.6</v>
       </c>
-      <c r="D392" t="inlineStr"/>
       <c r="E392" t="inlineStr"/>
     </row>
     <row r="393">
@@ -4778,10 +4778,10 @@
         <v>44179.14185885416</v>
       </c>
       <c r="B393" t="inlineStr"/>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="n">
+      <c r="C393" t="n">
         <v>26.3</v>
       </c>
+      <c r="D393" t="inlineStr"/>
       <c r="E393" t="inlineStr"/>
     </row>
     <row r="394">
@@ -4811,10 +4811,10 @@
         <v>44179.14863168982</v>
       </c>
       <c r="B396" t="inlineStr"/>
-      <c r="C396" t="n">
+      <c r="C396" t="inlineStr"/>
+      <c r="D396" t="n">
         <v>26.6</v>
       </c>
-      <c r="D396" t="inlineStr"/>
       <c r="E396" t="inlineStr"/>
     </row>
     <row r="397">
@@ -4822,10 +4822,10 @@
         <v>44179.14863204861</v>
       </c>
       <c r="B397" t="inlineStr"/>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="n">
+      <c r="C397" t="n">
         <v>26.3</v>
       </c>
+      <c r="D397" t="inlineStr"/>
       <c r="E397" t="inlineStr"/>
     </row>
     <row r="398">
@@ -4855,10 +4855,10 @@
         <v>44179.314519375</v>
       </c>
       <c r="B400" t="inlineStr"/>
-      <c r="C400" t="n">
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="n">
         <v>20.4</v>
       </c>
-      <c r="D400" t="inlineStr"/>
       <c r="E400" t="inlineStr"/>
     </row>
     <row r="401">
@@ -4866,10 +4866,10 @@
         <v>44179.31451991898</v>
       </c>
       <c r="B401" t="inlineStr"/>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="n">
+      <c r="C401" t="n">
         <v>20.2</v>
       </c>
+      <c r="D401" t="inlineStr"/>
       <c r="E401" t="inlineStr"/>
     </row>
     <row r="402">
@@ -4921,10 +4921,10 @@
         <v>44179.89173201389</v>
       </c>
       <c r="B406" t="inlineStr"/>
-      <c r="C406" t="n">
+      <c r="C406" t="inlineStr"/>
+      <c r="D406" t="n">
         <v>26</v>
       </c>
-      <c r="D406" t="inlineStr"/>
       <c r="E406" t="inlineStr"/>
     </row>
     <row r="407">
@@ -4932,10 +4932,10 @@
         <v>44179.89173239583</v>
       </c>
       <c r="B407" t="inlineStr"/>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="n">
+      <c r="C407" t="n">
         <v>25.8</v>
       </c>
+      <c r="D407" t="inlineStr"/>
       <c r="E407" t="inlineStr"/>
     </row>
     <row r="408">
@@ -4965,10 +4965,10 @@
         <v>44179.89850600695</v>
       </c>
       <c r="B410" t="inlineStr"/>
-      <c r="C410" t="n">
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="n">
         <v>26</v>
       </c>
-      <c r="D410" t="inlineStr"/>
       <c r="E410" t="inlineStr"/>
     </row>
     <row r="411">
@@ -4976,10 +4976,10 @@
         <v>44179.89850649305</v>
       </c>
       <c r="B411" t="inlineStr"/>
-      <c r="C411" t="inlineStr"/>
-      <c r="D411" t="n">
+      <c r="C411" t="n">
         <v>25.8</v>
       </c>
+      <c r="D411" t="inlineStr"/>
       <c r="E411" t="inlineStr"/>
     </row>
     <row r="412">
@@ -4998,10 +4998,10 @@
         <v>44180.32011452546</v>
       </c>
       <c r="B413" t="inlineStr"/>
-      <c r="C413" t="n">
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="n">
         <v>20.6</v>
       </c>
-      <c r="D413" t="inlineStr"/>
       <c r="E413" t="inlineStr"/>
     </row>
     <row r="414">
@@ -5009,10 +5009,10 @@
         <v>44180.32011489583</v>
       </c>
       <c r="B414" t="inlineStr"/>
-      <c r="C414" t="inlineStr"/>
-      <c r="D414" t="n">
+      <c r="C414" t="n">
         <v>20.6</v>
       </c>
+      <c r="D414" t="inlineStr"/>
       <c r="E414" t="inlineStr"/>
     </row>
     <row r="415">
@@ -5042,10 +5042,10 @@
         <v>44180.53950611111</v>
       </c>
       <c r="B417" t="inlineStr"/>
-      <c r="C417" t="n">
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="n">
         <v>26.5</v>
       </c>
-      <c r="D417" t="inlineStr"/>
       <c r="E417" t="inlineStr"/>
     </row>
     <row r="418">
@@ -5086,10 +5086,10 @@
         <v>44180.64181715278</v>
       </c>
       <c r="B421" t="inlineStr"/>
-      <c r="C421" t="n">
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="n">
         <v>25.3</v>
       </c>
-      <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr"/>
     </row>
     <row r="422">
@@ -5097,10 +5097,10 @@
         <v>44180.64181756944</v>
       </c>
       <c r="B422" t="inlineStr"/>
-      <c r="C422" t="inlineStr"/>
-      <c r="D422" t="n">
+      <c r="C422" t="n">
         <v>25.1</v>
       </c>
+      <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr"/>
     </row>
     <row r="423">
@@ -5130,10 +5130,10 @@
         <v>44180.64859115741</v>
       </c>
       <c r="B425" t="inlineStr"/>
-      <c r="C425" t="n">
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="n">
         <v>25.3</v>
       </c>
-      <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr"/>
     </row>
     <row r="426">
@@ -5141,10 +5141,10 @@
         <v>44180.64859141203</v>
       </c>
       <c r="B426" t="inlineStr"/>
-      <c r="C426" t="inlineStr"/>
-      <c r="D426" t="n">
+      <c r="C426" t="n">
         <v>25.1</v>
       </c>
+      <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr"/>
     </row>
     <row r="427">
@@ -5174,10 +5174,10 @@
         <v>44181.30728321759</v>
       </c>
       <c r="B429" t="inlineStr"/>
-      <c r="C429" t="inlineStr"/>
-      <c r="D429" t="n">
+      <c r="C429" t="n">
         <v>20.6</v>
       </c>
+      <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr"/>
     </row>
     <row r="430">
@@ -5196,10 +5196,10 @@
         <v>44181.30797751158</v>
       </c>
       <c r="B431" t="inlineStr"/>
-      <c r="C431" t="n">
+      <c r="C431" t="inlineStr"/>
+      <c r="D431" t="n">
         <v>21.2</v>
       </c>
-      <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr"/>
     </row>
     <row r="432">
@@ -5218,10 +5218,10 @@
         <v>44181.39187728009</v>
       </c>
       <c r="B433" t="inlineStr"/>
-      <c r="C433" t="n">
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="n">
         <v>25.3</v>
       </c>
-      <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr"/>
     </row>
     <row r="434">
@@ -5229,10 +5229,10 @@
         <v>44181.39187769676</v>
       </c>
       <c r="B434" t="inlineStr"/>
-      <c r="C434" t="inlineStr"/>
-      <c r="D434" t="n">
+      <c r="C434" t="n">
         <v>24.9</v>
       </c>
+      <c r="D434" t="inlineStr"/>
       <c r="E434" t="inlineStr"/>
     </row>
     <row r="435">
@@ -5262,10 +5262,10 @@
         <v>44181.39865138889</v>
       </c>
       <c r="B437" t="inlineStr"/>
-      <c r="C437" t="n">
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="n">
         <v>25.3</v>
       </c>
-      <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr"/>
     </row>
     <row r="438">
@@ -5273,10 +5273,10 @@
         <v>44181.39865174769</v>
       </c>
       <c r="B438" t="inlineStr"/>
-      <c r="C438" t="inlineStr"/>
-      <c r="D438" t="n">
+      <c r="C438" t="n">
         <v>24.9</v>
       </c>
+      <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr"/>
     </row>
     <row r="439">
@@ -5295,10 +5295,10 @@
         <v>44181.47976951389</v>
       </c>
       <c r="B440" t="inlineStr"/>
-      <c r="C440" t="inlineStr"/>
-      <c r="D440" t="n">
+      <c r="C440" t="n">
         <v>23.8</v>
       </c>
+      <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr"/>
     </row>
     <row r="441">
@@ -5317,10 +5317,10 @@
         <v>44181.50999387731</v>
       </c>
       <c r="B442" t="inlineStr"/>
-      <c r="C442" t="n">
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="n">
         <v>24</v>
       </c>
-      <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr"/>
     </row>
     <row r="443">
@@ -5350,10 +5350,10 @@
         <v>44181.6920363426</v>
       </c>
       <c r="B445" t="inlineStr"/>
-      <c r="C445" t="inlineStr"/>
-      <c r="D445" t="n">
+      <c r="C445" t="n">
         <v>25.8</v>
       </c>
+      <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr"/>
     </row>
     <row r="446">
@@ -5372,10 +5372,10 @@
         <v>44181.74675586806</v>
       </c>
       <c r="B447" t="inlineStr"/>
-      <c r="C447" t="n">
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="n">
         <v>26.3</v>
       </c>
-      <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr"/>
     </row>
     <row r="448">
@@ -5394,10 +5394,10 @@
         <v>44182.14175924769</v>
       </c>
       <c r="B449" t="inlineStr"/>
-      <c r="C449" t="n">
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="n">
         <v>26.3</v>
       </c>
-      <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr"/>
     </row>
     <row r="450">
@@ -5405,10 +5405,10 @@
         <v>44182.1417596875</v>
       </c>
       <c r="B450" t="inlineStr"/>
-      <c r="C450" t="inlineStr"/>
-      <c r="D450" t="n">
+      <c r="C450" t="n">
         <v>25.8</v>
       </c>
+      <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr"/>
     </row>
     <row r="451">
@@ -5438,10 +5438,10 @@
         <v>44182.14853449074</v>
       </c>
       <c r="B453" t="inlineStr"/>
-      <c r="C453" t="n">
+      <c r="C453" t="inlineStr"/>
+      <c r="D453" t="n">
         <v>26.3</v>
       </c>
-      <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr"/>
     </row>
     <row r="454">
@@ -5449,10 +5449,10 @@
         <v>44182.14853512731</v>
       </c>
       <c r="B454" t="inlineStr"/>
-      <c r="C454" t="inlineStr"/>
-      <c r="D454" t="n">
+      <c r="C454" t="n">
         <v>25.8</v>
       </c>
+      <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr"/>
     </row>
     <row r="455">
@@ -5471,10 +5471,10 @@
         <v>44182.30712549768</v>
       </c>
       <c r="B456" t="inlineStr"/>
-      <c r="C456" t="n">
+      <c r="C456" t="inlineStr"/>
+      <c r="D456" t="n">
         <v>20.2</v>
       </c>
-      <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr"/>
     </row>
     <row r="457">
@@ -5482,10 +5482,10 @@
         <v>44182.3071258912</v>
       </c>
       <c r="B457" t="inlineStr"/>
-      <c r="C457" t="inlineStr"/>
-      <c r="D457" t="n">
+      <c r="C457" t="n">
         <v>20.2</v>
       </c>
+      <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr"/>
     </row>
     <row r="458">
@@ -5526,10 +5526,10 @@
         <v>44182.58384199074</v>
       </c>
       <c r="B461" t="inlineStr"/>
-      <c r="C461" t="n">
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="n">
         <v>26.5</v>
       </c>
-      <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr"/>
     </row>
     <row r="462">
@@ -5537,10 +5537,10 @@
         <v>44182.58384236111</v>
       </c>
       <c r="B462" t="inlineStr"/>
-      <c r="C462" t="inlineStr"/>
-      <c r="D462" t="n">
+      <c r="C462" t="n">
         <v>26.1</v>
       </c>
+      <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr"/>
     </row>
     <row r="463">
@@ -5570,10 +5570,10 @@
         <v>44182.89182085648</v>
       </c>
       <c r="B465" t="inlineStr"/>
-      <c r="C465" t="n">
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="n">
         <v>26.1</v>
       </c>
-      <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr"/>
     </row>
     <row r="466">
@@ -5581,10 +5581,10 @@
         <v>44182.89182126158</v>
       </c>
       <c r="B466" t="inlineStr"/>
-      <c r="C466" t="inlineStr"/>
-      <c r="D466" t="n">
+      <c r="C466" t="n">
         <v>26.1</v>
       </c>
+      <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr"/>
     </row>
     <row r="467">
@@ -5614,10 +5614,10 @@
         <v>44182.8985952662</v>
       </c>
       <c r="B469" t="inlineStr"/>
-      <c r="C469" t="n">
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="n">
         <v>26.1</v>
       </c>
-      <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr"/>
     </row>
     <row r="470">
@@ -5625,10 +5625,10 @@
         <v>44182.8985958912</v>
       </c>
       <c r="B470" t="inlineStr"/>
-      <c r="C470" t="inlineStr"/>
-      <c r="D470" t="n">
+      <c r="C470" t="n">
         <v>26.1</v>
       </c>
+      <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr"/>
     </row>
     <row r="471">
@@ -5647,10 +5647,10 @@
         <v>44183.30715324074</v>
       </c>
       <c r="B472" t="inlineStr"/>
-      <c r="C472" t="inlineStr"/>
-      <c r="D472" t="n">
+      <c r="C472" t="n">
         <v>20.8</v>
       </c>
+      <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr"/>
     </row>
     <row r="473">
@@ -5669,10 +5669,10 @@
         <v>44183.30784738426</v>
       </c>
       <c r="B474" t="inlineStr"/>
-      <c r="C474" t="n">
+      <c r="C474" t="inlineStr"/>
+      <c r="D474" t="n">
         <v>21.4</v>
       </c>
-      <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr"/>
     </row>
     <row r="475">
@@ -5680,10 +5680,10 @@
         <v>44183.50395869213</v>
       </c>
       <c r="B475" t="inlineStr"/>
-      <c r="C475" t="n">
+      <c r="C475" t="inlineStr"/>
+      <c r="D475" t="n">
         <v>26.5</v>
       </c>
-      <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr"/>
     </row>
     <row r="476">
@@ -5691,10 +5691,10 @@
         <v>44183.52237167824</v>
       </c>
       <c r="B476" t="inlineStr"/>
-      <c r="C476" t="inlineStr"/>
-      <c r="D476" t="n">
+      <c r="C476" t="n">
         <v>26.3</v>
       </c>
+      <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr"/>
     </row>
     <row r="477">
@@ -5735,10 +5735,10 @@
         <v>44183.64188211806</v>
       </c>
       <c r="B480" t="inlineStr"/>
-      <c r="C480" t="n">
+      <c r="C480" t="inlineStr"/>
+      <c r="D480" t="n">
         <v>26</v>
       </c>
-      <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr"/>
     </row>
     <row r="481">
@@ -5746,10 +5746,10 @@
         <v>44183.64188247686</v>
       </c>
       <c r="B481" t="inlineStr"/>
-      <c r="C481" t="inlineStr"/>
-      <c r="D481" t="n">
+      <c r="C481" t="n">
         <v>25.6</v>
       </c>
+      <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr"/>
     </row>
     <row r="482">
@@ -5779,10 +5779,10 @@
         <v>44183.64865666666</v>
       </c>
       <c r="B484" t="inlineStr"/>
-      <c r="C484" t="n">
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="n">
         <v>26</v>
       </c>
-      <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr"/>
     </row>
     <row r="485">
@@ -5790,10 +5790,10 @@
         <v>44183.64865708334</v>
       </c>
       <c r="B485" t="inlineStr"/>
-      <c r="C485" t="inlineStr"/>
-      <c r="D485" t="n">
+      <c r="C485" t="n">
         <v>25.6</v>
       </c>
+      <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr"/>
     </row>
     <row r="486">
@@ -5812,10 +5812,10 @@
         <v>44183.65091469907</v>
       </c>
       <c r="B487" t="inlineStr"/>
-      <c r="C487" t="n">
+      <c r="C487" t="inlineStr"/>
+      <c r="D487" t="n">
         <v>24.7</v>
       </c>
-      <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr"/>
     </row>
     <row r="488">
@@ -5823,10 +5823,10 @@
         <v>44183.65091510417</v>
       </c>
       <c r="B488" t="inlineStr"/>
-      <c r="C488" t="inlineStr"/>
-      <c r="D488" t="n">
+      <c r="C488" t="n">
         <v>24.6</v>
       </c>
+      <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr"/>
     </row>
     <row r="489">
@@ -5856,10 +5856,10 @@
         <v>44184.39176560185</v>
       </c>
       <c r="B491" t="inlineStr"/>
-      <c r="C491" t="n">
+      <c r="C491" t="inlineStr"/>
+      <c r="D491" t="n">
         <v>25.8</v>
       </c>
-      <c r="D491" t="inlineStr"/>
       <c r="E491" t="inlineStr"/>
     </row>
     <row r="492">
@@ -5867,10 +5867,10 @@
         <v>44184.39176620371</v>
       </c>
       <c r="B492" t="inlineStr"/>
-      <c r="C492" t="inlineStr"/>
-      <c r="D492" t="n">
+      <c r="C492" t="n">
         <v>25.4</v>
       </c>
+      <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr"/>
     </row>
     <row r="493">
@@ -5900,10 +5900,10 @@
         <v>44184.3985400926</v>
       </c>
       <c r="B495" t="inlineStr"/>
-      <c r="C495" t="n">
+      <c r="C495" t="inlineStr"/>
+      <c r="D495" t="n">
         <v>25.8</v>
       </c>
-      <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr"/>
     </row>
     <row r="496">
@@ -5911,10 +5911,10 @@
         <v>44184.39854046296</v>
       </c>
       <c r="B496" t="inlineStr"/>
-      <c r="C496" t="inlineStr"/>
-      <c r="D496" t="n">
+      <c r="C496" t="n">
         <v>25.4</v>
       </c>
+      <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr"/>
     </row>
     <row r="497">
@@ -5944,10 +5944,10 @@
         <v>44184.46906297454</v>
       </c>
       <c r="B499" t="inlineStr"/>
-      <c r="C499" t="n">
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="n">
         <v>25.8</v>
       </c>
-      <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr"/>
     </row>
     <row r="500">
@@ -5955,10 +5955,10 @@
         <v>44184.46906347222</v>
       </c>
       <c r="B500" t="inlineStr"/>
-      <c r="C500" t="inlineStr"/>
-      <c r="D500" t="n">
+      <c r="C500" t="n">
         <v>25.4</v>
       </c>
+      <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr"/>
     </row>
     <row r="501">
@@ -5988,10 +5988,10 @@
         <v>44186.58459101852</v>
       </c>
       <c r="B503" t="inlineStr"/>
-      <c r="C503" t="n">
+      <c r="C503" t="inlineStr"/>
+      <c r="D503" t="n">
         <v>25.6</v>
       </c>
-      <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr"/>
     </row>
     <row r="504">
@@ -5999,10 +5999,10 @@
         <v>44186.58459130787</v>
       </c>
       <c r="B504" t="inlineStr"/>
-      <c r="C504" t="inlineStr"/>
-      <c r="D504" t="n">
+      <c r="C504" t="n">
         <v>25.6</v>
       </c>
+      <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr"/>
     </row>
     <row r="505">
@@ -6021,10 +6021,10 @@
         <v>44186.60769337963</v>
       </c>
       <c r="B506" t="inlineStr"/>
-      <c r="C506" t="n">
+      <c r="C506" t="inlineStr"/>
+      <c r="D506" t="n">
         <v>24.2</v>
       </c>
-      <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr"/>
     </row>
     <row r="507">
@@ -6032,10 +6032,10 @@
         <v>44186.60769418981</v>
       </c>
       <c r="B507" t="inlineStr"/>
-      <c r="C507" t="inlineStr"/>
-      <c r="D507" t="n">
+      <c r="C507" t="n">
         <v>24</v>
       </c>
+      <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr"/>
     </row>
     <row r="508">
@@ -6043,10 +6043,10 @@
         <v>44186.62714872685</v>
       </c>
       <c r="B508" t="inlineStr"/>
-      <c r="C508" t="n">
+      <c r="C508" t="inlineStr"/>
+      <c r="D508" t="n">
         <v>26</v>
       </c>
-      <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr"/>
     </row>
     <row r="509">
@@ -6054,10 +6054,10 @@
         <v>44186.63461777778</v>
       </c>
       <c r="B509" t="inlineStr"/>
-      <c r="C509" t="n">
+      <c r="C509" t="inlineStr"/>
+      <c r="D509" t="n">
         <v>25.8</v>
       </c>
-      <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr"/>
     </row>
     <row r="510">
@@ -6065,10 +6065,10 @@
         <v>44186.63461888889</v>
       </c>
       <c r="B510" t="inlineStr"/>
-      <c r="C510" t="inlineStr"/>
-      <c r="D510" t="n">
+      <c r="C510" t="n">
         <v>25.6</v>
       </c>
+      <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr"/>
     </row>
     <row r="511">
@@ -6131,10 +6131,10 @@
         <v>44186.65407195602</v>
       </c>
       <c r="B516" t="inlineStr"/>
-      <c r="C516" t="n">
+      <c r="C516" t="inlineStr"/>
+      <c r="D516" t="n">
         <v>25.8</v>
       </c>
-      <c r="D516" t="inlineStr"/>
       <c r="E516" t="inlineStr"/>
     </row>
     <row r="517">
@@ -6142,10 +6142,10 @@
         <v>44186.65407226852</v>
       </c>
       <c r="B517" t="inlineStr"/>
-      <c r="C517" t="inlineStr"/>
-      <c r="D517" t="n">
+      <c r="C517" t="n">
         <v>25.6</v>
       </c>
+      <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr"/>
     </row>
     <row r="518">
@@ -6175,10 +6175,10 @@
         <v>44187.30824083334</v>
       </c>
       <c r="B520" t="inlineStr"/>
-      <c r="C520" t="n">
+      <c r="C520" t="inlineStr"/>
+      <c r="D520" t="n">
         <v>20.8</v>
       </c>
-      <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr"/>
     </row>
     <row r="521">
@@ -6186,10 +6186,10 @@
         <v>44187.30824133102</v>
       </c>
       <c r="B521" t="inlineStr"/>
-      <c r="C521" t="inlineStr"/>
-      <c r="D521" t="n">
+      <c r="C521" t="n">
         <v>20.8</v>
       </c>
+      <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr"/>
     </row>
     <row r="522">
@@ -6219,10 +6219,10 @@
         <v>44187.39214212963</v>
       </c>
       <c r="B524" t="inlineStr"/>
-      <c r="C524" t="n">
+      <c r="C524" t="inlineStr"/>
+      <c r="D524" t="n">
         <v>25.3</v>
       </c>
-      <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr"/>
     </row>
     <row r="525">
@@ -6230,10 +6230,10 @@
         <v>44187.39283747685</v>
       </c>
       <c r="B525" t="inlineStr"/>
-      <c r="C525" t="inlineStr"/>
-      <c r="D525" t="n">
+      <c r="C525" t="n">
         <v>25.1</v>
       </c>
+      <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr"/>
     </row>
     <row r="526">
@@ -6274,10 +6274,10 @@
         <v>44187.3970065625</v>
       </c>
       <c r="B529" t="inlineStr"/>
-      <c r="C529" t="n">
+      <c r="C529" t="inlineStr"/>
+      <c r="D529" t="n">
         <v>25.3</v>
       </c>
-      <c r="D529" t="inlineStr"/>
       <c r="E529" t="inlineStr"/>
     </row>
     <row r="530">
@@ -6285,10 +6285,10 @@
         <v>44187.39700744213</v>
       </c>
       <c r="B530" t="inlineStr"/>
-      <c r="C530" t="inlineStr"/>
-      <c r="D530" t="n">
+      <c r="C530" t="n">
         <v>25.1</v>
       </c>
+      <c r="D530" t="inlineStr"/>
       <c r="E530" t="inlineStr"/>
     </row>
     <row r="531">
@@ -6307,10 +6307,10 @@
         <v>44187.40395674769</v>
       </c>
       <c r="B532" t="inlineStr"/>
-      <c r="C532" t="inlineStr"/>
-      <c r="D532" t="n">
+      <c r="C532" t="n">
         <v>24</v>
       </c>
+      <c r="D532" t="inlineStr"/>
       <c r="E532" t="inlineStr"/>
     </row>
     <row r="533">
@@ -6329,10 +6329,10 @@
         <v>44187.41785394676</v>
       </c>
       <c r="B534" t="inlineStr"/>
-      <c r="C534" t="n">
+      <c r="C534" t="inlineStr"/>
+      <c r="D534" t="n">
         <v>24</v>
       </c>
-      <c r="D534" t="inlineStr"/>
       <c r="E534" t="inlineStr"/>
     </row>
     <row r="535">
@@ -6362,10 +6362,10 @@
         <v>44187.57524171296</v>
       </c>
       <c r="B537" t="inlineStr"/>
-      <c r="C537" t="n">
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="n">
         <v>26.6</v>
       </c>
-      <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr"/>
     </row>
     <row r="538">
@@ -6373,10 +6373,10 @@
         <v>44187.57524233796</v>
       </c>
       <c r="B538" t="inlineStr"/>
-      <c r="C538" t="inlineStr"/>
-      <c r="D538" t="n">
+      <c r="C538" t="n">
         <v>26.1</v>
       </c>
+      <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr"/>
     </row>
     <row r="539">
@@ -6406,10 +6406,10 @@
         <v>44188.14030685185</v>
       </c>
       <c r="B541" t="inlineStr"/>
-      <c r="C541" t="n">
+      <c r="C541" t="inlineStr"/>
+      <c r="D541" t="n">
         <v>26</v>
       </c>
-      <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr"/>
     </row>
     <row r="542">
@@ -6417,10 +6417,10 @@
         <v>44188.14030726852</v>
       </c>
       <c r="B542" t="inlineStr"/>
-      <c r="C542" t="inlineStr"/>
-      <c r="D542" t="n">
+      <c r="C542" t="n">
         <v>25.6</v>
       </c>
+      <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr"/>
     </row>
     <row r="543">
@@ -6450,10 +6450,10 @@
         <v>44188.14708109954</v>
       </c>
       <c r="B545" t="inlineStr"/>
-      <c r="C545" t="n">
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="n">
         <v>26</v>
       </c>
-      <c r="D545" t="inlineStr"/>
       <c r="E545" t="inlineStr"/>
     </row>
     <row r="546">
@@ -6461,10 +6461,10 @@
         <v>44188.14708164352</v>
       </c>
       <c r="B546" t="inlineStr"/>
-      <c r="C546" t="inlineStr"/>
-      <c r="D546" t="n">
+      <c r="C546" t="n">
         <v>25.6</v>
       </c>
+      <c r="D546" t="inlineStr"/>
       <c r="E546" t="inlineStr"/>
     </row>
     <row r="547">
@@ -6505,10 +6505,10 @@
         <v>44188.30115390047</v>
       </c>
       <c r="B550" t="inlineStr"/>
-      <c r="C550" t="n">
+      <c r="C550" t="inlineStr"/>
+      <c r="D550" t="n">
         <v>20.6</v>
       </c>
-      <c r="D550" t="inlineStr"/>
       <c r="E550" t="inlineStr"/>
     </row>
     <row r="551">
@@ -6516,10 +6516,10 @@
         <v>44188.30115481481</v>
       </c>
       <c r="B551" t="inlineStr"/>
-      <c r="C551" t="inlineStr"/>
-      <c r="D551" t="n">
+      <c r="C551" t="n">
         <v>20.8</v>
       </c>
+      <c r="D551" t="inlineStr"/>
       <c r="E551" t="inlineStr"/>
     </row>
     <row r="552">
@@ -6549,10 +6549,10 @@
         <v>44188.89037700232</v>
       </c>
       <c r="B554" t="inlineStr"/>
-      <c r="C554" t="n">
+      <c r="C554" t="inlineStr"/>
+      <c r="D554" t="n">
         <v>25.4</v>
       </c>
-      <c r="D554" t="inlineStr"/>
       <c r="E554" t="inlineStr"/>
     </row>
     <row r="555">
@@ -6560,10 +6560,10 @@
         <v>44188.8903778125</v>
       </c>
       <c r="B555" t="inlineStr"/>
-      <c r="C555" t="inlineStr"/>
-      <c r="D555" t="n">
+      <c r="C555" t="n">
         <v>25.3</v>
       </c>
+      <c r="D555" t="inlineStr"/>
       <c r="E555" t="inlineStr"/>
     </row>
     <row r="556">
@@ -6593,10 +6593,10 @@
         <v>44188.89697788194</v>
       </c>
       <c r="B558" t="inlineStr"/>
-      <c r="C558" t="n">
+      <c r="C558" t="inlineStr"/>
+      <c r="D558" t="n">
         <v>25.4</v>
       </c>
-      <c r="D558" t="inlineStr"/>
       <c r="E558" t="inlineStr"/>
     </row>
     <row r="559">
@@ -6604,10 +6604,10 @@
         <v>44188.89715324074</v>
       </c>
       <c r="B559" t="inlineStr"/>
-      <c r="C559" t="inlineStr"/>
-      <c r="D559" t="n">
+      <c r="C559" t="n">
         <v>25.3</v>
       </c>
+      <c r="D559" t="inlineStr"/>
       <c r="E559" t="inlineStr"/>
     </row>
     <row r="560">
@@ -6626,10 +6626,10 @@
         <v>44189.31387928241</v>
       </c>
       <c r="B561" t="inlineStr"/>
-      <c r="C561" t="n">
+      <c r="C561" t="inlineStr"/>
+      <c r="D561" t="n">
         <v>20.2</v>
       </c>
-      <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr"/>
     </row>
     <row r="562">
@@ -6637,10 +6637,10 @@
         <v>44189.31387960648</v>
       </c>
       <c r="B562" t="inlineStr"/>
-      <c r="C562" t="inlineStr"/>
-      <c r="D562" t="n">
+      <c r="C562" t="n">
         <v>20.2</v>
       </c>
+      <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr"/>
     </row>
     <row r="563">
@@ -6681,10 +6681,10 @@
         <v>44189.49332564815</v>
       </c>
       <c r="B566" t="inlineStr"/>
-      <c r="C566" t="n">
+      <c r="C566" t="inlineStr"/>
+      <c r="D566" t="n">
         <v>26</v>
       </c>
-      <c r="D566" t="inlineStr"/>
       <c r="E566" t="inlineStr"/>
     </row>
     <row r="567">
@@ -6692,10 +6692,10 @@
         <v>44189.49332673611</v>
       </c>
       <c r="B567" t="inlineStr"/>
-      <c r="C567" t="inlineStr"/>
-      <c r="D567" t="n">
+      <c r="C567" t="n">
         <v>25.6</v>
       </c>
+      <c r="D567" t="inlineStr"/>
       <c r="E567" t="inlineStr"/>
     </row>
     <row r="568">
@@ -6725,10 +6725,10 @@
         <v>44189.64028729167</v>
       </c>
       <c r="B570" t="inlineStr"/>
-      <c r="C570" t="n">
+      <c r="C570" t="inlineStr"/>
+      <c r="D570" t="n">
         <v>24.9</v>
       </c>
-      <c r="D570" t="inlineStr"/>
       <c r="E570" t="inlineStr"/>
     </row>
     <row r="571">
@@ -6736,10 +6736,10 @@
         <v>44189.64028768519</v>
       </c>
       <c r="B571" t="inlineStr"/>
-      <c r="C571" t="inlineStr"/>
-      <c r="D571" t="n">
+      <c r="C571" t="n">
         <v>24.9</v>
       </c>
+      <c r="D571" t="inlineStr"/>
       <c r="E571" t="inlineStr"/>
     </row>
     <row r="572">
@@ -6769,10 +6769,10 @@
         <v>44189.64706157408</v>
       </c>
       <c r="B574" t="inlineStr"/>
-      <c r="C574" t="n">
+      <c r="C574" t="inlineStr"/>
+      <c r="D574" t="n">
         <v>24.9</v>
       </c>
-      <c r="D574" t="inlineStr"/>
       <c r="E574" t="inlineStr"/>
     </row>
     <row r="575">
@@ -6780,10 +6780,10 @@
         <v>44189.64706215278</v>
       </c>
       <c r="B575" t="inlineStr"/>
-      <c r="C575" t="inlineStr"/>
-      <c r="D575" t="n">
+      <c r="C575" t="n">
         <v>24.9</v>
       </c>
+      <c r="D575" t="inlineStr"/>
       <c r="E575" t="inlineStr"/>
     </row>
     <row r="576">
@@ -6824,10 +6824,10 @@
         <v>44190.34639539352</v>
       </c>
       <c r="B579" t="inlineStr"/>
-      <c r="C579" t="inlineStr"/>
-      <c r="D579" t="n">
+      <c r="C579" t="n">
         <v>20.2</v>
       </c>
+      <c r="D579" t="inlineStr"/>
       <c r="E579" t="inlineStr"/>
     </row>
     <row r="580">
@@ -6835,10 +6835,10 @@
         <v>44190.34708945602</v>
       </c>
       <c r="B580" t="inlineStr"/>
-      <c r="C580" t="n">
+      <c r="C580" t="inlineStr"/>
+      <c r="D580" t="n">
         <v>20.8</v>
       </c>
-      <c r="D580" t="inlineStr"/>
       <c r="E580" t="inlineStr"/>
     </row>
     <row r="581">
@@ -6868,10 +6868,10 @@
         <v>44190.39034275463</v>
       </c>
       <c r="B583" t="inlineStr"/>
-      <c r="C583" t="n">
+      <c r="C583" t="inlineStr"/>
+      <c r="D583" t="n">
         <v>23.7</v>
       </c>
-      <c r="D583" t="inlineStr"/>
       <c r="E583" t="inlineStr"/>
     </row>
     <row r="584">
@@ -6879,10 +6879,10 @@
         <v>44190.39034356482</v>
       </c>
       <c r="B584" t="inlineStr"/>
-      <c r="C584" t="inlineStr"/>
-      <c r="D584" t="n">
+      <c r="C584" t="n">
         <v>23.3</v>
       </c>
+      <c r="D584" t="inlineStr"/>
       <c r="E584" t="inlineStr"/>
     </row>
     <row r="585">
@@ -6912,10 +6912,10 @@
         <v>44190.39711638889</v>
       </c>
       <c r="B587" t="inlineStr"/>
-      <c r="C587" t="n">
+      <c r="C587" t="inlineStr"/>
+      <c r="D587" t="n">
         <v>23.7</v>
       </c>
-      <c r="D587" t="inlineStr"/>
       <c r="E587" t="inlineStr"/>
     </row>
     <row r="588">
@@ -6923,10 +6923,10 @@
         <v>44190.39711854167</v>
       </c>
       <c r="B588" t="inlineStr"/>
-      <c r="C588" t="inlineStr"/>
-      <c r="D588" t="n">
+      <c r="C588" t="n">
         <v>23.3</v>
       </c>
+      <c r="D588" t="inlineStr"/>
       <c r="E588" t="inlineStr"/>
     </row>
     <row r="589">
@@ -6945,10 +6945,10 @@
         <v>44190.41274990741</v>
       </c>
       <c r="B590" t="inlineStr"/>
-      <c r="C590" t="n">
+      <c r="C590" t="inlineStr"/>
+      <c r="D590" t="n">
         <v>24.2</v>
       </c>
-      <c r="D590" t="inlineStr"/>
       <c r="E590" t="inlineStr"/>
     </row>
     <row r="591">
@@ -6956,10 +6956,10 @@
         <v>44190.41275016204</v>
       </c>
       <c r="B591" t="inlineStr"/>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="n">
+      <c r="C591" t="n">
         <v>24</v>
       </c>
+      <c r="D591" t="inlineStr"/>
       <c r="E591" t="inlineStr"/>
     </row>
     <row r="592">
@@ -6967,10 +6967,10 @@
         <v>44190.4533966088</v>
       </c>
       <c r="B592" t="inlineStr"/>
-      <c r="C592" t="inlineStr"/>
-      <c r="D592" t="n">
+      <c r="C592" t="n">
         <v>22.2</v>
       </c>
+      <c r="D592" t="inlineStr"/>
       <c r="E592" t="inlineStr"/>
     </row>
     <row r="593">
@@ -6978,10 +6978,10 @@
         <v>44190.45408997685</v>
       </c>
       <c r="B593" t="inlineStr"/>
-      <c r="C593" t="n">
+      <c r="C593" t="inlineStr"/>
+      <c r="D593" t="n">
         <v>22.6</v>
       </c>
-      <c r="D593" t="inlineStr"/>
       <c r="E593" t="inlineStr"/>
     </row>
     <row r="594">
@@ -7033,10 +7033,10 @@
         <v>44190.74800263889</v>
       </c>
       <c r="B598" t="inlineStr"/>
-      <c r="C598" t="n">
+      <c r="C598" t="inlineStr"/>
+      <c r="D598" t="n">
         <v>24</v>
       </c>
-      <c r="D598" t="inlineStr"/>
       <c r="E598" t="inlineStr"/>
     </row>
     <row r="599">
@@ -7044,10 +7044,10 @@
         <v>44190.74800337963</v>
       </c>
       <c r="B599" t="inlineStr"/>
-      <c r="C599" t="inlineStr"/>
-      <c r="D599" t="n">
+      <c r="C599" t="n">
         <v>24</v>
       </c>
+      <c r="D599" t="inlineStr"/>
       <c r="E599" t="inlineStr"/>
     </row>
     <row r="600">
@@ -7077,10 +7077,10 @@
         <v>44217.74259506945</v>
       </c>
       <c r="B602" t="inlineStr"/>
-      <c r="C602" t="n">
+      <c r="C602" t="inlineStr"/>
+      <c r="D602" t="n">
         <v>25.6</v>
       </c>
-      <c r="D602" t="inlineStr"/>
       <c r="E602" t="inlineStr"/>
     </row>
     <row r="603">
@@ -7088,10 +7088,10 @@
         <v>44217.74259541667</v>
       </c>
       <c r="B603" t="inlineStr"/>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="n">
+      <c r="C603" t="n">
         <v>25.3</v>
       </c>
+      <c r="D603" t="inlineStr"/>
       <c r="E603" t="inlineStr"/>
     </row>
     <row r="604">
@@ -7121,10 +7121,10 @@
         <v>44218.1455434375</v>
       </c>
       <c r="B606" t="inlineStr"/>
-      <c r="C606" t="n">
+      <c r="C606" t="inlineStr"/>
+      <c r="D606" t="n">
         <v>25.6</v>
       </c>
-      <c r="D606" t="inlineStr"/>
       <c r="E606" t="inlineStr"/>
     </row>
     <row r="607">
@@ -7132,10 +7132,10 @@
         <v>44218.14554372685</v>
       </c>
       <c r="B607" t="inlineStr"/>
-      <c r="C607" t="inlineStr"/>
-      <c r="D607" t="n">
+      <c r="C607" t="n">
         <v>25.3</v>
       </c>
+      <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr"/>
     </row>
     <row r="608">
@@ -7165,10 +7165,10 @@
         <v>44218.15231697917</v>
       </c>
       <c r="B610" t="inlineStr"/>
-      <c r="C610" t="n">
+      <c r="C610" t="inlineStr"/>
+      <c r="D610" t="n">
         <v>25.6</v>
       </c>
-      <c r="D610" t="inlineStr"/>
       <c r="E610" t="inlineStr"/>
     </row>
     <row r="611">
@@ -7176,10 +7176,10 @@
         <v>44218.15231774306</v>
       </c>
       <c r="B611" t="inlineStr"/>
-      <c r="C611" t="inlineStr"/>
-      <c r="D611" t="n">
+      <c r="C611" t="n">
         <v>25.3</v>
       </c>
+      <c r="D611" t="inlineStr"/>
       <c r="E611" t="inlineStr"/>
     </row>
     <row r="612">
@@ -7209,10 +7209,10 @@
         <v>44218.3140212037</v>
       </c>
       <c r="B614" t="inlineStr"/>
-      <c r="C614" t="n">
+      <c r="C614" t="inlineStr"/>
+      <c r="D614" t="n">
         <v>21.2</v>
       </c>
-      <c r="D614" t="inlineStr"/>
       <c r="E614" t="inlineStr"/>
     </row>
     <row r="615">
@@ -7220,10 +7220,10 @@
         <v>44218.31419557871</v>
       </c>
       <c r="B615" t="inlineStr"/>
-      <c r="C615" t="inlineStr"/>
-      <c r="D615" t="n">
+      <c r="C615" t="n">
         <v>21.2</v>
       </c>
+      <c r="D615" t="inlineStr"/>
       <c r="E615" t="inlineStr"/>
     </row>
     <row r="616">
@@ -7253,10 +7253,10 @@
         <v>44218.54297138889</v>
       </c>
       <c r="B618" t="inlineStr"/>
-      <c r="C618" t="n">
+      <c r="C618" t="inlineStr"/>
+      <c r="D618" t="n">
         <v>26.6</v>
       </c>
-      <c r="D618" t="inlineStr"/>
       <c r="E618" t="inlineStr"/>
     </row>
     <row r="619">
@@ -7264,10 +7264,10 @@
         <v>44218.59456677084</v>
       </c>
       <c r="B619" t="inlineStr"/>
-      <c r="C619" t="inlineStr"/>
-      <c r="D619" t="n">
+      <c r="C619" t="n">
         <v>26.3</v>
       </c>
+      <c r="D619" t="inlineStr"/>
       <c r="E619" t="inlineStr"/>
     </row>
     <row r="620">
@@ -7297,10 +7297,10 @@
         <v>44218.89559547454</v>
       </c>
       <c r="B622" t="inlineStr"/>
-      <c r="C622" t="n">
+      <c r="C622" t="inlineStr"/>
+      <c r="D622" t="n">
         <v>26.6</v>
       </c>
-      <c r="D622" t="inlineStr"/>
       <c r="E622" t="inlineStr"/>
     </row>
     <row r="623">
@@ -7308,10 +7308,10 @@
         <v>44218.89559609954</v>
       </c>
       <c r="B623" t="inlineStr"/>
-      <c r="C623" t="inlineStr"/>
-      <c r="D623" t="n">
+      <c r="C623" t="n">
         <v>25.8</v>
       </c>
+      <c r="D623" t="inlineStr"/>
       <c r="E623" t="inlineStr"/>
     </row>
     <row r="624">
@@ -7341,10 +7341,10 @@
         <v>44218.90219535879</v>
       </c>
       <c r="B626" t="inlineStr"/>
-      <c r="C626" t="n">
+      <c r="C626" t="inlineStr"/>
+      <c r="D626" t="n">
         <v>26.6</v>
       </c>
-      <c r="D626" t="inlineStr"/>
       <c r="E626" t="inlineStr"/>
     </row>
     <row r="627">
@@ -7352,10 +7352,10 @@
         <v>44218.90237024306</v>
       </c>
       <c r="B627" t="inlineStr"/>
-      <c r="C627" t="inlineStr"/>
-      <c r="D627" t="n">
+      <c r="C627" t="n">
         <v>25.8</v>
       </c>
+      <c r="D627" t="inlineStr"/>
       <c r="E627" t="inlineStr"/>
     </row>
     <row r="628">
@@ -7385,10 +7385,10 @@
         <v>44219.6456034838</v>
       </c>
       <c r="B630" t="inlineStr"/>
-      <c r="C630" t="n">
+      <c r="C630" t="inlineStr"/>
+      <c r="D630" t="n">
         <v>26.6</v>
       </c>
-      <c r="D630" t="inlineStr"/>
       <c r="E630" t="inlineStr"/>
     </row>
     <row r="631">
@@ -7396,10 +7396,10 @@
         <v>44219.64560392361</v>
       </c>
       <c r="B631" t="inlineStr"/>
-      <c r="C631" t="inlineStr"/>
-      <c r="D631" t="n">
+      <c r="C631" t="n">
         <v>25.8</v>
       </c>
+      <c r="D631" t="inlineStr"/>
       <c r="E631" t="inlineStr"/>
     </row>
     <row r="632">
@@ -7429,10 +7429,10 @@
         <v>44219.65220370371</v>
       </c>
       <c r="B634" t="inlineStr"/>
-      <c r="C634" t="n">
+      <c r="C634" t="inlineStr"/>
+      <c r="D634" t="n">
         <v>26.6</v>
       </c>
-      <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr"/>
     </row>
     <row r="635">
@@ -7440,10 +7440,10 @@
         <v>44219.6523775</v>
       </c>
       <c r="B635" t="inlineStr"/>
-      <c r="C635" t="inlineStr"/>
-      <c r="D635" t="n">
+      <c r="C635" t="n">
         <v>25.8</v>
       </c>
+      <c r="D635" t="inlineStr"/>
       <c r="E635" t="inlineStr"/>
     </row>
     <row r="636">
@@ -7473,10 +7473,10 @@
         <v>44220.39551988426</v>
       </c>
       <c r="B638" t="inlineStr"/>
-      <c r="C638" t="n">
+      <c r="C638" t="inlineStr"/>
+      <c r="D638" t="n">
         <v>26.6</v>
       </c>
-      <c r="D638" t="inlineStr"/>
       <c r="E638" t="inlineStr"/>
     </row>
     <row r="639">
@@ -7484,10 +7484,10 @@
         <v>44220.39552016203</v>
       </c>
       <c r="B639" t="inlineStr"/>
-      <c r="C639" t="inlineStr"/>
-      <c r="D639" t="n">
+      <c r="C639" t="n">
         <v>25.8</v>
       </c>
+      <c r="D639" t="inlineStr"/>
       <c r="E639" t="inlineStr"/>
     </row>
     <row r="640">
@@ -7517,10 +7517,10 @@
         <v>44220.40229520833</v>
       </c>
       <c r="B642" t="inlineStr"/>
-      <c r="C642" t="n">
+      <c r="C642" t="inlineStr"/>
+      <c r="D642" t="n">
         <v>26.6</v>
       </c>
-      <c r="D642" t="inlineStr"/>
       <c r="E642" t="inlineStr"/>
     </row>
     <row r="643">
@@ -7528,10 +7528,10 @@
         <v>44220.40229585648</v>
       </c>
       <c r="B643" t="inlineStr"/>
-      <c r="C643" t="inlineStr"/>
-      <c r="D643" t="n">
+      <c r="C643" t="n">
         <v>25.8</v>
       </c>
+      <c r="D643" t="inlineStr"/>
       <c r="E643" t="inlineStr"/>
     </row>
     <row r="644">
@@ -7561,10 +7561,10 @@
         <v>44221.14556954861</v>
       </c>
       <c r="B646" t="inlineStr"/>
-      <c r="C646" t="n">
+      <c r="C646" t="inlineStr"/>
+      <c r="D646" t="n">
         <v>26.6</v>
       </c>
-      <c r="D646" t="inlineStr"/>
       <c r="E646" t="inlineStr"/>
     </row>
     <row r="647">
@@ -7572,10 +7572,10 @@
         <v>44221.14557030093</v>
       </c>
       <c r="B647" t="inlineStr"/>
-      <c r="C647" t="inlineStr"/>
-      <c r="D647" t="n">
+      <c r="C647" t="n">
         <v>25.8</v>
       </c>
+      <c r="D647" t="inlineStr"/>
       <c r="E647" t="inlineStr"/>
     </row>
     <row r="648">
@@ -7605,10 +7605,10 @@
         <v>44221.15234363426</v>
       </c>
       <c r="B650" t="inlineStr"/>
-      <c r="C650" t="n">
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="n">
         <v>26.6</v>
       </c>
-      <c r="D650" t="inlineStr"/>
       <c r="E650" t="inlineStr"/>
     </row>
     <row r="651">
@@ -7616,10 +7616,10 @@
         <v>44221.15234442129</v>
       </c>
       <c r="B651" t="inlineStr"/>
-      <c r="C651" t="inlineStr"/>
-      <c r="D651" t="n">
+      <c r="C651" t="n">
         <v>25.8</v>
       </c>
+      <c r="D651" t="inlineStr"/>
       <c r="E651" t="inlineStr"/>
     </row>
     <row r="652">
@@ -7649,10 +7649,10 @@
         <v>44221.30692827547</v>
       </c>
       <c r="B654" t="inlineStr"/>
-      <c r="C654" t="inlineStr"/>
-      <c r="D654" t="n">
+      <c r="C654" t="n">
         <v>20.4</v>
       </c>
+      <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr"/>
     </row>
     <row r="655">
@@ -7671,10 +7671,10 @@
         <v>44221.30762234954</v>
       </c>
       <c r="B656" t="inlineStr"/>
-      <c r="C656" t="n">
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="n">
         <v>21</v>
       </c>
-      <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr"/>
     </row>
     <row r="657">
@@ -7704,10 +7704,10 @@
         <v>44221.89554706019</v>
       </c>
       <c r="B659" t="inlineStr"/>
-      <c r="C659" t="n">
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="n">
         <v>26.1</v>
       </c>
-      <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr"/>
     </row>
     <row r="660">
@@ -7715,10 +7715,10 @@
         <v>44221.89554747685</v>
       </c>
       <c r="B660" t="inlineStr"/>
-      <c r="C660" t="inlineStr"/>
-      <c r="D660" t="n">
+      <c r="C660" t="n">
         <v>25.6</v>
       </c>
+      <c r="D660" t="inlineStr"/>
       <c r="E660" t="inlineStr"/>
     </row>
     <row r="661">
@@ -7748,10 +7748,10 @@
         <v>44221.90232173611</v>
       </c>
       <c r="B663" t="inlineStr"/>
-      <c r="C663" t="n">
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="n">
         <v>26.1</v>
       </c>
-      <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr"/>
     </row>
     <row r="664">
@@ -7759,10 +7759,10 @@
         <v>44221.90232201389</v>
       </c>
       <c r="B664" t="inlineStr"/>
-      <c r="C664" t="inlineStr"/>
-      <c r="D664" t="n">
+      <c r="C664" t="n">
         <v>25.6</v>
       </c>
+      <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr"/>
     </row>
     <row r="665">
@@ -7792,10 +7792,10 @@
         <v>44222.30913769676</v>
       </c>
       <c r="B667" t="inlineStr"/>
-      <c r="C667" t="n">
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="n">
         <v>20.8</v>
       </c>
-      <c r="D667" t="inlineStr"/>
       <c r="E667" t="inlineStr"/>
     </row>
     <row r="668">
@@ -7803,10 +7803,10 @@
         <v>44222.30913824074</v>
       </c>
       <c r="B668" t="inlineStr"/>
-      <c r="C668" t="inlineStr"/>
-      <c r="D668" t="n">
+      <c r="C668" t="n">
         <v>20.6</v>
       </c>
+      <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr"/>
     </row>
     <row r="669">
@@ -7847,10 +7847,10 @@
         <v>44222.57353261574</v>
       </c>
       <c r="B672" t="inlineStr"/>
-      <c r="C672" t="inlineStr"/>
-      <c r="D672" t="n">
+      <c r="C672" t="n">
         <v>25.8</v>
       </c>
+      <c r="D672" t="inlineStr"/>
       <c r="E672" t="inlineStr"/>
     </row>
     <row r="673">
@@ -7869,10 +7869,10 @@
         <v>44222.64562356481</v>
       </c>
       <c r="B674" t="inlineStr"/>
-      <c r="C674" t="n">
+      <c r="C674" t="inlineStr"/>
+      <c r="D674" t="n">
         <v>26.1</v>
       </c>
-      <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr"/>
     </row>
     <row r="675">
@@ -7880,10 +7880,10 @@
         <v>44222.64562407407</v>
       </c>
       <c r="B675" t="inlineStr"/>
-      <c r="C675" t="inlineStr"/>
-      <c r="D675" t="n">
+      <c r="C675" t="n">
         <v>25.8</v>
       </c>
+      <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr"/>
     </row>
     <row r="676">
@@ -7913,10 +7913,10 @@
         <v>44222.65222557871</v>
       </c>
       <c r="B678" t="inlineStr"/>
-      <c r="C678" t="n">
+      <c r="C678" t="inlineStr"/>
+      <c r="D678" t="n">
         <v>26.1</v>
       </c>
-      <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr"/>
     </row>
     <row r="679">
@@ -7924,10 +7924,10 @@
         <v>44222.65239956018</v>
       </c>
       <c r="B679" t="inlineStr"/>
-      <c r="C679" t="inlineStr"/>
-      <c r="D679" t="n">
+      <c r="C679" t="n">
         <v>25.8</v>
       </c>
+      <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr"/>
     </row>
     <row r="680">
@@ -7957,10 +7957,10 @@
         <v>44223.30952891204</v>
       </c>
       <c r="B682" t="inlineStr"/>
-      <c r="C682" t="inlineStr"/>
-      <c r="D682" t="n">
+      <c r="C682" t="n">
         <v>21.4</v>
       </c>
+      <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr"/>
     </row>
     <row r="683">
@@ -7968,10 +7968,10 @@
         <v>44223.31039635417</v>
       </c>
       <c r="B683" t="inlineStr"/>
-      <c r="C683" t="n">
+      <c r="C683" t="inlineStr"/>
+      <c r="D683" t="n">
         <v>22.2</v>
       </c>
-      <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr"/>
     </row>
     <row r="684">
@@ -8023,10 +8023,10 @@
         <v>44223.39551746528</v>
       </c>
       <c r="B688" t="inlineStr"/>
-      <c r="C688" t="n">
+      <c r="C688" t="inlineStr"/>
+      <c r="D688" t="n">
         <v>25.4</v>
       </c>
-      <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr"/>
     </row>
     <row r="689">
@@ -8034,10 +8034,10 @@
         <v>44223.3955181713</v>
       </c>
       <c r="B689" t="inlineStr"/>
-      <c r="C689" t="inlineStr"/>
-      <c r="D689" t="n">
+      <c r="C689" t="n">
         <v>24.7</v>
       </c>
+      <c r="D689" t="inlineStr"/>
       <c r="E689" t="inlineStr"/>
     </row>
     <row r="690">
@@ -8056,10 +8056,10 @@
         <v>44223.3969066088</v>
       </c>
       <c r="B691" t="inlineStr"/>
-      <c r="C691" t="n">
+      <c r="C691" t="inlineStr"/>
+      <c r="D691" t="n">
         <v>25.4</v>
       </c>
-      <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr"/>
     </row>
     <row r="692">
@@ -8067,10 +8067,10 @@
         <v>44223.39690712963</v>
       </c>
       <c r="B692" t="inlineStr"/>
-      <c r="C692" t="inlineStr"/>
-      <c r="D692" t="n">
+      <c r="C692" t="n">
         <v>24.7</v>
       </c>
+      <c r="D692" t="inlineStr"/>
       <c r="E692" t="inlineStr"/>
     </row>
     <row r="693">
@@ -8089,10 +8089,10 @@
         <v>44223.39916469908</v>
       </c>
       <c r="B694" t="inlineStr"/>
-      <c r="C694" t="inlineStr"/>
-      <c r="D694" t="n">
+      <c r="C694" t="n">
         <v>25.3</v>
       </c>
+      <c r="D694" t="inlineStr"/>
       <c r="E694" t="inlineStr"/>
     </row>
     <row r="695">
@@ -8122,10 +8122,10 @@
         <v>44223.43112944444</v>
       </c>
       <c r="B697" t="inlineStr"/>
-      <c r="C697" t="n">
+      <c r="C697" t="inlineStr"/>
+      <c r="D697" t="n">
         <v>24</v>
       </c>
-      <c r="D697" t="inlineStr"/>
       <c r="E697" t="inlineStr"/>
     </row>
     <row r="698">
@@ -8133,10 +8133,10 @@
         <v>44223.4311297801</v>
       </c>
       <c r="B698" t="inlineStr"/>
-      <c r="C698" t="inlineStr"/>
-      <c r="D698" t="n">
+      <c r="C698" t="n">
         <v>23.7</v>
       </c>
+      <c r="D698" t="inlineStr"/>
       <c r="E698" t="inlineStr"/>
     </row>
     <row r="699">
@@ -8177,10 +8177,10 @@
         <v>44223.6103971412</v>
       </c>
       <c r="B702" t="inlineStr"/>
-      <c r="C702" t="n">
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="n">
         <v>26</v>
       </c>
-      <c r="D702" t="inlineStr"/>
       <c r="E702" t="inlineStr"/>
     </row>
     <row r="703">
@@ -8199,10 +8199,10 @@
         <v>44224.14562305556</v>
       </c>
       <c r="B704" t="inlineStr"/>
-      <c r="C704" t="n">
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="n">
         <v>26</v>
       </c>
-      <c r="D704" t="inlineStr"/>
       <c r="E704" t="inlineStr"/>
     </row>
     <row r="705">
@@ -8210,10 +8210,10 @@
         <v>44224.14562358796</v>
       </c>
       <c r="B705" t="inlineStr"/>
-      <c r="C705" t="inlineStr"/>
-      <c r="D705" t="n">
+      <c r="C705" t="n">
         <v>25.3</v>
       </c>
+      <c r="D705" t="inlineStr"/>
       <c r="E705" t="inlineStr"/>
     </row>
     <row r="706">
@@ -8243,10 +8243,10 @@
         <v>44224.15239673611</v>
       </c>
       <c r="B708" t="inlineStr"/>
-      <c r="C708" t="n">
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="n">
         <v>26</v>
       </c>
-      <c r="D708" t="inlineStr"/>
       <c r="E708" t="inlineStr"/>
     </row>
     <row r="709">
@@ -8254,10 +8254,10 @@
         <v>44224.15239703704</v>
       </c>
       <c r="B709" t="inlineStr"/>
-      <c r="C709" t="inlineStr"/>
-      <c r="D709" t="n">
+      <c r="C709" t="n">
         <v>25.3</v>
       </c>
+      <c r="D709" t="inlineStr"/>
       <c r="E709" t="inlineStr"/>
     </row>
     <row r="710">
@@ -8276,10 +8276,10 @@
         <v>44224.31445521991</v>
       </c>
       <c r="B711" t="inlineStr"/>
-      <c r="C711" t="n">
+      <c r="C711" t="inlineStr"/>
+      <c r="D711" t="n">
         <v>20.8</v>
       </c>
-      <c r="D711" t="inlineStr"/>
       <c r="E711" t="inlineStr"/>
     </row>
     <row r="712">
@@ -8287,10 +8287,10 @@
         <v>44224.31462990741</v>
       </c>
       <c r="B712" t="inlineStr"/>
-      <c r="C712" t="inlineStr"/>
-      <c r="D712" t="n">
+      <c r="C712" t="n">
         <v>20.8</v>
       </c>
+      <c r="D712" t="inlineStr"/>
       <c r="E712" t="inlineStr"/>
     </row>
     <row r="713">
@@ -8342,10 +8342,10 @@
         <v>44224.57985270833</v>
       </c>
       <c r="B717" t="inlineStr"/>
-      <c r="C717" t="n">
+      <c r="C717" t="inlineStr"/>
+      <c r="D717" t="n">
         <v>26.3</v>
       </c>
-      <c r="D717" t="inlineStr"/>
       <c r="E717" t="inlineStr"/>
     </row>
     <row r="718">
@@ -8353,10 +8353,10 @@
         <v>44224.59566239583</v>
       </c>
       <c r="B718" t="inlineStr"/>
-      <c r="C718" t="inlineStr"/>
-      <c r="D718" t="n">
+      <c r="C718" t="n">
         <v>25.8</v>
       </c>
+      <c r="D718" t="inlineStr"/>
       <c r="E718" t="inlineStr"/>
     </row>
     <row r="719">
@@ -8375,10 +8375,10 @@
         <v>44224.89563414352</v>
       </c>
       <c r="B720" t="inlineStr"/>
-      <c r="C720" t="n">
+      <c r="C720" t="inlineStr"/>
+      <c r="D720" t="n">
         <v>26.1</v>
       </c>
-      <c r="D720" t="inlineStr"/>
       <c r="E720" t="inlineStr"/>
     </row>
     <row r="721">
@@ -8386,10 +8386,10 @@
         <v>44224.89563483797</v>
       </c>
       <c r="B721" t="inlineStr"/>
-      <c r="C721" t="inlineStr"/>
-      <c r="D721" t="n">
+      <c r="C721" t="n">
         <v>25.8</v>
       </c>
+      <c r="D721" t="inlineStr"/>
       <c r="E721" t="inlineStr"/>
     </row>
     <row r="722">
@@ -8419,10 +8419,10 @@
         <v>44224.90241100694</v>
       </c>
       <c r="B724" t="inlineStr"/>
-      <c r="C724" t="n">
+      <c r="C724" t="inlineStr"/>
+      <c r="D724" t="n">
         <v>26.1</v>
       </c>
-      <c r="D724" t="inlineStr"/>
       <c r="E724" t="inlineStr"/>
     </row>
     <row r="725">
@@ -8430,10 +8430,10 @@
         <v>44224.90241179398</v>
       </c>
       <c r="B725" t="inlineStr"/>
-      <c r="C725" t="inlineStr"/>
-      <c r="D725" t="n">
+      <c r="C725" t="n">
         <v>25.8</v>
       </c>
+      <c r="D725" t="inlineStr"/>
       <c r="E725" t="inlineStr"/>
     </row>
     <row r="726">
@@ -8463,10 +8463,10 @@
         <v>44225.32520708333</v>
       </c>
       <c r="B728" t="inlineStr"/>
-      <c r="C728" t="n">
+      <c r="C728" t="inlineStr"/>
+      <c r="D728" t="n">
         <v>21</v>
       </c>
-      <c r="D728" t="inlineStr"/>
       <c r="E728" t="inlineStr"/>
     </row>
     <row r="729">
@@ -8474,10 +8474,10 @@
         <v>44225.32520782408</v>
       </c>
       <c r="B729" t="inlineStr"/>
-      <c r="C729" t="inlineStr"/>
-      <c r="D729" t="n">
+      <c r="C729" t="n">
         <v>20.8</v>
       </c>
+      <c r="D729" t="inlineStr"/>
       <c r="E729" t="inlineStr"/>
     </row>
     <row r="730">
@@ -8507,10 +8507,10 @@
         <v>44225.60380796297</v>
       </c>
       <c r="B732" t="inlineStr"/>
-      <c r="C732" t="n">
+      <c r="C732" t="inlineStr"/>
+      <c r="D732" t="n">
         <v>26.6</v>
       </c>
-      <c r="D732" t="inlineStr"/>
       <c r="E732" t="inlineStr"/>
     </row>
     <row r="733">
@@ -8518,10 +8518,10 @@
         <v>44225.60380822916</v>
       </c>
       <c r="B733" t="inlineStr"/>
-      <c r="C733" t="inlineStr"/>
-      <c r="D733" t="n">
+      <c r="C733" t="n">
         <v>26.3</v>
       </c>
+      <c r="D733" t="inlineStr"/>
       <c r="E733" t="inlineStr"/>
     </row>
     <row r="734">
@@ -8540,10 +8540,10 @@
         <v>44225.64567291667</v>
       </c>
       <c r="B735" t="inlineStr"/>
-      <c r="C735" t="n">
+      <c r="C735" t="inlineStr"/>
+      <c r="D735" t="n">
         <v>26.6</v>
       </c>
-      <c r="D735" t="inlineStr"/>
       <c r="E735" t="inlineStr"/>
     </row>
     <row r="736">
@@ -8551,10 +8551,10 @@
         <v>44225.64567337963</v>
       </c>
       <c r="B736" t="inlineStr"/>
-      <c r="C736" t="inlineStr"/>
-      <c r="D736" t="n">
+      <c r="C736" t="n">
         <v>26.3</v>
       </c>
+      <c r="D736" t="inlineStr"/>
       <c r="E736" t="inlineStr"/>
     </row>
     <row r="737">
@@ -8584,10 +8584,10 @@
         <v>44225.65227394676</v>
       </c>
       <c r="B739" t="inlineStr"/>
-      <c r="C739" t="n">
+      <c r="C739" t="inlineStr"/>
+      <c r="D739" t="n">
         <v>26.6</v>
       </c>
-      <c r="D739" t="inlineStr"/>
       <c r="E739" t="inlineStr"/>
     </row>
     <row r="740">
@@ -8595,10 +8595,10 @@
         <v>44225.65227471065</v>
       </c>
       <c r="B740" t="inlineStr"/>
-      <c r="C740" t="inlineStr"/>
-      <c r="D740" t="n">
+      <c r="C740" t="n">
         <v>26.3</v>
       </c>
+      <c r="D740" t="inlineStr"/>
       <c r="E740" t="inlineStr"/>
     </row>
     <row r="741">
@@ -8628,10 +8628,10 @@
         <v>44226.02436717592</v>
       </c>
       <c r="B743" t="inlineStr"/>
-      <c r="C743" t="n">
+      <c r="C743" t="inlineStr"/>
+      <c r="D743" t="n">
         <v>26.6</v>
       </c>
-      <c r="D743" t="inlineStr"/>
       <c r="E743" t="inlineStr"/>
     </row>
     <row r="744">
@@ -8639,10 +8639,10 @@
         <v>44226.02436769676</v>
       </c>
       <c r="B744" t="inlineStr"/>
-      <c r="C744" t="inlineStr"/>
-      <c r="D744" t="n">
+      <c r="C744" t="n">
         <v>26.3</v>
       </c>
+      <c r="D744" t="inlineStr"/>
       <c r="E744" t="inlineStr"/>
     </row>
     <row r="745">
@@ -8661,10 +8661,10 @@
         <v>44229.47990422454</v>
       </c>
       <c r="B746" t="inlineStr"/>
-      <c r="C746" t="n">
+      <c r="C746" t="inlineStr"/>
+      <c r="D746" t="n">
         <v>25.4</v>
       </c>
-      <c r="D746" t="inlineStr"/>
       <c r="E746" t="inlineStr"/>
     </row>
     <row r="747">
@@ -8672,10 +8672,10 @@
         <v>44229.47990467593</v>
       </c>
       <c r="B747" t="inlineStr"/>
-      <c r="C747" t="inlineStr"/>
-      <c r="D747" t="n">
+      <c r="C747" t="n">
         <v>25.3</v>
       </c>
+      <c r="D747" t="inlineStr"/>
       <c r="E747" t="inlineStr"/>
     </row>
     <row r="748">
@@ -8705,10 +8705,10 @@
         <v>44229.49223825231</v>
       </c>
       <c r="B750" t="inlineStr"/>
-      <c r="C750" t="n">
+      <c r="C750" t="inlineStr"/>
+      <c r="D750" t="n">
         <v>24.7</v>
       </c>
-      <c r="D750" t="inlineStr"/>
       <c r="E750" t="inlineStr"/>
     </row>
     <row r="751">
@@ -8716,10 +8716,10 @@
         <v>44229.49223922454</v>
       </c>
       <c r="B751" t="inlineStr"/>
-      <c r="C751" t="inlineStr"/>
-      <c r="D751" t="n">
+      <c r="C751" t="n">
         <v>24.6</v>
       </c>
+      <c r="D751" t="inlineStr"/>
       <c r="E751" t="inlineStr"/>
     </row>
     <row r="752">
@@ -8738,10 +8738,10 @@
         <v>44229.54089148148</v>
       </c>
       <c r="B753" t="inlineStr"/>
-      <c r="C753" t="inlineStr"/>
-      <c r="D753" t="n">
+      <c r="C753" t="n">
         <v>26.1</v>
       </c>
+      <c r="D753" t="inlineStr"/>
       <c r="E753" t="inlineStr"/>
     </row>
     <row r="754">
@@ -8749,10 +8749,10 @@
         <v>44229.54158600695</v>
       </c>
       <c r="B754" t="inlineStr"/>
-      <c r="C754" t="n">
+      <c r="C754" t="inlineStr"/>
+      <c r="D754" t="n">
         <v>26.6</v>
       </c>
-      <c r="D754" t="inlineStr"/>
       <c r="E754" t="inlineStr"/>
     </row>
     <row r="755">
@@ -8782,10 +8782,10 @@
         <v>44230.14063789352</v>
       </c>
       <c r="B757" t="inlineStr"/>
-      <c r="C757" t="n">
+      <c r="C757" t="inlineStr"/>
+      <c r="D757" t="n">
         <v>26</v>
       </c>
-      <c r="D757" t="inlineStr"/>
       <c r="E757" t="inlineStr"/>
     </row>
     <row r="758">
@@ -8793,10 +8793,10 @@
         <v>44230.14063834491</v>
       </c>
       <c r="B758" t="inlineStr"/>
-      <c r="C758" t="inlineStr"/>
-      <c r="D758" t="n">
+      <c r="C758" t="n">
         <v>25.6</v>
       </c>
+      <c r="D758" t="inlineStr"/>
       <c r="E758" t="inlineStr"/>
     </row>
     <row r="759">
@@ -8826,10 +8826,10 @@
         <v>44230.14741230324</v>
       </c>
       <c r="B761" t="inlineStr"/>
-      <c r="C761" t="n">
+      <c r="C761" t="inlineStr"/>
+      <c r="D761" t="n">
         <v>26</v>
       </c>
-      <c r="D761" t="inlineStr"/>
       <c r="E761" t="inlineStr"/>
     </row>
     <row r="762">
@@ -8837,10 +8837,10 @@
         <v>44230.14741274306</v>
       </c>
       <c r="B762" t="inlineStr"/>
-      <c r="C762" t="inlineStr"/>
-      <c r="D762" t="n">
+      <c r="C762" t="n">
         <v>25.6</v>
       </c>
+      <c r="D762" t="inlineStr"/>
       <c r="E762" t="inlineStr"/>
     </row>
     <row r="763">
@@ -8881,10 +8881,10 @@
         <v>44230.35810055555</v>
       </c>
       <c r="B766" t="inlineStr"/>
-      <c r="C766" t="n">
+      <c r="C766" t="inlineStr"/>
+      <c r="D766" t="n">
         <v>21.6</v>
       </c>
-      <c r="D766" t="inlineStr"/>
       <c r="E766" t="inlineStr"/>
     </row>
     <row r="767">
@@ -8892,10 +8892,10 @@
         <v>44230.35810105324</v>
       </c>
       <c r="B767" t="inlineStr"/>
-      <c r="C767" t="inlineStr"/>
-      <c r="D767" t="n">
+      <c r="C767" t="n">
         <v>21.2</v>
       </c>
+      <c r="D767" t="inlineStr"/>
       <c r="E767" t="inlineStr"/>
     </row>
     <row r="768">
@@ -8936,10 +8936,10 @@
         <v>44230.89064398148</v>
       </c>
       <c r="B771" t="inlineStr"/>
-      <c r="C771" t="n">
+      <c r="C771" t="inlineStr"/>
+      <c r="D771" t="n">
         <v>24.9</v>
       </c>
-      <c r="D771" t="inlineStr"/>
       <c r="E771" t="inlineStr"/>
     </row>
     <row r="772">
@@ -8947,10 +8947,10 @@
         <v>44230.89064461806</v>
       </c>
       <c r="B772" t="inlineStr"/>
-      <c r="C772" t="inlineStr"/>
-      <c r="D772" t="n">
+      <c r="C772" t="n">
         <v>24.6</v>
       </c>
+      <c r="D772" t="inlineStr"/>
       <c r="E772" t="inlineStr"/>
     </row>
     <row r="773">
@@ -8980,10 +8980,10 @@
         <v>44230.89741703703</v>
       </c>
       <c r="B775" t="inlineStr"/>
-      <c r="C775" t="n">
+      <c r="C775" t="inlineStr"/>
+      <c r="D775" t="n">
         <v>24.9</v>
       </c>
-      <c r="D775" t="inlineStr"/>
       <c r="E775" t="inlineStr"/>
     </row>
     <row r="776">
@@ -8991,10 +8991,10 @@
         <v>44230.89741762731</v>
       </c>
       <c r="B776" t="inlineStr"/>
-      <c r="C776" t="inlineStr"/>
-      <c r="D776" t="n">
+      <c r="C776" t="n">
         <v>24.6</v>
       </c>
+      <c r="D776" t="inlineStr"/>
       <c r="E776" t="inlineStr"/>
     </row>
     <row r="777">
@@ -9035,10 +9035,10 @@
         <v>44231.5289825</v>
       </c>
       <c r="B780" t="inlineStr"/>
-      <c r="C780" t="n">
+      <c r="C780" t="inlineStr"/>
+      <c r="D780" t="n">
         <v>19.4</v>
       </c>
-      <c r="D780" t="inlineStr"/>
       <c r="E780" t="inlineStr"/>
     </row>
     <row r="781">
@@ -9046,10 +9046,10 @@
         <v>44231.52898309028</v>
       </c>
       <c r="B781" t="inlineStr"/>
-      <c r="C781" t="inlineStr"/>
-      <c r="D781" t="n">
+      <c r="C781" t="n">
         <v>19.4</v>
       </c>
+      <c r="D781" t="inlineStr"/>
       <c r="E781" t="inlineStr"/>
     </row>
     <row r="782">
@@ -9068,10 +9068,10 @@
         <v>44231.60418829861</v>
       </c>
       <c r="B783" t="inlineStr"/>
-      <c r="C783" t="inlineStr"/>
-      <c r="D783" t="n">
+      <c r="C783" t="n">
         <v>24.7</v>
       </c>
+      <c r="D783" t="inlineStr"/>
       <c r="E783" t="inlineStr"/>
     </row>
     <row r="784">
@@ -9079,10 +9079,10 @@
         <v>44231.62068723379</v>
       </c>
       <c r="B784" t="inlineStr"/>
-      <c r="C784" t="n">
+      <c r="C784" t="inlineStr"/>
+      <c r="D784" t="n">
         <v>25.3</v>
       </c>
-      <c r="D784" t="inlineStr"/>
       <c r="E784" t="inlineStr"/>
     </row>
     <row r="785">
@@ -9101,10 +9101,10 @@
         <v>44231.64066515047</v>
       </c>
       <c r="B786" t="inlineStr"/>
-      <c r="C786" t="n">
+      <c r="C786" t="inlineStr"/>
+      <c r="D786" t="n">
         <v>25.3</v>
       </c>
-      <c r="D786" t="inlineStr"/>
       <c r="E786" t="inlineStr"/>
     </row>
     <row r="787">
@@ -9112,10 +9112,10 @@
         <v>44231.64066579861</v>
       </c>
       <c r="B787" t="inlineStr"/>
-      <c r="C787" t="inlineStr"/>
-      <c r="D787" t="n">
+      <c r="C787" t="n">
         <v>24.6</v>
       </c>
+      <c r="D787" t="inlineStr"/>
       <c r="E787" t="inlineStr"/>
     </row>
     <row r="788">
@@ -9145,10 +9145,10 @@
         <v>44231.64744050926</v>
       </c>
       <c r="B790" t="inlineStr"/>
-      <c r="C790" t="n">
+      <c r="C790" t="inlineStr"/>
+      <c r="D790" t="n">
         <v>25.3</v>
       </c>
-      <c r="D790" t="inlineStr"/>
       <c r="E790" t="inlineStr"/>
     </row>
     <row r="791">
@@ -9156,10 +9156,10 @@
         <v>44231.64744162037</v>
       </c>
       <c r="B791" t="inlineStr"/>
-      <c r="C791" t="inlineStr"/>
-      <c r="D791" t="n">
+      <c r="C791" t="n">
         <v>24.6</v>
       </c>
+      <c r="D791" t="inlineStr"/>
       <c r="E791" t="inlineStr"/>
     </row>
     <row r="792">
@@ -9189,10 +9189,10 @@
         <v>44232.38718934028</v>
       </c>
       <c r="B794" t="inlineStr"/>
-      <c r="C794" t="n">
+      <c r="C794" t="inlineStr"/>
+      <c r="D794" t="n">
         <v>22.2</v>
       </c>
-      <c r="D794" t="inlineStr"/>
       <c r="E794" t="inlineStr"/>
     </row>
     <row r="795">
@@ -9200,10 +9200,10 @@
         <v>44232.38718958334</v>
       </c>
       <c r="B795" t="inlineStr"/>
-      <c r="C795" t="inlineStr"/>
-      <c r="D795" t="n">
+      <c r="C795" t="n">
         <v>22.4</v>
       </c>
+      <c r="D795" t="inlineStr"/>
       <c r="E795" t="inlineStr"/>
     </row>
     <row r="796">
@@ -9233,10 +9233,10 @@
         <v>44232.39500594907</v>
       </c>
       <c r="B798" t="inlineStr"/>
-      <c r="C798" t="n">
+      <c r="C798" t="inlineStr"/>
+      <c r="D798" t="n">
         <v>24.4</v>
       </c>
-      <c r="D798" t="inlineStr"/>
       <c r="E798" t="inlineStr"/>
     </row>
     <row r="799">
@@ -9244,10 +9244,10 @@
         <v>44232.39500670139</v>
       </c>
       <c r="B799" t="inlineStr"/>
-      <c r="C799" t="inlineStr"/>
-      <c r="D799" t="n">
+      <c r="C799" t="n">
         <v>24</v>
       </c>
+      <c r="D799" t="inlineStr"/>
       <c r="E799" t="inlineStr"/>
     </row>
     <row r="800">
@@ -9277,10 +9277,10 @@
         <v>44232.39743762732</v>
       </c>
       <c r="B802" t="inlineStr"/>
-      <c r="C802" t="n">
+      <c r="C802" t="inlineStr"/>
+      <c r="D802" t="n">
         <v>24.4</v>
       </c>
-      <c r="D802" t="inlineStr"/>
       <c r="E802" t="inlineStr"/>
     </row>
     <row r="803">
@@ -9288,10 +9288,10 @@
         <v>44232.39743858796</v>
       </c>
       <c r="B803" t="inlineStr"/>
-      <c r="C803" t="inlineStr"/>
-      <c r="D803" t="n">
+      <c r="C803" t="n">
         <v>24</v>
       </c>
+      <c r="D803" t="inlineStr"/>
       <c r="E803" t="inlineStr"/>
     </row>
     <row r="804">
@@ -9310,10 +9310,10 @@
         <v>44232.42748432871</v>
       </c>
       <c r="B805" t="inlineStr"/>
-      <c r="C805" t="n">
+      <c r="C805" t="inlineStr"/>
+      <c r="D805" t="n">
         <v>23.7</v>
       </c>
-      <c r="D805" t="inlineStr"/>
       <c r="E805" t="inlineStr"/>
     </row>
     <row r="806">
@@ -9321,10 +9321,10 @@
         <v>44232.42748467593</v>
       </c>
       <c r="B806" t="inlineStr"/>
-      <c r="C806" t="inlineStr"/>
-      <c r="D806" t="n">
+      <c r="C806" t="n">
         <v>23.5</v>
       </c>
+      <c r="D806" t="inlineStr"/>
       <c r="E806" t="inlineStr"/>
     </row>
     <row r="807">
@@ -9332,10 +9332,10 @@
         <v>44232.4347793287</v>
       </c>
       <c r="B807" t="inlineStr"/>
-      <c r="C807" t="n">
+      <c r="C807" t="inlineStr"/>
+      <c r="D807" t="n">
         <v>25.1</v>
       </c>
-      <c r="D807" t="inlineStr"/>
       <c r="E807" t="inlineStr"/>
     </row>
     <row r="808">
@@ -9343,10 +9343,10 @@
         <v>44232.43478</v>
       </c>
       <c r="B808" t="inlineStr"/>
-      <c r="C808" t="inlineStr"/>
-      <c r="D808" t="n">
+      <c r="C808" t="n">
         <v>24.7</v>
       </c>
+      <c r="D808" t="inlineStr"/>
       <c r="E808" t="inlineStr"/>
     </row>
     <row r="809">
@@ -9376,10 +9376,10 @@
         <v>44233.14064240741</v>
       </c>
       <c r="B811" t="inlineStr"/>
-      <c r="C811" t="n">
+      <c r="C811" t="inlineStr"/>
+      <c r="D811" t="n">
         <v>24.9</v>
       </c>
-      <c r="D811" t="inlineStr"/>
       <c r="E811" t="inlineStr"/>
     </row>
     <row r="812">
@@ -9387,10 +9387,10 @@
         <v>44233.14064329861</v>
       </c>
       <c r="B812" t="inlineStr"/>
-      <c r="C812" t="inlineStr"/>
-      <c r="D812" t="n">
+      <c r="C812" t="n">
         <v>24.6</v>
       </c>
+      <c r="D812" t="inlineStr"/>
       <c r="E812" t="inlineStr"/>
     </row>
     <row r="813">
@@ -9420,10 +9420,10 @@
         <v>44233.14741717593</v>
       </c>
       <c r="B815" t="inlineStr"/>
-      <c r="C815" t="n">
+      <c r="C815" t="inlineStr"/>
+      <c r="D815" t="n">
         <v>24.9</v>
       </c>
-      <c r="D815" t="inlineStr"/>
       <c r="E815" t="inlineStr"/>
     </row>
     <row r="816">
@@ -9431,10 +9431,10 @@
         <v>44233.14741752315</v>
       </c>
       <c r="B816" t="inlineStr"/>
-      <c r="C816" t="inlineStr"/>
-      <c r="D816" t="n">
+      <c r="C816" t="n">
         <v>24.6</v>
       </c>
+      <c r="D816" t="inlineStr"/>
       <c r="E816" t="inlineStr"/>
     </row>
     <row r="817">
@@ -9464,10 +9464,10 @@
         <v>44233.89062057871</v>
       </c>
       <c r="B819" t="inlineStr"/>
-      <c r="C819" t="n">
+      <c r="C819" t="inlineStr"/>
+      <c r="D819" t="n">
         <v>24.9</v>
       </c>
-      <c r="D819" t="inlineStr"/>
       <c r="E819" t="inlineStr"/>
     </row>
     <row r="820">
@@ -9475,10 +9475,10 @@
         <v>44233.89079478009</v>
       </c>
       <c r="B820" t="inlineStr"/>
-      <c r="C820" t="inlineStr"/>
-      <c r="D820" t="n">
+      <c r="C820" t="n">
         <v>24.6</v>
       </c>
+      <c r="D820" t="inlineStr"/>
       <c r="E820" t="inlineStr"/>
     </row>
     <row r="821">
@@ -9508,10 +9508,10 @@
         <v>44233.897395</v>
       </c>
       <c r="B823" t="inlineStr"/>
-      <c r="C823" t="n">
+      <c r="C823" t="inlineStr"/>
+      <c r="D823" t="n">
         <v>24.9</v>
       </c>
-      <c r="D823" t="inlineStr"/>
       <c r="E823" t="inlineStr"/>
     </row>
     <row r="824">
@@ -9519,10 +9519,10 @@
         <v>44233.89739599537</v>
       </c>
       <c r="B824" t="inlineStr"/>
-      <c r="C824" t="inlineStr"/>
-      <c r="D824" t="n">
+      <c r="C824" t="n">
         <v>24.6</v>
       </c>
+      <c r="D824" t="inlineStr"/>
       <c r="E824" t="inlineStr"/>
     </row>
     <row r="825">
@@ -9552,10 +9552,10 @@
         <v>44234.64077429398</v>
       </c>
       <c r="B827" t="inlineStr"/>
-      <c r="C827" t="n">
+      <c r="C827" t="inlineStr"/>
+      <c r="D827" t="n">
         <v>24.9</v>
       </c>
-      <c r="D827" t="inlineStr"/>
       <c r="E827" t="inlineStr"/>
     </row>
     <row r="828">
@@ -9563,10 +9563,10 @@
         <v>44234.64077481481</v>
       </c>
       <c r="B828" t="inlineStr"/>
-      <c r="C828" t="inlineStr"/>
-      <c r="D828" t="n">
+      <c r="C828" t="n">
         <v>24.6</v>
       </c>
+      <c r="D828" t="inlineStr"/>
       <c r="E828" t="inlineStr"/>
     </row>
     <row r="829">
@@ -9596,10 +9596,10 @@
         <v>44234.64754765046</v>
       </c>
       <c r="B831" t="inlineStr"/>
-      <c r="C831" t="n">
+      <c r="C831" t="inlineStr"/>
+      <c r="D831" t="n">
         <v>24.9</v>
       </c>
-      <c r="D831" t="inlineStr"/>
       <c r="E831" t="inlineStr"/>
     </row>
     <row r="832">
@@ -9607,10 +9607,10 @@
         <v>44234.6475482176</v>
       </c>
       <c r="B832" t="inlineStr"/>
-      <c r="C832" t="inlineStr"/>
-      <c r="D832" t="n">
+      <c r="C832" t="n">
         <v>24.6</v>
       </c>
+      <c r="D832" t="inlineStr"/>
       <c r="E832" t="inlineStr"/>
     </row>
     <row r="833">
@@ -9640,10 +9640,10 @@
         <v>44235.31902289352</v>
       </c>
       <c r="B835" t="inlineStr"/>
-      <c r="C835" t="n">
+      <c r="C835" t="inlineStr"/>
+      <c r="D835" t="n">
         <v>19.8</v>
       </c>
-      <c r="D835" t="inlineStr"/>
       <c r="E835" t="inlineStr"/>
     </row>
     <row r="836">
@@ -9651,10 +9651,10 @@
         <v>44235.31902336806</v>
       </c>
       <c r="B836" t="inlineStr"/>
-      <c r="C836" t="inlineStr"/>
-      <c r="D836" t="n">
+      <c r="C836" t="n">
         <v>19.6</v>
       </c>
+      <c r="D836" t="inlineStr"/>
       <c r="E836" t="inlineStr"/>
     </row>
     <row r="837">
@@ -9695,10 +9695,10 @@
         <v>44235.39075836806</v>
       </c>
       <c r="B840" t="inlineStr"/>
-      <c r="C840" t="n">
+      <c r="C840" t="inlineStr"/>
+      <c r="D840" t="n">
         <v>21.4</v>
       </c>
-      <c r="D840" t="inlineStr"/>
       <c r="E840" t="inlineStr"/>
     </row>
     <row r="841">
@@ -9706,10 +9706,10 @@
         <v>44235.39075983797</v>
       </c>
       <c r="B841" t="inlineStr"/>
-      <c r="C841" t="inlineStr"/>
-      <c r="D841" t="n">
+      <c r="C841" t="n">
         <v>21</v>
       </c>
+      <c r="D841" t="inlineStr"/>
       <c r="E841" t="inlineStr"/>
     </row>
     <row r="842">
@@ -9739,10 +9739,10 @@
         <v>44235.39753200232</v>
       </c>
       <c r="B844" t="inlineStr"/>
-      <c r="C844" t="n">
+      <c r="C844" t="inlineStr"/>
+      <c r="D844" t="n">
         <v>21.4</v>
       </c>
-      <c r="D844" t="inlineStr"/>
       <c r="E844" t="inlineStr"/>
     </row>
     <row r="845">
@@ -9750,10 +9750,10 @@
         <v>44235.39753319445</v>
       </c>
       <c r="B845" t="inlineStr"/>
-      <c r="C845" t="inlineStr"/>
-      <c r="D845" t="n">
+      <c r="C845" t="n">
         <v>21</v>
       </c>
+      <c r="D845" t="inlineStr"/>
       <c r="E845" t="inlineStr"/>
     </row>
     <row r="846">
@@ -9794,10 +9794,10 @@
         <v>44235.57452800926</v>
       </c>
       <c r="B849" t="inlineStr"/>
-      <c r="C849" t="n">
+      <c r="C849" t="inlineStr"/>
+      <c r="D849" t="n">
         <v>25.4</v>
       </c>
-      <c r="D849" t="inlineStr"/>
       <c r="E849" t="inlineStr"/>
     </row>
     <row r="850">
@@ -9805,10 +9805,10 @@
         <v>44235.57452884259</v>
       </c>
       <c r="B850" t="inlineStr"/>
-      <c r="C850" t="inlineStr"/>
-      <c r="D850" t="n">
+      <c r="C850" t="n">
         <v>24.9</v>
       </c>
+      <c r="D850" t="inlineStr"/>
       <c r="E850" t="inlineStr"/>
     </row>
     <row r="851">
@@ -9827,10 +9827,10 @@
         <v>44236.14074702546</v>
       </c>
       <c r="B852" t="inlineStr"/>
-      <c r="C852" t="n">
+      <c r="C852" t="inlineStr"/>
+      <c r="D852" t="n">
         <v>25.4</v>
       </c>
-      <c r="D852" t="inlineStr"/>
       <c r="E852" t="inlineStr"/>
     </row>
     <row r="853">
@@ -9838,10 +9838,10 @@
         <v>44236.14074790509</v>
       </c>
       <c r="B853" t="inlineStr"/>
-      <c r="C853" t="inlineStr"/>
-      <c r="D853" t="n">
+      <c r="C853" t="n">
         <v>24.9</v>
       </c>
+      <c r="D853" t="inlineStr"/>
       <c r="E853" t="inlineStr"/>
     </row>
     <row r="854">
@@ -9871,10 +9871,10 @@
         <v>44236.14752127315</v>
       </c>
       <c r="B856" t="inlineStr"/>
-      <c r="C856" t="n">
+      <c r="C856" t="inlineStr"/>
+      <c r="D856" t="n">
         <v>25.4</v>
       </c>
-      <c r="D856" t="inlineStr"/>
       <c r="E856" t="inlineStr"/>
     </row>
     <row r="857">
@@ -9882,10 +9882,10 @@
         <v>44236.14752186342</v>
       </c>
       <c r="B857" t="inlineStr"/>
-      <c r="C857" t="inlineStr"/>
-      <c r="D857" t="n">
+      <c r="C857" t="n">
         <v>24.9</v>
       </c>
+      <c r="D857" t="inlineStr"/>
       <c r="E857" t="inlineStr"/>
     </row>
     <row r="858">
@@ -9926,10 +9926,10 @@
         <v>44236.31982324074</v>
       </c>
       <c r="B861" t="inlineStr"/>
-      <c r="C861" t="n">
+      <c r="C861" t="inlineStr"/>
+      <c r="D861" t="n">
         <v>20</v>
       </c>
-      <c r="D861" t="inlineStr"/>
       <c r="E861" t="inlineStr"/>
     </row>
     <row r="862">
@@ -9937,10 +9937,10 @@
         <v>44236.31982413195</v>
       </c>
       <c r="B862" t="inlineStr"/>
-      <c r="C862" t="inlineStr"/>
-      <c r="D862" t="n">
+      <c r="C862" t="n">
         <v>19.8</v>
       </c>
+      <c r="D862" t="inlineStr"/>
       <c r="E862" t="inlineStr"/>
     </row>
     <row r="863">
@@ -9970,10 +9970,10 @@
         <v>44236.59860122685</v>
       </c>
       <c r="B865" t="inlineStr"/>
-      <c r="C865" t="n">
+      <c r="C865" t="inlineStr"/>
+      <c r="D865" t="n">
         <v>25.6</v>
       </c>
-      <c r="D865" t="inlineStr"/>
       <c r="E865" t="inlineStr"/>
     </row>
     <row r="866">
@@ -9981,10 +9981,10 @@
         <v>44236.59929699074</v>
       </c>
       <c r="B866" t="inlineStr"/>
-      <c r="C866" t="inlineStr"/>
-      <c r="D866" t="n">
+      <c r="C866" t="n">
         <v>25.3</v>
       </c>
+      <c r="D866" t="inlineStr"/>
       <c r="E866" t="inlineStr"/>
     </row>
     <row r="867">
@@ -10003,10 +10003,10 @@
         <v>44236.89074424768</v>
       </c>
       <c r="B868" t="inlineStr"/>
-      <c r="C868" t="n">
+      <c r="C868" t="inlineStr"/>
+      <c r="D868" t="n">
         <v>25.6</v>
       </c>
-      <c r="D868" t="inlineStr"/>
       <c r="E868" t="inlineStr"/>
     </row>
     <row r="869">
@@ -10014,10 +10014,10 @@
         <v>44236.89074530092</v>
       </c>
       <c r="B869" t="inlineStr"/>
-      <c r="C869" t="inlineStr"/>
-      <c r="D869" t="n">
+      <c r="C869" t="n">
         <v>25.3</v>
       </c>
+      <c r="D869" t="inlineStr"/>
       <c r="E869" t="inlineStr"/>
     </row>
     <row r="870">
@@ -10047,10 +10047,10 @@
         <v>44236.89751857639</v>
       </c>
       <c r="B872" t="inlineStr"/>
-      <c r="C872" t="n">
+      <c r="C872" t="inlineStr"/>
+      <c r="D872" t="n">
         <v>25.6</v>
       </c>
-      <c r="D872" t="inlineStr"/>
       <c r="E872" t="inlineStr"/>
     </row>
     <row r="873">
@@ -10058,10 +10058,10 @@
         <v>44236.8975189699</v>
       </c>
       <c r="B873" t="inlineStr"/>
-      <c r="C873" t="inlineStr"/>
-      <c r="D873" t="n">
+      <c r="C873" t="n">
         <v>25.3</v>
       </c>
+      <c r="D873" t="inlineStr"/>
       <c r="E873" t="inlineStr"/>
     </row>
     <row r="874">
@@ -10091,10 +10091,10 @@
         <v>44237.30916292824</v>
       </c>
       <c r="B876" t="inlineStr"/>
-      <c r="C876" t="n">
+      <c r="C876" t="inlineStr"/>
+      <c r="D876" t="n">
         <v>19.2</v>
       </c>
-      <c r="D876" t="inlineStr"/>
       <c r="E876" t="inlineStr"/>
     </row>
     <row r="877">
@@ -10113,10 +10113,10 @@
         <v>44237.30985796297</v>
       </c>
       <c r="B878" t="inlineStr"/>
-      <c r="C878" t="inlineStr"/>
-      <c r="D878" t="n">
+      <c r="C878" t="n">
         <v>19.8</v>
       </c>
+      <c r="D878" t="inlineStr"/>
       <c r="E878" t="inlineStr"/>
     </row>
     <row r="879">
@@ -10157,10 +10157,10 @@
         <v>44237.64050266203</v>
       </c>
       <c r="B882" t="inlineStr"/>
-      <c r="C882" t="n">
+      <c r="C882" t="inlineStr"/>
+      <c r="D882" t="n">
         <v>25.4</v>
       </c>
-      <c r="D882" t="inlineStr"/>
       <c r="E882" t="inlineStr"/>
     </row>
     <row r="883">
@@ -10168,10 +10168,10 @@
         <v>44237.64050311343</v>
       </c>
       <c r="B883" t="inlineStr"/>
-      <c r="C883" t="inlineStr"/>
-      <c r="D883" t="n">
+      <c r="C883" t="n">
         <v>25.1</v>
       </c>
+      <c r="D883" t="inlineStr"/>
       <c r="E883" t="inlineStr"/>
     </row>
     <row r="884">
@@ -10201,10 +10201,10 @@
         <v>44237.64727450231</v>
       </c>
       <c r="B886" t="inlineStr"/>
-      <c r="C886" t="n">
+      <c r="C886" t="inlineStr"/>
+      <c r="D886" t="n">
         <v>25.4</v>
       </c>
-      <c r="D886" t="inlineStr"/>
       <c r="E886" t="inlineStr"/>
     </row>
     <row r="887">
@@ -10212,10 +10212,10 @@
         <v>44237.64727491898</v>
       </c>
       <c r="B887" t="inlineStr"/>
-      <c r="C887" t="inlineStr"/>
-      <c r="D887" t="n">
+      <c r="C887" t="n">
         <v>25.1</v>
       </c>
+      <c r="D887" t="inlineStr"/>
       <c r="E887" t="inlineStr"/>
     </row>
     <row r="888">
@@ -10245,10 +10245,10 @@
         <v>44238.33203644676</v>
       </c>
       <c r="B890" t="inlineStr"/>
-      <c r="C890" t="n">
+      <c r="C890" t="inlineStr"/>
+      <c r="D890" t="n">
         <v>19.8</v>
       </c>
-      <c r="D890" t="inlineStr"/>
       <c r="E890" t="inlineStr"/>
     </row>
     <row r="891">
@@ -10267,10 +10267,10 @@
         <v>44238.33273106482</v>
       </c>
       <c r="B892" t="inlineStr"/>
-      <c r="C892" t="inlineStr"/>
-      <c r="D892" t="n">
+      <c r="C892" t="n">
         <v>20.2</v>
       </c>
+      <c r="D892" t="inlineStr"/>
       <c r="E892" t="inlineStr"/>
     </row>
     <row r="893">
@@ -10289,10 +10289,10 @@
         <v>44238.39054538195</v>
       </c>
       <c r="B894" t="inlineStr"/>
-      <c r="C894" t="n">
+      <c r="C894" t="inlineStr"/>
+      <c r="D894" t="n">
         <v>24</v>
       </c>
-      <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr"/>
     </row>
     <row r="895">
@@ -10300,10 +10300,10 @@
         <v>44238.3905456713</v>
       </c>
       <c r="B895" t="inlineStr"/>
-      <c r="C895" t="inlineStr"/>
-      <c r="D895" t="n">
+      <c r="C895" t="n">
         <v>23.1</v>
       </c>
+      <c r="D895" t="inlineStr"/>
       <c r="E895" t="inlineStr"/>
     </row>
     <row r="896">
@@ -10355,10 +10355,10 @@
         <v>44238.39731576389</v>
       </c>
       <c r="B900" t="inlineStr"/>
-      <c r="C900" t="n">
+      <c r="C900" t="inlineStr"/>
+      <c r="D900" t="n">
         <v>24</v>
       </c>
-      <c r="D900" t="inlineStr"/>
       <c r="E900" t="inlineStr"/>
     </row>
     <row r="901">
@@ -10366,10 +10366,10 @@
         <v>44238.39731608796</v>
       </c>
       <c r="B901" t="inlineStr"/>
-      <c r="C901" t="inlineStr"/>
-      <c r="D901" t="n">
+      <c r="C901" t="n">
         <v>23.1</v>
       </c>
+      <c r="D901" t="inlineStr"/>
       <c r="E901" t="inlineStr"/>
     </row>
     <row r="902">
@@ -10410,10 +10410,10 @@
         <v>44238.45009567129</v>
       </c>
       <c r="B905" t="inlineStr"/>
-      <c r="C905" t="n">
+      <c r="C905" t="inlineStr"/>
+      <c r="D905" t="n">
         <v>23.8</v>
       </c>
-      <c r="D905" t="inlineStr"/>
       <c r="E905" t="inlineStr"/>
     </row>
     <row r="906">
@@ -10421,10 +10421,10 @@
         <v>44238.6193700463</v>
       </c>
       <c r="B906" t="inlineStr"/>
-      <c r="C906" t="n">
+      <c r="C906" t="inlineStr"/>
+      <c r="D906" t="n">
         <v>26.1</v>
       </c>
-      <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr"/>
     </row>
     <row r="907">
@@ -10432,10 +10432,10 @@
         <v>44238.61937059028</v>
       </c>
       <c r="B907" t="inlineStr"/>
-      <c r="C907" t="inlineStr"/>
-      <c r="D907" t="n">
+      <c r="C907" t="n">
         <v>25.6</v>
       </c>
+      <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr"/>
     </row>
     <row r="908">
@@ -10476,10 +10476,10 @@
         <v>44239.14062248843</v>
       </c>
       <c r="B911" t="inlineStr"/>
-      <c r="C911" t="n">
+      <c r="C911" t="inlineStr"/>
+      <c r="D911" t="n">
         <v>26.1</v>
       </c>
-      <c r="D911" t="inlineStr"/>
       <c r="E911" t="inlineStr"/>
     </row>
     <row r="912">
@@ -10487,10 +10487,10 @@
         <v>44239.14062303241</v>
       </c>
       <c r="B912" t="inlineStr"/>
-      <c r="C912" t="inlineStr"/>
-      <c r="D912" t="n">
+      <c r="C912" t="n">
         <v>25.6</v>
       </c>
+      <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr"/>
     </row>
     <row r="913">
@@ -10520,10 +10520,10 @@
         <v>44239.14722375</v>
       </c>
       <c r="B915" t="inlineStr"/>
-      <c r="C915" t="n">
+      <c r="C915" t="inlineStr"/>
+      <c r="D915" t="n">
         <v>26.1</v>
       </c>
-      <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr"/>
     </row>
     <row r="916">
@@ -10531,10 +10531,10 @@
         <v>44239.1473978125</v>
       </c>
       <c r="B916" t="inlineStr"/>
-      <c r="C916" t="inlineStr"/>
-      <c r="D916" t="n">
+      <c r="C916" t="n">
         <v>25.6</v>
       </c>
+      <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr"/>
     </row>
     <row r="917">
@@ -10553,10 +10553,10 @@
         <v>44239.30562447917</v>
       </c>
       <c r="B918" t="inlineStr"/>
-      <c r="C918" t="n">
+      <c r="C918" t="inlineStr"/>
+      <c r="D918" t="n">
         <v>19.8</v>
       </c>
-      <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr"/>
     </row>
     <row r="919">
@@ -10564,10 +10564,10 @@
         <v>44239.30562487269</v>
       </c>
       <c r="B919" t="inlineStr"/>
-      <c r="C919" t="inlineStr"/>
-      <c r="D919" t="n">
+      <c r="C919" t="n">
         <v>19.8</v>
       </c>
+      <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr"/>
     </row>
     <row r="920">
@@ -10586,10 +10586,10 @@
         <v>44239.43432920139</v>
       </c>
       <c r="B921" t="inlineStr"/>
-      <c r="C921" t="inlineStr"/>
-      <c r="D921" t="n">
+      <c r="C921" t="n">
         <v>26</v>
       </c>
+      <c r="D921" t="inlineStr"/>
       <c r="E921" t="inlineStr"/>
     </row>
     <row r="922">
@@ -10608,10 +10608,10 @@
         <v>44239.89063440972</v>
       </c>
       <c r="B923" t="inlineStr"/>
-      <c r="C923" t="n">
+      <c r="C923" t="inlineStr"/>
+      <c r="D923" t="n">
         <v>26</v>
       </c>
-      <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr"/>
     </row>
     <row r="924">
@@ -10619,10 +10619,10 @@
         <v>44239.890635</v>
       </c>
       <c r="B924" t="inlineStr"/>
-      <c r="C924" t="inlineStr"/>
-      <c r="D924" t="n">
+      <c r="C924" t="n">
         <v>26</v>
       </c>
+      <c r="D924" t="inlineStr"/>
       <c r="E924" t="inlineStr"/>
     </row>
     <row r="925">
@@ -10652,10 +10652,10 @@
         <v>44239.89723512731</v>
       </c>
       <c r="B927" t="inlineStr"/>
-      <c r="C927" t="n">
+      <c r="C927" t="inlineStr"/>
+      <c r="D927" t="n">
         <v>26</v>
       </c>
-      <c r="D927" t="inlineStr"/>
       <c r="E927" t="inlineStr"/>
     </row>
     <row r="928">
@@ -10663,10 +10663,10 @@
         <v>44239.89740949074</v>
       </c>
       <c r="B928" t="inlineStr"/>
-      <c r="C928" t="inlineStr"/>
-      <c r="D928" t="n">
+      <c r="C928" t="n">
         <v>26</v>
       </c>
+      <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr"/>
     </row>
     <row r="929">
@@ -10696,10 +10696,10 @@
         <v>44240.6405014699</v>
       </c>
       <c r="B931" t="inlineStr"/>
-      <c r="C931" t="n">
+      <c r="C931" t="inlineStr"/>
+      <c r="D931" t="n">
         <v>26</v>
       </c>
-      <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr"/>
     </row>
     <row r="932">
@@ -10707,10 +10707,10 @@
         <v>44240.64050244213</v>
       </c>
       <c r="B932" t="inlineStr"/>
-      <c r="C932" t="inlineStr"/>
-      <c r="D932" t="n">
+      <c r="C932" t="n">
         <v>26</v>
       </c>
+      <c r="D932" t="inlineStr"/>
       <c r="E932" t="inlineStr"/>
     </row>
     <row r="933">
@@ -10740,10 +10740,10 @@
         <v>44240.64727585649</v>
       </c>
       <c r="B935" t="inlineStr"/>
-      <c r="C935" t="n">
+      <c r="C935" t="inlineStr"/>
+      <c r="D935" t="n">
         <v>26</v>
       </c>
-      <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr"/>
     </row>
     <row r="936">
@@ -10751,10 +10751,10 @@
         <v>44240.64727649306</v>
       </c>
       <c r="B936" t="inlineStr"/>
-      <c r="C936" t="inlineStr"/>
-      <c r="D936" t="n">
+      <c r="C936" t="n">
         <v>26</v>
       </c>
+      <c r="D936" t="inlineStr"/>
       <c r="E936" t="inlineStr"/>
     </row>
     <row r="937">
@@ -10784,10 +10784,10 @@
         <v>44241.39054931713</v>
       </c>
       <c r="B939" t="inlineStr"/>
-      <c r="C939" t="n">
+      <c r="C939" t="inlineStr"/>
+      <c r="D939" t="n">
         <v>26</v>
       </c>
-      <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr"/>
     </row>
     <row r="940">
@@ -10795,10 +10795,10 @@
         <v>44241.39054993055</v>
       </c>
       <c r="B940" t="inlineStr"/>
-      <c r="C940" t="inlineStr"/>
-      <c r="D940" t="n">
+      <c r="C940" t="n">
         <v>26</v>
       </c>
+      <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr"/>
     </row>
     <row r="941">
@@ -10828,10 +10828,10 @@
         <v>44241.39732361111</v>
       </c>
       <c r="B943" t="inlineStr"/>
-      <c r="C943" t="n">
+      <c r="C943" t="inlineStr"/>
+      <c r="D943" t="n">
         <v>26</v>
       </c>
-      <c r="D943" t="inlineStr"/>
       <c r="E943" t="inlineStr"/>
     </row>
     <row r="944">
@@ -10839,10 +10839,10 @@
         <v>44241.39732409722</v>
       </c>
       <c r="B944" t="inlineStr"/>
-      <c r="C944" t="inlineStr"/>
-      <c r="D944" t="n">
+      <c r="C944" t="n">
         <v>26</v>
       </c>
+      <c r="D944" t="inlineStr"/>
       <c r="E944" t="inlineStr"/>
     </row>
     <row r="945">
@@ -10872,10 +10872,10 @@
         <v>44242.14060796296</v>
       </c>
       <c r="B947" t="inlineStr"/>
-      <c r="C947" t="n">
+      <c r="C947" t="inlineStr"/>
+      <c r="D947" t="n">
         <v>26</v>
       </c>
-      <c r="D947" t="inlineStr"/>
       <c r="E947" t="inlineStr"/>
     </row>
     <row r="948">
@@ -10883,10 +10883,10 @@
         <v>44242.14060847223</v>
       </c>
       <c r="B948" t="inlineStr"/>
-      <c r="C948" t="inlineStr"/>
-      <c r="D948" t="n">
+      <c r="C948" t="n">
         <v>26</v>
       </c>
+      <c r="D948" t="inlineStr"/>
       <c r="E948" t="inlineStr"/>
     </row>
     <row r="949">
@@ -10916,10 +10916,10 @@
         <v>44242.14738244213</v>
       </c>
       <c r="B951" t="inlineStr"/>
-      <c r="C951" t="n">
+      <c r="C951" t="inlineStr"/>
+      <c r="D951" t="n">
         <v>26</v>
       </c>
-      <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr"/>
     </row>
     <row r="952">
@@ -10927,10 +10927,10 @@
         <v>44242.14738318287</v>
       </c>
       <c r="B952" t="inlineStr"/>
-      <c r="C952" t="inlineStr"/>
-      <c r="D952" t="n">
+      <c r="C952" t="n">
         <v>26</v>
       </c>
+      <c r="D952" t="inlineStr"/>
       <c r="E952" t="inlineStr"/>
     </row>
     <row r="953">
@@ -10960,10 +10960,10 @@
         <v>44242.30771291666</v>
       </c>
       <c r="B955" t="inlineStr"/>
-      <c r="C955" t="n">
+      <c r="C955" t="inlineStr"/>
+      <c r="D955" t="n">
         <v>19.6</v>
       </c>
-      <c r="D955" t="inlineStr"/>
       <c r="E955" t="inlineStr"/>
     </row>
     <row r="956">
@@ -10971,10 +10971,10 @@
         <v>44242.30771353009</v>
       </c>
       <c r="B956" t="inlineStr"/>
-      <c r="C956" t="inlineStr"/>
-      <c r="D956" t="n">
+      <c r="C956" t="n">
         <v>19.4</v>
       </c>
+      <c r="D956" t="inlineStr"/>
       <c r="E956" t="inlineStr"/>
     </row>
     <row r="957">
@@ -10993,10 +10993,10 @@
         <v>44242.54585469908</v>
       </c>
       <c r="B958" t="inlineStr"/>
-      <c r="C958" t="n">
+      <c r="C958" t="inlineStr"/>
+      <c r="D958" t="n">
         <v>26.6</v>
       </c>
-      <c r="D958" t="inlineStr"/>
       <c r="E958" t="inlineStr"/>
     </row>
     <row r="959">
@@ -11037,10 +11037,10 @@
         <v>44242.89064957176</v>
       </c>
       <c r="B962" t="inlineStr"/>
-      <c r="C962" t="n">
+      <c r="C962" t="inlineStr"/>
+      <c r="D962" t="n">
         <v>26</v>
       </c>
-      <c r="D962" t="inlineStr"/>
       <c r="E962" t="inlineStr"/>
     </row>
     <row r="963">
@@ -11048,10 +11048,10 @@
         <v>44242.89065002315</v>
       </c>
       <c r="B963" t="inlineStr"/>
-      <c r="C963" t="inlineStr"/>
-      <c r="D963" t="n">
+      <c r="C963" t="n">
         <v>25.8</v>
       </c>
+      <c r="D963" t="inlineStr"/>
       <c r="E963" t="inlineStr"/>
     </row>
     <row r="964">
@@ -11081,10 +11081,10 @@
         <v>44242.89742319444</v>
       </c>
       <c r="B966" t="inlineStr"/>
-      <c r="C966" t="n">
+      <c r="C966" t="inlineStr"/>
+      <c r="D966" t="n">
         <v>26</v>
       </c>
-      <c r="D966" t="inlineStr"/>
       <c r="E966" t="inlineStr"/>
     </row>
     <row r="967">
@@ -11092,10 +11092,10 @@
         <v>44242.89742383102</v>
       </c>
       <c r="B967" t="inlineStr"/>
-      <c r="C967" t="inlineStr"/>
-      <c r="D967" t="n">
+      <c r="C967" t="n">
         <v>25.8</v>
       </c>
+      <c r="D967" t="inlineStr"/>
       <c r="E967" t="inlineStr"/>
     </row>
     <row r="968">
@@ -11125,10 +11125,10 @@
         <v>44243.31846197916</v>
       </c>
       <c r="B970" t="inlineStr"/>
-      <c r="C970" t="n">
+      <c r="C970" t="inlineStr"/>
+      <c r="D970" t="n">
         <v>21.2</v>
       </c>
-      <c r="D970" t="inlineStr"/>
       <c r="E970" t="inlineStr"/>
     </row>
     <row r="971">
@@ -11136,10 +11136,10 @@
         <v>44243.31846266204</v>
       </c>
       <c r="B971" t="inlineStr"/>
-      <c r="C971" t="inlineStr"/>
-      <c r="D971" t="n">
+      <c r="C971" t="n">
         <v>21</v>
       </c>
+      <c r="D971" t="inlineStr"/>
       <c r="E971" t="inlineStr"/>
     </row>
     <row r="972">
@@ -11169,10 +11169,10 @@
         <v>44243.44856219908</v>
       </c>
       <c r="B974" t="inlineStr"/>
-      <c r="C974" t="n">
+      <c r="C974" t="inlineStr"/>
+      <c r="D974" t="n">
         <v>27.3</v>
       </c>
-      <c r="D974" t="inlineStr"/>
       <c r="E974" t="inlineStr"/>
     </row>
     <row r="975">
@@ -11180,10 +11180,10 @@
         <v>44243.44856283565</v>
       </c>
       <c r="B975" t="inlineStr"/>
-      <c r="C975" t="inlineStr"/>
-      <c r="D975" t="n">
+      <c r="C975" t="n">
         <v>26.8</v>
       </c>
+      <c r="D975" t="inlineStr"/>
       <c r="E975" t="inlineStr"/>
     </row>
     <row r="976">
@@ -11213,10 +11213,10 @@
         <v>44243.6406740625</v>
       </c>
       <c r="B978" t="inlineStr"/>
-      <c r="C978" t="n">
+      <c r="C978" t="inlineStr"/>
+      <c r="D978" t="n">
         <v>26.8</v>
       </c>
-      <c r="D978" t="inlineStr"/>
       <c r="E978" t="inlineStr"/>
     </row>
     <row r="979">
@@ -11224,10 +11224,10 @@
         <v>44243.64067434028</v>
       </c>
       <c r="B979" t="inlineStr"/>
-      <c r="C979" t="inlineStr"/>
-      <c r="D979" t="n">
+      <c r="C979" t="n">
         <v>26</v>
       </c>
+      <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr"/>
     </row>
     <row r="980">
@@ -11257,10 +11257,10 @@
         <v>44243.64727452547</v>
       </c>
       <c r="B982" t="inlineStr"/>
-      <c r="C982" t="n">
+      <c r="C982" t="inlineStr"/>
+      <c r="D982" t="n">
         <v>26.8</v>
       </c>
-      <c r="D982" t="inlineStr"/>
       <c r="E982" t="inlineStr"/>
     </row>
     <row r="983">
@@ -11268,10 +11268,10 @@
         <v>44243.64727516204</v>
       </c>
       <c r="B983" t="inlineStr"/>
-      <c r="C983" t="inlineStr"/>
-      <c r="D983" t="n">
+      <c r="C983" t="n">
         <v>26</v>
       </c>
+      <c r="D983" t="inlineStr"/>
       <c r="E983" t="inlineStr"/>
     </row>
     <row r="984">
@@ -11301,10 +11301,10 @@
         <v>44244.31914608796</v>
       </c>
       <c r="B986" t="inlineStr"/>
-      <c r="C986" t="n">
+      <c r="C986" t="inlineStr"/>
+      <c r="D986" t="n">
         <v>21</v>
       </c>
-      <c r="D986" t="inlineStr"/>
       <c r="E986" t="inlineStr"/>
     </row>
     <row r="987">
@@ -11312,10 +11312,10 @@
         <v>44244.31914664352</v>
       </c>
       <c r="B987" t="inlineStr"/>
-      <c r="C987" t="inlineStr"/>
-      <c r="D987" t="n">
+      <c r="C987" t="n">
         <v>20.8</v>
       </c>
+      <c r="D987" t="inlineStr"/>
       <c r="E987" t="inlineStr"/>
     </row>
     <row r="988">
@@ -11367,10 +11367,10 @@
         <v>44244.3931362963</v>
       </c>
       <c r="B992" t="inlineStr"/>
-      <c r="C992" t="n">
+      <c r="C992" t="inlineStr"/>
+      <c r="D992" t="n">
         <v>25.3</v>
       </c>
-      <c r="D992" t="inlineStr"/>
       <c r="E992" t="inlineStr"/>
     </row>
     <row r="993">
@@ -11378,10 +11378,10 @@
         <v>44244.39313657407</v>
       </c>
       <c r="B993" t="inlineStr"/>
-      <c r="C993" t="inlineStr"/>
-      <c r="D993" t="n">
+      <c r="C993" t="n">
         <v>24.9</v>
       </c>
+      <c r="D993" t="inlineStr"/>
       <c r="E993" t="inlineStr"/>
     </row>
     <row r="994">
@@ -11411,10 +11411,10 @@
         <v>44244.39730473379</v>
       </c>
       <c r="B996" t="inlineStr"/>
-      <c r="C996" t="n">
+      <c r="C996" t="inlineStr"/>
+      <c r="D996" t="n">
         <v>25.3</v>
       </c>
-      <c r="D996" t="inlineStr"/>
       <c r="E996" t="inlineStr"/>
     </row>
     <row r="997">
@@ -11422,10 +11422,10 @@
         <v>44244.39730568287</v>
       </c>
       <c r="B997" t="inlineStr"/>
-      <c r="C997" t="inlineStr"/>
-      <c r="D997" t="n">
+      <c r="C997" t="n">
         <v>24.9</v>
       </c>
+      <c r="D997" t="inlineStr"/>
       <c r="E997" t="inlineStr"/>
     </row>
     <row r="998">
@@ -11466,10 +11466,10 @@
         <v>44244.45254583333</v>
       </c>
       <c r="B1001" t="inlineStr"/>
-      <c r="C1001" t="n">
+      <c r="C1001" t="inlineStr"/>
+      <c r="D1001" t="n">
         <v>25.1</v>
       </c>
-      <c r="D1001" t="inlineStr"/>
       <c r="E1001" t="inlineStr"/>
     </row>
     <row r="1002">
@@ -11488,10 +11488,10 @@
         <v>44244.5510515625</v>
       </c>
       <c r="B1003" t="inlineStr"/>
-      <c r="C1003" t="n">
+      <c r="C1003" t="inlineStr"/>
+      <c r="D1003" t="n">
         <v>26.6</v>
       </c>
-      <c r="D1003" t="inlineStr"/>
       <c r="E1003" t="inlineStr"/>
     </row>
     <row r="1004">
@@ -11499,10 +11499,10 @@
         <v>44244.55105209491</v>
       </c>
       <c r="B1004" t="inlineStr"/>
-      <c r="C1004" t="inlineStr"/>
-      <c r="D1004" t="n">
+      <c r="C1004" t="n">
         <v>26</v>
       </c>
+      <c r="D1004" t="inlineStr"/>
       <c r="E1004" t="inlineStr"/>
     </row>
     <row r="1005">
@@ -11521,10 +11521,10 @@
         <v>44244.57919252315</v>
       </c>
       <c r="B1006" t="inlineStr"/>
-      <c r="C1006" t="inlineStr"/>
-      <c r="D1006" t="n">
+      <c r="C1006" t="n">
         <v>24.4</v>
       </c>
+      <c r="D1006" t="inlineStr"/>
       <c r="E1006" t="inlineStr"/>
     </row>
     <row r="1007">
@@ -11543,10 +11543,10 @@
         <v>44245.14057202546</v>
       </c>
       <c r="B1008" t="inlineStr"/>
-      <c r="C1008" t="n">
+      <c r="C1008" t="inlineStr"/>
+      <c r="D1008" t="n">
         <v>26.5</v>
       </c>
-      <c r="D1008" t="inlineStr"/>
       <c r="E1008" t="inlineStr"/>
     </row>
     <row r="1009">
@@ -11554,10 +11554,10 @@
         <v>44245.14057297454</v>
       </c>
       <c r="B1009" t="inlineStr"/>
-      <c r="C1009" t="inlineStr"/>
-      <c r="D1009" t="n">
+      <c r="C1009" t="n">
         <v>25.6</v>
       </c>
+      <c r="D1009" t="inlineStr"/>
       <c r="E1009" t="inlineStr"/>
     </row>
     <row r="1010">
@@ -11587,10 +11587,10 @@
         <v>44245.14734645833</v>
       </c>
       <c r="B1012" t="inlineStr"/>
-      <c r="C1012" t="n">
+      <c r="C1012" t="inlineStr"/>
+      <c r="D1012" t="n">
         <v>26.5</v>
       </c>
-      <c r="D1012" t="inlineStr"/>
       <c r="E1012" t="inlineStr"/>
     </row>
     <row r="1013">
@@ -11598,10 +11598,10 @@
         <v>44245.14734744213</v>
       </c>
       <c r="B1013" t="inlineStr"/>
-      <c r="C1013" t="inlineStr"/>
-      <c r="D1013" t="n">
+      <c r="C1013" t="n">
         <v>25.6</v>
       </c>
+      <c r="D1013" t="inlineStr"/>
       <c r="E1013" t="inlineStr"/>
     </row>
     <row r="1014">
@@ -11620,10 +11620,10 @@
         <v>44245.30439719908</v>
       </c>
       <c r="B1015" t="inlineStr"/>
-      <c r="C1015" t="n">
+      <c r="C1015" t="inlineStr"/>
+      <c r="D1015" t="n">
         <v>18.8</v>
       </c>
-      <c r="D1015" t="inlineStr"/>
       <c r="E1015" t="inlineStr"/>
     </row>
     <row r="1016">
@@ -11642,10 +11642,10 @@
         <v>44245.30509167824</v>
       </c>
       <c r="B1017" t="inlineStr"/>
-      <c r="C1017" t="inlineStr"/>
-      <c r="D1017" t="n">
+      <c r="C1017" t="n">
         <v>19.4</v>
       </c>
+      <c r="D1017" t="inlineStr"/>
       <c r="E1017" t="inlineStr"/>
     </row>
     <row r="1018">
@@ -11686,10 +11686,10 @@
         <v>44245.62121819444</v>
       </c>
       <c r="B1021" t="inlineStr"/>
-      <c r="C1021" t="inlineStr"/>
-      <c r="D1021" t="n">
+      <c r="C1021" t="n">
         <v>26.3</v>
       </c>
+      <c r="D1021" t="inlineStr"/>
       <c r="E1021" t="inlineStr"/>
     </row>
     <row r="1022">
@@ -11708,10 +11708,10 @@
         <v>44245.89063362269</v>
       </c>
       <c r="B1023" t="inlineStr"/>
-      <c r="C1023" t="n">
+      <c r="C1023" t="inlineStr"/>
+      <c r="D1023" t="n">
         <v>26.5</v>
       </c>
-      <c r="D1023" t="inlineStr"/>
       <c r="E1023" t="inlineStr"/>
     </row>
     <row r="1024">
@@ -11719,10 +11719,10 @@
         <v>44245.89063452547</v>
       </c>
       <c r="B1024" t="inlineStr"/>
-      <c r="C1024" t="inlineStr"/>
-      <c r="D1024" t="n">
+      <c r="C1024" t="n">
         <v>26</v>
       </c>
+      <c r="D1024" t="inlineStr"/>
       <c r="E1024" t="inlineStr"/>
     </row>
     <row r="1025">
@@ -11752,10 +11752,10 @@
         <v>44245.89740732639</v>
       </c>
       <c r="B1027" t="inlineStr"/>
-      <c r="C1027" t="n">
+      <c r="C1027" t="inlineStr"/>
+      <c r="D1027" t="n">
         <v>26.5</v>
       </c>
-      <c r="D1027" t="inlineStr"/>
       <c r="E1027" t="inlineStr"/>
     </row>
     <row r="1028">
@@ -11763,10 +11763,10 @@
         <v>44245.89740795139</v>
       </c>
       <c r="B1028" t="inlineStr"/>
-      <c r="C1028" t="inlineStr"/>
-      <c r="D1028" t="n">
+      <c r="C1028" t="n">
         <v>26</v>
       </c>
+      <c r="D1028" t="inlineStr"/>
       <c r="E1028" t="inlineStr"/>
     </row>
     <row r="1029">
@@ -11785,10 +11785,10 @@
         <v>44246.3095888426</v>
       </c>
       <c r="B1030" t="inlineStr"/>
-      <c r="C1030" t="inlineStr"/>
-      <c r="D1030" t="n">
+      <c r="C1030" t="n">
         <v>20</v>
       </c>
+      <c r="D1030" t="inlineStr"/>
       <c r="E1030" t="inlineStr"/>
     </row>
     <row r="1031">
@@ -11807,10 +11807,10 @@
         <v>44246.32591782408</v>
       </c>
       <c r="B1032" t="inlineStr"/>
-      <c r="C1032" t="n">
+      <c r="C1032" t="inlineStr"/>
+      <c r="D1032" t="n">
         <v>22.2</v>
       </c>
-      <c r="D1032" t="inlineStr"/>
       <c r="E1032" t="inlineStr"/>
     </row>
     <row r="1033">
@@ -11851,10 +11851,10 @@
         <v>44246.58405699074</v>
       </c>
       <c r="B1036" t="inlineStr"/>
-      <c r="C1036" t="n">
+      <c r="C1036" t="inlineStr"/>
+      <c r="D1036" t="n">
         <v>27.5</v>
       </c>
-      <c r="D1036" t="inlineStr"/>
       <c r="E1036" t="inlineStr"/>
     </row>
     <row r="1037">
@@ -11862,10 +11862,10 @@
         <v>44246.58405733796</v>
       </c>
       <c r="B1037" t="inlineStr"/>
-      <c r="C1037" t="inlineStr"/>
-      <c r="D1037" t="n">
+      <c r="C1037" t="n">
         <v>26.8</v>
       </c>
+      <c r="D1037" t="inlineStr"/>
       <c r="E1037" t="inlineStr"/>
     </row>
     <row r="1038">
@@ -11884,10 +11884,10 @@
         <v>44246.6406775</v>
       </c>
       <c r="B1039" t="inlineStr"/>
-      <c r="C1039" t="n">
+      <c r="C1039" t="inlineStr"/>
+      <c r="D1039" t="n">
         <v>27.5</v>
       </c>
-      <c r="D1039" t="inlineStr"/>
       <c r="E1039" t="inlineStr"/>
     </row>
     <row r="1040">
@@ -11895,10 +11895,10 @@
         <v>44246.64067803241</v>
       </c>
       <c r="B1040" t="inlineStr"/>
-      <c r="C1040" t="inlineStr"/>
-      <c r="D1040" t="n">
+      <c r="C1040" t="n">
         <v>26.8</v>
       </c>
+      <c r="D1040" t="inlineStr"/>
       <c r="E1040" t="inlineStr"/>
     </row>
     <row r="1041">
@@ -11928,10 +11928,10 @@
         <v>44246.64745060185</v>
       </c>
       <c r="B1043" t="inlineStr"/>
-      <c r="C1043" t="n">
+      <c r="C1043" t="inlineStr"/>
+      <c r="D1043" t="n">
         <v>27.5</v>
       </c>
-      <c r="D1043" t="inlineStr"/>
       <c r="E1043" t="inlineStr"/>
     </row>
     <row r="1044">
@@ -11939,10 +11939,10 @@
         <v>44246.64745109954</v>
       </c>
       <c r="B1044" t="inlineStr"/>
-      <c r="C1044" t="inlineStr"/>
-      <c r="D1044" t="n">
+      <c r="C1044" t="n">
         <v>26.8</v>
       </c>
+      <c r="D1044" t="inlineStr"/>
       <c r="E1044" t="inlineStr"/>
     </row>
     <row r="1045">
@@ -11972,10 +11972,10 @@
         <v>44247.31668099537</v>
       </c>
       <c r="B1047" t="inlineStr"/>
-      <c r="C1047" t="n">
+      <c r="C1047" t="inlineStr"/>
+      <c r="D1047" t="n">
         <v>21.6</v>
       </c>
-      <c r="D1047" t="inlineStr"/>
       <c r="E1047" t="inlineStr"/>
     </row>
     <row r="1048">
@@ -11983,10 +11983,10 @@
         <v>44247.31668149306</v>
       </c>
       <c r="B1048" t="inlineStr"/>
-      <c r="C1048" t="inlineStr"/>
-      <c r="D1048" t="n">
+      <c r="C1048" t="n">
         <v>21.4</v>
       </c>
+      <c r="D1048" t="inlineStr"/>
       <c r="E1048" t="inlineStr"/>
     </row>
     <row r="1049">
@@ -12049,10 +12049,10 @@
         <v>44247.39570583333</v>
       </c>
       <c r="B1054" t="inlineStr"/>
-      <c r="C1054" t="n">
+      <c r="C1054" t="inlineStr"/>
+      <c r="D1054" t="n">
         <v>26.3</v>
       </c>
-      <c r="D1054" t="inlineStr"/>
       <c r="E1054" t="inlineStr"/>
     </row>
     <row r="1055">
@@ -12060,10 +12060,10 @@
         <v>44247.39570609954</v>
       </c>
       <c r="B1055" t="inlineStr"/>
-      <c r="C1055" t="inlineStr"/>
-      <c r="D1055" t="n">
+      <c r="C1055" t="n">
         <v>25.3</v>
       </c>
+      <c r="D1055" t="inlineStr"/>
       <c r="E1055" t="inlineStr"/>
     </row>
     <row r="1056">
@@ -12071,10 +12071,10 @@
         <v>44247.39587969908</v>
       </c>
       <c r="B1056" t="inlineStr"/>
-      <c r="C1056" t="n">
+      <c r="C1056" t="inlineStr"/>
+      <c r="D1056" t="n">
         <v>26.6</v>
       </c>
-      <c r="D1056" t="inlineStr"/>
       <c r="E1056" t="inlineStr"/>
     </row>
     <row r="1057">
@@ -12082,10 +12082,10 @@
         <v>44247.39588020834</v>
       </c>
       <c r="B1057" t="inlineStr"/>
-      <c r="C1057" t="inlineStr"/>
-      <c r="D1057" t="n">
+      <c r="C1057" t="n">
         <v>26</v>
       </c>
+      <c r="D1057" t="inlineStr"/>
       <c r="E1057" t="inlineStr"/>
     </row>
     <row r="1058">
@@ -12126,10 +12126,10 @@
         <v>44247.4214109375</v>
       </c>
       <c r="B1061" t="inlineStr"/>
-      <c r="C1061" t="n">
+      <c r="C1061" t="inlineStr"/>
+      <c r="D1061" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1061" t="inlineStr"/>
       <c r="E1061" t="inlineStr"/>
     </row>
     <row r="1062">
@@ -12137,10 +12137,10 @@
         <v>44247.42141141204</v>
       </c>
       <c r="B1062" t="inlineStr"/>
-      <c r="C1062" t="inlineStr"/>
-      <c r="D1062" t="n">
+      <c r="C1062" t="n">
         <v>26.1</v>
       </c>
+      <c r="D1062" t="inlineStr"/>
       <c r="E1062" t="inlineStr"/>
     </row>
     <row r="1063">
@@ -12148,10 +12148,10 @@
         <v>44247.44051628473</v>
       </c>
       <c r="B1063" t="inlineStr"/>
-      <c r="C1063" t="n">
+      <c r="C1063" t="inlineStr"/>
+      <c r="D1063" t="n">
         <v>25.1</v>
       </c>
-      <c r="D1063" t="inlineStr"/>
       <c r="E1063" t="inlineStr"/>
     </row>
     <row r="1064">
@@ -12159,10 +12159,10 @@
         <v>44247.44051652778</v>
       </c>
       <c r="B1064" t="inlineStr"/>
-      <c r="C1064" t="inlineStr"/>
-      <c r="D1064" t="n">
+      <c r="C1064" t="n">
         <v>24.7</v>
       </c>
+      <c r="D1064" t="inlineStr"/>
       <c r="E1064" t="inlineStr"/>
     </row>
     <row r="1065">
@@ -12214,10 +12214,10 @@
         <v>44248.14069396991</v>
       </c>
       <c r="B1069" t="inlineStr"/>
-      <c r="C1069" t="n">
+      <c r="C1069" t="inlineStr"/>
+      <c r="D1069" t="n">
         <v>26.6</v>
       </c>
-      <c r="D1069" t="inlineStr"/>
       <c r="E1069" t="inlineStr"/>
     </row>
     <row r="1070">
@@ -12225,10 +12225,10 @@
         <v>44248.1406949537</v>
       </c>
       <c r="B1070" t="inlineStr"/>
-      <c r="C1070" t="inlineStr"/>
-      <c r="D1070" t="n">
+      <c r="C1070" t="n">
         <v>26.1</v>
       </c>
+      <c r="D1070" t="inlineStr"/>
       <c r="E1070" t="inlineStr"/>
     </row>
     <row r="1071">
@@ -12258,10 +12258,10 @@
         <v>44248.1474665162</v>
       </c>
       <c r="B1073" t="inlineStr"/>
-      <c r="C1073" t="n">
+      <c r="C1073" t="inlineStr"/>
+      <c r="D1073" t="n">
         <v>26.6</v>
       </c>
-      <c r="D1073" t="inlineStr"/>
       <c r="E1073" t="inlineStr"/>
     </row>
     <row r="1074">
@@ -12269,10 +12269,10 @@
         <v>44248.14746722222</v>
       </c>
       <c r="B1074" t="inlineStr"/>
-      <c r="C1074" t="inlineStr"/>
-      <c r="D1074" t="n">
+      <c r="C1074" t="n">
         <v>26.1</v>
       </c>
+      <c r="D1074" t="inlineStr"/>
       <c r="E1074" t="inlineStr"/>
     </row>
     <row r="1075">
@@ -12302,10 +12302,10 @@
         <v>44248.89071465278</v>
       </c>
       <c r="B1077" t="inlineStr"/>
-      <c r="C1077" t="n">
+      <c r="C1077" t="inlineStr"/>
+      <c r="D1077" t="n">
         <v>26.6</v>
       </c>
-      <c r="D1077" t="inlineStr"/>
       <c r="E1077" t="inlineStr"/>
     </row>
     <row r="1078">
@@ -12313,10 +12313,10 @@
         <v>44248.89071515046</v>
       </c>
       <c r="B1078" t="inlineStr"/>
-      <c r="C1078" t="inlineStr"/>
-      <c r="D1078" t="n">
+      <c r="C1078" t="n">
         <v>26.1</v>
       </c>
+      <c r="D1078" t="inlineStr"/>
       <c r="E1078" t="inlineStr"/>
     </row>
     <row r="1079">
@@ -12346,10 +12346,10 @@
         <v>44248.89731467592</v>
       </c>
       <c r="B1081" t="inlineStr"/>
-      <c r="C1081" t="n">
+      <c r="C1081" t="inlineStr"/>
+      <c r="D1081" t="n">
         <v>26.6</v>
       </c>
-      <c r="D1081" t="inlineStr"/>
       <c r="E1081" t="inlineStr"/>
     </row>
     <row r="1082">
@@ -12357,10 +12357,10 @@
         <v>44248.89748857639</v>
       </c>
       <c r="B1082" t="inlineStr"/>
-      <c r="C1082" t="inlineStr"/>
-      <c r="D1082" t="n">
+      <c r="C1082" t="n">
         <v>26.1</v>
       </c>
+      <c r="D1082" t="inlineStr"/>
       <c r="E1082" t="inlineStr"/>
     </row>
     <row r="1083">
@@ -12390,10 +12390,10 @@
         <v>44249.64059304398</v>
       </c>
       <c r="B1085" t="inlineStr"/>
-      <c r="C1085" t="n">
+      <c r="C1085" t="inlineStr"/>
+      <c r="D1085" t="n">
         <v>26.6</v>
       </c>
-      <c r="D1085" t="inlineStr"/>
       <c r="E1085" t="inlineStr"/>
     </row>
     <row r="1086">
@@ -12401,10 +12401,10 @@
         <v>44249.64059391204</v>
       </c>
       <c r="B1086" t="inlineStr"/>
-      <c r="C1086" t="inlineStr"/>
-      <c r="D1086" t="n">
+      <c r="C1086" t="n">
         <v>26.1</v>
       </c>
+      <c r="D1086" t="inlineStr"/>
       <c r="E1086" t="inlineStr"/>
     </row>
     <row r="1087">
@@ -12434,10 +12434,10 @@
         <v>44249.64736724537</v>
       </c>
       <c r="B1089" t="inlineStr"/>
-      <c r="C1089" t="n">
+      <c r="C1089" t="inlineStr"/>
+      <c r="D1089" t="n">
         <v>26.6</v>
       </c>
-      <c r="D1089" t="inlineStr"/>
       <c r="E1089" t="inlineStr"/>
     </row>
     <row r="1090">
@@ -12445,10 +12445,10 @@
         <v>44249.64736753472</v>
       </c>
       <c r="B1090" t="inlineStr"/>
-      <c r="C1090" t="inlineStr"/>
-      <c r="D1090" t="n">
+      <c r="C1090" t="n">
         <v>26.1</v>
       </c>
+      <c r="D1090" t="inlineStr"/>
       <c r="E1090" t="inlineStr"/>
     </row>
     <row r="1091">
@@ -12478,10 +12478,10 @@
         <v>44250.39059934028</v>
       </c>
       <c r="B1093" t="inlineStr"/>
-      <c r="C1093" t="n">
+      <c r="C1093" t="inlineStr"/>
+      <c r="D1093" t="n">
         <v>26.6</v>
       </c>
-      <c r="D1093" t="inlineStr"/>
       <c r="E1093" t="inlineStr"/>
     </row>
     <row r="1094">
@@ -12489,10 +12489,10 @@
         <v>44250.3906</v>
       </c>
       <c r="B1094" t="inlineStr"/>
-      <c r="C1094" t="inlineStr"/>
-      <c r="D1094" t="n">
+      <c r="C1094" t="n">
         <v>26.1</v>
       </c>
+      <c r="D1094" t="inlineStr"/>
       <c r="E1094" t="inlineStr"/>
     </row>
     <row r="1095">
@@ -12522,10 +12522,10 @@
         <v>44250.39737324074</v>
       </c>
       <c r="B1097" t="inlineStr"/>
-      <c r="C1097" t="n">
+      <c r="C1097" t="inlineStr"/>
+      <c r="D1097" t="n">
         <v>26.6</v>
       </c>
-      <c r="D1097" t="inlineStr"/>
       <c r="E1097" t="inlineStr"/>
     </row>
     <row r="1098">
@@ -12533,10 +12533,10 @@
         <v>44250.39737361111</v>
       </c>
       <c r="B1098" t="inlineStr"/>
-      <c r="C1098" t="inlineStr"/>
-      <c r="D1098" t="n">
+      <c r="C1098" t="n">
         <v>26.1</v>
       </c>
+      <c r="D1098" t="inlineStr"/>
       <c r="E1098" t="inlineStr"/>
     </row>
     <row r="1099">
@@ -12566,10 +12566,10 @@
         <v>44251.14064337963</v>
       </c>
       <c r="B1101" t="inlineStr"/>
-      <c r="C1101" t="n">
+      <c r="C1101" t="inlineStr"/>
+      <c r="D1101" t="n">
         <v>26.6</v>
       </c>
-      <c r="D1101" t="inlineStr"/>
       <c r="E1101" t="inlineStr"/>
     </row>
     <row r="1102">
@@ -12577,10 +12577,10 @@
         <v>44251.14064380787</v>
       </c>
       <c r="B1102" t="inlineStr"/>
-      <c r="C1102" t="inlineStr"/>
-      <c r="D1102" t="n">
+      <c r="C1102" t="n">
         <v>26.1</v>
       </c>
+      <c r="D1102" t="inlineStr"/>
       <c r="E1102" t="inlineStr"/>
     </row>
     <row r="1103">
@@ -12610,10 +12610,10 @@
         <v>44251.14741678241</v>
       </c>
       <c r="B1105" t="inlineStr"/>
-      <c r="C1105" t="n">
+      <c r="C1105" t="inlineStr"/>
+      <c r="D1105" t="n">
         <v>26.6</v>
       </c>
-      <c r="D1105" t="inlineStr"/>
       <c r="E1105" t="inlineStr"/>
     </row>
     <row r="1106">
@@ -12621,10 +12621,10 @@
         <v>44251.14741732639</v>
       </c>
       <c r="B1106" t="inlineStr"/>
-      <c r="C1106" t="inlineStr"/>
-      <c r="D1106" t="n">
+      <c r="C1106" t="n">
         <v>26.1</v>
       </c>
+      <c r="D1106" t="inlineStr"/>
       <c r="E1106" t="inlineStr"/>
     </row>
     <row r="1107">
@@ -12654,10 +12654,10 @@
         <v>44251.31885936343</v>
       </c>
       <c r="B1109" t="inlineStr"/>
-      <c r="C1109" t="n">
+      <c r="C1109" t="inlineStr"/>
+      <c r="D1109" t="n">
         <v>20.6</v>
       </c>
-      <c r="D1109" t="inlineStr"/>
       <c r="E1109" t="inlineStr"/>
     </row>
     <row r="1110">
@@ -12665,10 +12665,10 @@
         <v>44251.31885981481</v>
       </c>
       <c r="B1110" t="inlineStr"/>
-      <c r="C1110" t="inlineStr"/>
-      <c r="D1110" t="n">
+      <c r="C1110" t="n">
         <v>20.4</v>
       </c>
+      <c r="D1110" t="inlineStr"/>
       <c r="E1110" t="inlineStr"/>
     </row>
     <row r="1111">
@@ -12698,10 +12698,10 @@
         <v>44251.59009804398</v>
       </c>
       <c r="B1113" t="inlineStr"/>
-      <c r="C1113" t="inlineStr"/>
-      <c r="D1113" t="n">
+      <c r="C1113" t="n">
         <v>27.1</v>
       </c>
+      <c r="D1113" t="inlineStr"/>
       <c r="E1113" t="inlineStr"/>
     </row>
     <row r="1114">
@@ -12709,10 +12709,10 @@
         <v>44251.59096563658</v>
       </c>
       <c r="B1114" t="inlineStr"/>
-      <c r="C1114" t="n">
+      <c r="C1114" t="inlineStr"/>
+      <c r="D1114" t="n">
         <v>27.8</v>
       </c>
-      <c r="D1114" t="inlineStr"/>
       <c r="E1114" t="inlineStr"/>
     </row>
     <row r="1115">
@@ -12731,10 +12731,10 @@
         <v>44251.89168659722</v>
       </c>
       <c r="B1116" t="inlineStr"/>
-      <c r="C1116" t="n">
+      <c r="C1116" t="inlineStr"/>
+      <c r="D1116" t="n">
         <v>27.1</v>
       </c>
-      <c r="D1116" t="inlineStr"/>
       <c r="E1116" t="inlineStr"/>
     </row>
     <row r="1117">
@@ -12742,10 +12742,10 @@
         <v>44251.89168710648</v>
       </c>
       <c r="B1117" t="inlineStr"/>
-      <c r="C1117" t="inlineStr"/>
-      <c r="D1117" t="n">
+      <c r="C1117" t="n">
         <v>26.8</v>
       </c>
+      <c r="D1117" t="inlineStr"/>
       <c r="E1117" t="inlineStr"/>
     </row>
     <row r="1118">
@@ -12775,10 +12775,10 @@
         <v>44251.89828399305</v>
       </c>
       <c r="B1120" t="inlineStr"/>
-      <c r="C1120" t="n">
+      <c r="C1120" t="inlineStr"/>
+      <c r="D1120" t="n">
         <v>27.1</v>
       </c>
-      <c r="D1120" t="inlineStr"/>
       <c r="E1120" t="inlineStr"/>
     </row>
     <row r="1121">
@@ -12786,10 +12786,10 @@
         <v>44251.89845793982</v>
       </c>
       <c r="B1121" t="inlineStr"/>
-      <c r="C1121" t="inlineStr"/>
-      <c r="D1121" t="n">
+      <c r="C1121" t="n">
         <v>26.8</v>
       </c>
+      <c r="D1121" t="inlineStr"/>
       <c r="E1121" t="inlineStr"/>
     </row>
     <row r="1122">
@@ -12808,10 +12808,10 @@
         <v>44252.34222746528</v>
       </c>
       <c r="B1123" t="inlineStr"/>
-      <c r="C1123" t="n">
+      <c r="C1123" t="inlineStr"/>
+      <c r="D1123" t="n">
         <v>22.4</v>
       </c>
-      <c r="D1123" t="inlineStr"/>
       <c r="E1123" t="inlineStr"/>
     </row>
     <row r="1124">
@@ -12819,10 +12819,10 @@
         <v>44252.34222793981</v>
       </c>
       <c r="B1124" t="inlineStr"/>
-      <c r="C1124" t="inlineStr"/>
-      <c r="D1124" t="n">
+      <c r="C1124" t="n">
         <v>22</v>
       </c>
+      <c r="D1124" t="inlineStr"/>
       <c r="E1124" t="inlineStr"/>
     </row>
     <row r="1125">
@@ -12874,10 +12874,10 @@
         <v>44252.59310060185</v>
       </c>
       <c r="B1129" t="inlineStr"/>
-      <c r="C1129" t="n">
+      <c r="C1129" t="inlineStr"/>
+      <c r="D1129" t="n">
         <v>27.6</v>
       </c>
-      <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr"/>
     </row>
     <row r="1130">
@@ -12885,10 +12885,10 @@
         <v>44252.59900425926</v>
       </c>
       <c r="B1130" t="inlineStr"/>
-      <c r="C1130" t="inlineStr"/>
-      <c r="D1130" t="n">
+      <c r="C1130" t="n">
         <v>27</v>
       </c>
+      <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr"/>
     </row>
     <row r="1131">
@@ -12907,10 +12907,10 @@
         <v>44252.64154238426</v>
       </c>
       <c r="B1132" t="inlineStr"/>
-      <c r="C1132" t="n">
+      <c r="C1132" t="inlineStr"/>
+      <c r="D1132" t="n">
         <v>27.1</v>
       </c>
-      <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr"/>
     </row>
     <row r="1133">
@@ -12918,10 +12918,10 @@
         <v>44252.64171621528</v>
       </c>
       <c r="B1133" t="inlineStr"/>
-      <c r="C1133" t="inlineStr"/>
-      <c r="D1133" t="n">
+      <c r="C1133" t="n">
         <v>27</v>
       </c>
+      <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr"/>
     </row>
     <row r="1134">
@@ -12951,10 +12951,10 @@
         <v>44252.64831381945</v>
       </c>
       <c r="B1136" t="inlineStr"/>
-      <c r="C1136" t="n">
+      <c r="C1136" t="inlineStr"/>
+      <c r="D1136" t="n">
         <v>27.1</v>
       </c>
-      <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr"/>
     </row>
     <row r="1137">
@@ -12962,10 +12962,10 @@
         <v>44252.64831415509</v>
       </c>
       <c r="B1137" t="inlineStr"/>
-      <c r="C1137" t="inlineStr"/>
-      <c r="D1137" t="n">
+      <c r="C1137" t="n">
         <v>27</v>
       </c>
+      <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr"/>
     </row>
     <row r="1138">
@@ -12995,10 +12995,10 @@
         <v>44253.35234646991</v>
       </c>
       <c r="B1140" t="inlineStr"/>
-      <c r="C1140" t="n">
+      <c r="C1140" t="inlineStr"/>
+      <c r="D1140" t="n">
         <v>22.6</v>
       </c>
-      <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr"/>
     </row>
     <row r="1141">
@@ -13006,10 +13006,10 @@
         <v>44253.35234679398</v>
       </c>
       <c r="B1141" t="inlineStr"/>
-      <c r="C1141" t="inlineStr"/>
-      <c r="D1141" t="n">
+      <c r="C1141" t="n">
         <v>22.2</v>
       </c>
+      <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr"/>
     </row>
     <row r="1142">
@@ -13050,10 +13050,10 @@
         <v>44253.39575104167</v>
       </c>
       <c r="B1145" t="inlineStr"/>
-      <c r="C1145" t="n">
+      <c r="C1145" t="inlineStr"/>
+      <c r="D1145" t="n">
         <v>25.6</v>
       </c>
-      <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr"/>
     </row>
     <row r="1146">
@@ -13061,10 +13061,10 @@
         <v>44253.39575168982</v>
       </c>
       <c r="B1146" t="inlineStr"/>
-      <c r="C1146" t="inlineStr"/>
-      <c r="D1146" t="n">
+      <c r="C1146" t="n">
         <v>25.6</v>
       </c>
+      <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr"/>
     </row>
     <row r="1147">
@@ -13072,10 +13072,10 @@
         <v>44253.39592444444</v>
       </c>
       <c r="B1147" t="inlineStr"/>
-      <c r="C1147" t="n">
+      <c r="C1147" t="inlineStr"/>
+      <c r="D1147" t="n">
         <v>25.1</v>
       </c>
-      <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr"/>
     </row>
     <row r="1148">
@@ -13083,10 +13083,10 @@
         <v>44253.39592469907</v>
       </c>
       <c r="B1148" t="inlineStr"/>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="n">
+      <c r="C1148" t="n">
         <v>24.6</v>
       </c>
+      <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr"/>
     </row>
     <row r="1149">
@@ -13127,10 +13127,10 @@
         <v>44253.43846185185</v>
       </c>
       <c r="B1152" t="inlineStr"/>
-      <c r="C1152" t="n">
+      <c r="C1152" t="inlineStr"/>
+      <c r="D1152" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr"/>
     </row>
     <row r="1153">
@@ -13138,10 +13138,10 @@
         <v>44253.44505924769</v>
       </c>
       <c r="B1153" t="inlineStr"/>
-      <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="n">
+      <c r="C1153" t="n">
         <v>26.5</v>
       </c>
+      <c r="D1153" t="inlineStr"/>
       <c r="E1153" t="inlineStr"/>
     </row>
     <row r="1154">
@@ -13193,10 +13193,10 @@
         <v>44253.75896010417</v>
       </c>
       <c r="B1158" t="inlineStr"/>
-      <c r="C1158" t="n">
+      <c r="C1158" t="inlineStr"/>
+      <c r="D1158" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr"/>
     </row>
     <row r="1159">
@@ -13204,10 +13204,10 @@
         <v>44253.75896061343</v>
       </c>
       <c r="B1159" t="inlineStr"/>
-      <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="n">
+      <c r="C1159" t="n">
         <v>26.5</v>
       </c>
+      <c r="D1159" t="inlineStr"/>
       <c r="E1159" t="inlineStr"/>
     </row>
     <row r="1160">
@@ -13237,10 +13237,10 @@
         <v>44279.64452811343</v>
       </c>
       <c r="B1162" t="inlineStr"/>
-      <c r="C1162" t="n">
+      <c r="C1162" t="inlineStr"/>
+      <c r="D1162" t="n">
         <v>27.8</v>
       </c>
-      <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr"/>
     </row>
     <row r="1163">
@@ -13248,10 +13248,10 @@
         <v>44279.64452836806</v>
       </c>
       <c r="B1163" t="inlineStr"/>
-      <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="n">
+      <c r="C1163" t="n">
         <v>27.3</v>
       </c>
+      <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr"/>
     </row>
     <row r="1164">
@@ -13281,10 +13281,10 @@
         <v>44279.64470173611</v>
       </c>
       <c r="B1166" t="inlineStr"/>
-      <c r="C1166" t="n">
+      <c r="C1166" t="inlineStr"/>
+      <c r="D1166" t="n">
         <v>27.8</v>
       </c>
-      <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr"/>
     </row>
     <row r="1167">
@@ -13292,10 +13292,10 @@
         <v>44279.64470200231</v>
       </c>
       <c r="B1167" t="inlineStr"/>
-      <c r="C1167" t="inlineStr"/>
-      <c r="D1167" t="n">
+      <c r="C1167" t="n">
         <v>27.3</v>
       </c>
+      <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr"/>
     </row>
     <row r="1168">
@@ -13325,10 +13325,10 @@
         <v>44279.65147694445</v>
       </c>
       <c r="B1170" t="inlineStr"/>
-      <c r="C1170" t="n">
+      <c r="C1170" t="inlineStr"/>
+      <c r="D1170" t="n">
         <v>27.8</v>
       </c>
-      <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr"/>
     </row>
     <row r="1171">
@@ -13336,10 +13336,10 @@
         <v>44279.65147761574</v>
       </c>
       <c r="B1171" t="inlineStr"/>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="n">
+      <c r="C1171" t="n">
         <v>27.3</v>
       </c>
+      <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr"/>
     </row>
     <row r="1172">
@@ -13369,10 +13369,10 @@
         <v>44280.303179375</v>
       </c>
       <c r="B1174" t="inlineStr"/>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="n">
+      <c r="C1174" t="n">
         <v>21</v>
       </c>
+      <c r="D1174" t="inlineStr"/>
       <c r="E1174" t="inlineStr"/>
     </row>
     <row r="1175">
@@ -13391,10 +13391,10 @@
         <v>44280.3038733912</v>
       </c>
       <c r="B1176" t="inlineStr"/>
-      <c r="C1176" t="n">
+      <c r="C1176" t="inlineStr"/>
+      <c r="D1176" t="n">
         <v>21.6</v>
       </c>
-      <c r="D1176" t="inlineStr"/>
       <c r="E1176" t="inlineStr"/>
     </row>
     <row r="1177">
@@ -13413,10 +13413,10 @@
         <v>44280.39436773148</v>
       </c>
       <c r="B1178" t="inlineStr"/>
-      <c r="C1178" t="n">
+      <c r="C1178" t="inlineStr"/>
+      <c r="D1178" t="n">
         <v>25.8</v>
       </c>
-      <c r="D1178" t="inlineStr"/>
       <c r="E1178" t="inlineStr"/>
     </row>
     <row r="1179">
@@ -13424,10 +13424,10 @@
         <v>44280.39436811343</v>
       </c>
       <c r="B1179" t="inlineStr"/>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="n">
+      <c r="C1179" t="n">
         <v>25.4</v>
       </c>
+      <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr"/>
     </row>
     <row r="1180">
@@ -13457,10 +13457,10 @@
         <v>44280.40114148148</v>
       </c>
       <c r="B1182" t="inlineStr"/>
-      <c r="C1182" t="n">
+      <c r="C1182" t="inlineStr"/>
+      <c r="D1182" t="n">
         <v>25.8</v>
       </c>
-      <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr"/>
     </row>
     <row r="1183">
@@ -13468,10 +13468,10 @@
         <v>44280.40114194444</v>
       </c>
       <c r="B1183" t="inlineStr"/>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="n">
+      <c r="C1183" t="n">
         <v>25.4</v>
       </c>
+      <c r="D1183" t="inlineStr"/>
       <c r="E1183" t="inlineStr"/>
     </row>
     <row r="1184">
@@ -13512,10 +13512,10 @@
         <v>44280.42806626157</v>
       </c>
       <c r="B1187" t="inlineStr"/>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="n">
+      <c r="C1187" t="n">
         <v>24.9</v>
       </c>
+      <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr"/>
     </row>
     <row r="1188">
@@ -13523,10 +13523,10 @@
         <v>44280.54046684028</v>
       </c>
       <c r="B1188" t="inlineStr"/>
-      <c r="C1188" t="n">
+      <c r="C1188" t="inlineStr"/>
+      <c r="D1188" t="n">
         <v>24.9</v>
       </c>
-      <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr"/>
     </row>
     <row r="1189">
@@ -13556,10 +13556,10 @@
         <v>44280.6134275</v>
       </c>
       <c r="B1191" t="inlineStr"/>
-      <c r="C1191" t="n">
+      <c r="C1191" t="inlineStr"/>
+      <c r="D1191" t="n">
         <v>27.1</v>
       </c>
-      <c r="D1191" t="inlineStr"/>
       <c r="E1191" t="inlineStr"/>
     </row>
     <row r="1192">
@@ -13567,10 +13567,10 @@
         <v>44280.61342776621</v>
       </c>
       <c r="B1192" t="inlineStr"/>
-      <c r="C1192" t="inlineStr"/>
-      <c r="D1192" t="n">
+      <c r="C1192" t="n">
         <v>26.8</v>
       </c>
+      <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr"/>
     </row>
     <row r="1193">
@@ -13589,10 +13589,10 @@
         <v>44281.14440935185</v>
       </c>
       <c r="B1194" t="inlineStr"/>
-      <c r="C1194" t="n">
+      <c r="C1194" t="inlineStr"/>
+      <c r="D1194" t="n">
         <v>27.1</v>
       </c>
-      <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr"/>
     </row>
     <row r="1195">
@@ -13600,10 +13600,10 @@
         <v>44281.14441032407</v>
       </c>
       <c r="B1195" t="inlineStr"/>
-      <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="n">
+      <c r="C1195" t="n">
         <v>26.8</v>
       </c>
+      <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr"/>
     </row>
     <row r="1196">
@@ -13633,10 +13633,10 @@
         <v>44281.15118327546</v>
       </c>
       <c r="B1198" t="inlineStr"/>
-      <c r="C1198" t="n">
+      <c r="C1198" t="inlineStr"/>
+      <c r="D1198" t="n">
         <v>27.1</v>
       </c>
-      <c r="D1198" t="inlineStr"/>
       <c r="E1198" t="inlineStr"/>
     </row>
     <row r="1199">
@@ -13644,10 +13644,10 @@
         <v>44281.15118361111</v>
       </c>
       <c r="B1199" t="inlineStr"/>
-      <c r="C1199" t="inlineStr"/>
-      <c r="D1199" t="n">
+      <c r="C1199" t="n">
         <v>26.8</v>
       </c>
+      <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="inlineStr"/>
     </row>
     <row r="1200">
@@ -13677,10 +13677,10 @@
         <v>44281.32035854166</v>
       </c>
       <c r="B1202" t="inlineStr"/>
-      <c r="C1202" t="n">
+      <c r="C1202" t="inlineStr"/>
+      <c r="D1202" t="n">
         <v>21.6</v>
       </c>
-      <c r="D1202" t="inlineStr"/>
       <c r="E1202" t="inlineStr"/>
     </row>
     <row r="1203">
@@ -13699,10 +13699,10 @@
         <v>44281.32105350694</v>
       </c>
       <c r="B1204" t="inlineStr"/>
-      <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="n">
+      <c r="C1204" t="n">
         <v>22.2</v>
       </c>
+      <c r="D1204" t="inlineStr"/>
       <c r="E1204" t="inlineStr"/>
     </row>
     <row r="1205">
@@ -13732,10 +13732,10 @@
         <v>44281.89427440972</v>
       </c>
       <c r="B1207" t="inlineStr"/>
-      <c r="C1207" t="n">
+      <c r="C1207" t="inlineStr"/>
+      <c r="D1207" t="n">
         <v>25.3</v>
       </c>
-      <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr"/>
     </row>
     <row r="1208">
@@ -13743,10 +13743,10 @@
         <v>44281.89427498842</v>
       </c>
       <c r="B1208" t="inlineStr"/>
-      <c r="C1208" t="inlineStr"/>
-      <c r="D1208" t="n">
+      <c r="C1208" t="n">
         <v>25.1</v>
       </c>
+      <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr"/>
     </row>
     <row r="1209">
@@ -13776,10 +13776,10 @@
         <v>44281.90105228009</v>
       </c>
       <c r="B1211" t="inlineStr"/>
-      <c r="C1211" t="n">
+      <c r="C1211" t="inlineStr"/>
+      <c r="D1211" t="n">
         <v>25.3</v>
       </c>
-      <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr"/>
     </row>
     <row r="1212">
@@ -13787,10 +13787,10 @@
         <v>44281.90105252315</v>
       </c>
       <c r="B1212" t="inlineStr"/>
-      <c r="C1212" t="inlineStr"/>
-      <c r="D1212" t="n">
+      <c r="C1212" t="n">
         <v>25.1</v>
       </c>
+      <c r="D1212" t="inlineStr"/>
       <c r="E1212" t="inlineStr"/>
     </row>
     <row r="1213">
@@ -13820,10 +13820,10 @@
         <v>44282.02819241898</v>
       </c>
       <c r="B1215" t="inlineStr"/>
-      <c r="C1215" t="n">
+      <c r="C1215" t="inlineStr"/>
+      <c r="D1215" t="n">
         <v>25.3</v>
       </c>
-      <c r="D1215" t="inlineStr"/>
       <c r="E1215" t="inlineStr"/>
     </row>
     <row r="1216">
@@ -13831,10 +13831,10 @@
         <v>44282.02819283565</v>
       </c>
       <c r="B1216" t="inlineStr"/>
-      <c r="C1216" t="inlineStr"/>
-      <c r="D1216" t="n">
+      <c r="C1216" t="n">
         <v>25.1</v>
       </c>
+      <c r="D1216" t="inlineStr"/>
       <c r="E1216" t="inlineStr"/>
     </row>
     <row r="1217">
@@ -13864,10 +13864,10 @@
         <v>44286.54488107639</v>
       </c>
       <c r="B1219" t="inlineStr"/>
-      <c r="C1219" t="n">
+      <c r="C1219" t="inlineStr"/>
+      <c r="D1219" t="n">
         <v>25.4</v>
       </c>
-      <c r="D1219" t="inlineStr"/>
       <c r="E1219" t="inlineStr"/>
     </row>
     <row r="1220">
@@ -13875,10 +13875,10 @@
         <v>44286.54488143518</v>
       </c>
       <c r="B1220" t="inlineStr"/>
-      <c r="C1220" t="inlineStr"/>
-      <c r="D1220" t="n">
+      <c r="C1220" t="n">
         <v>23.1</v>
       </c>
+      <c r="D1220" t="inlineStr"/>
       <c r="E1220" t="inlineStr"/>
     </row>
     <row r="1221">
@@ -13897,10 +13897,10 @@
         <v>44286.61262413194</v>
       </c>
       <c r="B1222" t="inlineStr"/>
-      <c r="C1222" t="n">
+      <c r="C1222" t="inlineStr"/>
+      <c r="D1222" t="n">
         <v>26.3</v>
       </c>
-      <c r="D1222" t="inlineStr"/>
       <c r="E1222" t="inlineStr"/>
     </row>
     <row r="1223">
@@ -13941,10 +13941,10 @@
         <v>44287.14226140046</v>
       </c>
       <c r="B1226" t="inlineStr"/>
-      <c r="C1226" t="n">
+      <c r="C1226" t="inlineStr"/>
+      <c r="D1226" t="n">
         <v>26.3</v>
       </c>
-      <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr"/>
     </row>
     <row r="1227">
@@ -13952,10 +13952,10 @@
         <v>44287.14226234954</v>
       </c>
       <c r="B1227" t="inlineStr"/>
-      <c r="C1227" t="inlineStr"/>
-      <c r="D1227" t="n">
+      <c r="C1227" t="n">
         <v>23.1</v>
       </c>
+      <c r="D1227" t="inlineStr"/>
       <c r="E1227" t="inlineStr"/>
     </row>
     <row r="1228">
@@ -13985,10 +13985,10 @@
         <v>44287.14903582176</v>
       </c>
       <c r="B1230" t="inlineStr"/>
-      <c r="C1230" t="n">
+      <c r="C1230" t="inlineStr"/>
+      <c r="D1230" t="n">
         <v>26.3</v>
       </c>
-      <c r="D1230" t="inlineStr"/>
       <c r="E1230" t="inlineStr"/>
     </row>
     <row r="1231">
@@ -13996,10 +13996,10 @@
         <v>44287.14903649306</v>
       </c>
       <c r="B1231" t="inlineStr"/>
-      <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="n">
+      <c r="C1231" t="n">
         <v>23.1</v>
       </c>
+      <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr"/>
     </row>
     <row r="1232">
@@ -14018,10 +14018,10 @@
         <v>44287.34323383102</v>
       </c>
       <c r="B1233" t="inlineStr"/>
-      <c r="C1233" t="n">
+      <c r="C1233" t="inlineStr"/>
+      <c r="D1233" t="n">
         <v>22.4</v>
       </c>
-      <c r="D1233" t="inlineStr"/>
       <c r="E1233" t="inlineStr"/>
     </row>
     <row r="1234">
@@ -14029,10 +14029,10 @@
         <v>44287.34323424769</v>
       </c>
       <c r="B1234" t="inlineStr"/>
-      <c r="C1234" t="inlineStr"/>
-      <c r="D1234" t="n">
+      <c r="C1234" t="n">
         <v>22.4</v>
       </c>
+      <c r="D1234" t="inlineStr"/>
       <c r="E1234" t="inlineStr"/>
     </row>
     <row r="1235">
@@ -14062,10 +14062,10 @@
         <v>44287.51069931713</v>
       </c>
       <c r="B1237" t="inlineStr"/>
-      <c r="C1237" t="inlineStr"/>
-      <c r="D1237" t="n">
+      <c r="C1237" t="n">
         <v>25.8</v>
       </c>
+      <c r="D1237" t="inlineStr"/>
       <c r="E1237" t="inlineStr"/>
     </row>
     <row r="1238">
@@ -14084,10 +14084,10 @@
         <v>44287.89232241898</v>
       </c>
       <c r="B1239" t="inlineStr"/>
-      <c r="C1239" t="n">
+      <c r="C1239" t="inlineStr"/>
+      <c r="D1239" t="n">
         <v>25.1</v>
       </c>
-      <c r="D1239" t="inlineStr"/>
       <c r="E1239" t="inlineStr"/>
     </row>
     <row r="1240">
@@ -14095,10 +14095,10 @@
         <v>44287.89232290509</v>
       </c>
       <c r="B1240" t="inlineStr"/>
-      <c r="C1240" t="inlineStr"/>
-      <c r="D1240" t="n">
+      <c r="C1240" t="n">
         <v>25.8</v>
       </c>
+      <c r="D1240" t="inlineStr"/>
       <c r="E1240" t="inlineStr"/>
     </row>
     <row r="1241">
@@ -14128,10 +14128,10 @@
         <v>44287.89892452546</v>
       </c>
       <c r="B1243" t="inlineStr"/>
-      <c r="C1243" t="n">
+      <c r="C1243" t="inlineStr"/>
+      <c r="D1243" t="n">
         <v>25.1</v>
       </c>
-      <c r="D1243" t="inlineStr"/>
       <c r="E1243" t="inlineStr"/>
     </row>
     <row r="1244">
@@ -14139,10 +14139,10 @@
         <v>44287.89909865741</v>
       </c>
       <c r="B1244" t="inlineStr"/>
-      <c r="C1244" t="inlineStr"/>
-      <c r="D1244" t="n">
+      <c r="C1244" t="n">
         <v>25.8</v>
       </c>
+      <c r="D1244" t="inlineStr"/>
       <c r="E1244" t="inlineStr"/>
     </row>
     <row r="1245">
@@ -14172,10 +14172,10 @@
         <v>44288.32137527778</v>
       </c>
       <c r="B1247" t="inlineStr"/>
-      <c r="C1247" t="n">
+      <c r="C1247" t="inlineStr"/>
+      <c r="D1247" t="n">
         <v>22.2</v>
       </c>
-      <c r="D1247" t="inlineStr"/>
       <c r="E1247" t="inlineStr"/>
     </row>
     <row r="1248">
@@ -14183,10 +14183,10 @@
         <v>44288.32137561343</v>
       </c>
       <c r="B1248" t="inlineStr"/>
-      <c r="C1248" t="inlineStr"/>
-      <c r="D1248" t="n">
+      <c r="C1248" t="n">
         <v>22.2</v>
       </c>
+      <c r="D1248" t="inlineStr"/>
       <c r="E1248" t="inlineStr"/>
     </row>
     <row r="1249">
@@ -14205,10 +14205,10 @@
         <v>44288.49630151621</v>
       </c>
       <c r="B1250" t="inlineStr"/>
-      <c r="C1250" t="inlineStr"/>
-      <c r="D1250" t="n">
+      <c r="C1250" t="n">
         <v>26</v>
       </c>
+      <c r="D1250" t="inlineStr"/>
       <c r="E1250" t="inlineStr"/>
     </row>
     <row r="1251">
@@ -14227,10 +14227,10 @@
         <v>44288.53503574074</v>
       </c>
       <c r="B1252" t="inlineStr"/>
-      <c r="C1252" t="n">
+      <c r="C1252" t="inlineStr"/>
+      <c r="D1252" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1252" t="inlineStr"/>
       <c r="E1252" t="inlineStr"/>
     </row>
     <row r="1253">
@@ -14260,10 +14260,10 @@
         <v>44288.64221432871</v>
       </c>
       <c r="B1255" t="inlineStr"/>
-      <c r="C1255" t="n">
+      <c r="C1255" t="inlineStr"/>
+      <c r="D1255" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1255" t="inlineStr"/>
       <c r="E1255" t="inlineStr"/>
     </row>
     <row r="1256">
@@ -14271,10 +14271,10 @@
         <v>44288.64221462963</v>
       </c>
       <c r="B1256" t="inlineStr"/>
-      <c r="C1256" t="inlineStr"/>
-      <c r="D1256" t="n">
+      <c r="C1256" t="n">
         <v>25.3</v>
       </c>
+      <c r="D1256" t="inlineStr"/>
       <c r="E1256" t="inlineStr"/>
     </row>
     <row r="1257">
@@ -14304,10 +14304,10 @@
         <v>44288.64898778935</v>
       </c>
       <c r="B1259" t="inlineStr"/>
-      <c r="C1259" t="n">
+      <c r="C1259" t="inlineStr"/>
+      <c r="D1259" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1259" t="inlineStr"/>
       <c r="E1259" t="inlineStr"/>
     </row>
     <row r="1260">
@@ -14315,10 +14315,10 @@
         <v>44288.64898826389</v>
       </c>
       <c r="B1260" t="inlineStr"/>
-      <c r="C1260" t="inlineStr"/>
-      <c r="D1260" t="n">
+      <c r="C1260" t="n">
         <v>25.3</v>
       </c>
+      <c r="D1260" t="inlineStr"/>
       <c r="E1260" t="inlineStr"/>
     </row>
     <row r="1261">
@@ -14348,10 +14348,10 @@
         <v>44289.3922912037</v>
       </c>
       <c r="B1263" t="inlineStr"/>
-      <c r="C1263" t="n">
+      <c r="C1263" t="inlineStr"/>
+      <c r="D1263" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1263" t="inlineStr"/>
       <c r="E1263" t="inlineStr"/>
     </row>
     <row r="1264">
@@ -14359,10 +14359,10 @@
         <v>44289.39229157408</v>
       </c>
       <c r="B1264" t="inlineStr"/>
-      <c r="C1264" t="inlineStr"/>
-      <c r="D1264" t="n">
+      <c r="C1264" t="n">
         <v>25.3</v>
       </c>
+      <c r="D1264" t="inlineStr"/>
       <c r="E1264" t="inlineStr"/>
     </row>
     <row r="1265">
@@ -14392,10 +14392,10 @@
         <v>44289.39906586806</v>
       </c>
       <c r="B1267" t="inlineStr"/>
-      <c r="C1267" t="n">
+      <c r="C1267" t="inlineStr"/>
+      <c r="D1267" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1267" t="inlineStr"/>
       <c r="E1267" t="inlineStr"/>
     </row>
     <row r="1268">
@@ -14403,10 +14403,10 @@
         <v>44289.39906673611</v>
       </c>
       <c r="B1268" t="inlineStr"/>
-      <c r="C1268" t="inlineStr"/>
-      <c r="D1268" t="n">
+      <c r="C1268" t="n">
         <v>25.3</v>
       </c>
+      <c r="D1268" t="inlineStr"/>
       <c r="E1268" t="inlineStr"/>
     </row>
     <row r="1269">
@@ -14436,10 +14436,10 @@
         <v>44290.14237679399</v>
       </c>
       <c r="B1271" t="inlineStr"/>
-      <c r="C1271" t="n">
+      <c r="C1271" t="inlineStr"/>
+      <c r="D1271" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1271" t="inlineStr"/>
       <c r="E1271" t="inlineStr"/>
     </row>
     <row r="1272">
@@ -14447,10 +14447,10 @@
         <v>44290.14237730324</v>
       </c>
       <c r="B1272" t="inlineStr"/>
-      <c r="C1272" t="inlineStr"/>
-      <c r="D1272" t="n">
+      <c r="C1272" t="n">
         <v>25.3</v>
       </c>
+      <c r="D1272" t="inlineStr"/>
       <c r="E1272" t="inlineStr"/>
     </row>
     <row r="1273">
@@ -14480,10 +14480,10 @@
         <v>44290.14915171296</v>
       </c>
       <c r="B1275" t="inlineStr"/>
-      <c r="C1275" t="n">
+      <c r="C1275" t="inlineStr"/>
+      <c r="D1275" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1275" t="inlineStr"/>
       <c r="E1275" t="inlineStr"/>
     </row>
     <row r="1276">
@@ -14491,10 +14491,10 @@
         <v>44290.14915245371</v>
       </c>
       <c r="B1276" t="inlineStr"/>
-      <c r="C1276" t="inlineStr"/>
-      <c r="D1276" t="n">
+      <c r="C1276" t="n">
         <v>25.3</v>
       </c>
+      <c r="D1276" t="inlineStr"/>
       <c r="E1276" t="inlineStr"/>
     </row>
     <row r="1277">
@@ -14524,10 +14524,10 @@
         <v>44290.8922493287</v>
       </c>
       <c r="B1279" t="inlineStr"/>
-      <c r="C1279" t="n">
+      <c r="C1279" t="inlineStr"/>
+      <c r="D1279" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1279" t="inlineStr"/>
       <c r="E1279" t="inlineStr"/>
     </row>
     <row r="1280">
@@ -14535,10 +14535,10 @@
         <v>44290.89225019676</v>
       </c>
       <c r="B1280" t="inlineStr"/>
-      <c r="C1280" t="inlineStr"/>
-      <c r="D1280" t="n">
+      <c r="C1280" t="n">
         <v>25.3</v>
       </c>
+      <c r="D1280" t="inlineStr"/>
       <c r="E1280" t="inlineStr"/>
     </row>
     <row r="1281">
@@ -14568,10 +14568,10 @@
         <v>44290.91292091435</v>
       </c>
       <c r="B1283" t="inlineStr"/>
-      <c r="C1283" t="n">
+      <c r="C1283" t="inlineStr"/>
+      <c r="D1283" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1283" t="inlineStr"/>
       <c r="E1283" t="inlineStr"/>
     </row>
     <row r="1284">
@@ -14579,10 +14579,10 @@
         <v>44290.91292128473</v>
       </c>
       <c r="B1284" t="inlineStr"/>
-      <c r="C1284" t="inlineStr"/>
-      <c r="D1284" t="n">
+      <c r="C1284" t="n">
         <v>25.3</v>
       </c>
+      <c r="D1284" t="inlineStr"/>
       <c r="E1284" t="inlineStr"/>
     </row>
     <row r="1285">
@@ -14612,10 +14612,10 @@
         <v>44291.31504392361</v>
       </c>
       <c r="B1287" t="inlineStr"/>
-      <c r="C1287" t="n">
+      <c r="C1287" t="inlineStr"/>
+      <c r="D1287" t="n">
         <v>22.2</v>
       </c>
-      <c r="D1287" t="inlineStr"/>
       <c r="E1287" t="inlineStr"/>
     </row>
     <row r="1288">
@@ -14623,10 +14623,10 @@
         <v>44291.3150446875</v>
       </c>
       <c r="B1288" t="inlineStr"/>
-      <c r="C1288" t="inlineStr"/>
-      <c r="D1288" t="n">
+      <c r="C1288" t="n">
         <v>22</v>
       </c>
+      <c r="D1288" t="inlineStr"/>
       <c r="E1288" t="inlineStr"/>
     </row>
     <row r="1289">
@@ -14645,10 +14645,10 @@
         <v>44291.55321608797</v>
       </c>
       <c r="B1290" t="inlineStr"/>
-      <c r="C1290" t="inlineStr"/>
-      <c r="D1290" t="n">
+      <c r="C1290" t="n">
         <v>26.5</v>
       </c>
+      <c r="D1290" t="inlineStr"/>
       <c r="E1290" t="inlineStr"/>
     </row>
     <row r="1291">
@@ -14667,10 +14667,10 @@
         <v>44291.64233030093</v>
       </c>
       <c r="B1292" t="inlineStr"/>
-      <c r="C1292" t="n">
+      <c r="C1292" t="inlineStr"/>
+      <c r="D1292" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1292" t="inlineStr"/>
       <c r="E1292" t="inlineStr"/>
     </row>
     <row r="1293">
@@ -14678,10 +14678,10 @@
         <v>44291.64233125</v>
       </c>
       <c r="B1293" t="inlineStr"/>
-      <c r="C1293" t="inlineStr"/>
-      <c r="D1293" t="n">
+      <c r="C1293" t="n">
         <v>26.1</v>
       </c>
+      <c r="D1293" t="inlineStr"/>
       <c r="E1293" t="inlineStr"/>
     </row>
     <row r="1294">
@@ -14711,10 +14711,10 @@
         <v>44291.64910420139</v>
       </c>
       <c r="B1296" t="inlineStr"/>
-      <c r="C1296" t="n">
+      <c r="C1296" t="inlineStr"/>
+      <c r="D1296" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1296" t="inlineStr"/>
       <c r="E1296" t="inlineStr"/>
     </row>
     <row r="1297">
@@ -14722,10 +14722,10 @@
         <v>44291.6491046412</v>
       </c>
       <c r="B1297" t="inlineStr"/>
-      <c r="C1297" t="inlineStr"/>
-      <c r="D1297" t="n">
+      <c r="C1297" t="n">
         <v>26.1</v>
       </c>
+      <c r="D1297" t="inlineStr"/>
       <c r="E1297" t="inlineStr"/>
     </row>
     <row r="1298">
@@ -14755,10 +14755,10 @@
         <v>44292.30865608796</v>
       </c>
       <c r="B1300" t="inlineStr"/>
-      <c r="C1300" t="n">
+      <c r="C1300" t="inlineStr"/>
+      <c r="D1300" t="n">
         <v>21.2</v>
       </c>
-      <c r="D1300" t="inlineStr"/>
       <c r="E1300" t="inlineStr"/>
     </row>
     <row r="1301">
@@ -14766,10 +14766,10 @@
         <v>44292.30865699074</v>
       </c>
       <c r="B1301" t="inlineStr"/>
-      <c r="C1301" t="inlineStr"/>
-      <c r="D1301" t="n">
+      <c r="C1301" t="n">
         <v>21.2</v>
       </c>
+      <c r="D1301" t="inlineStr"/>
       <c r="E1301" t="inlineStr"/>
     </row>
     <row r="1302">
@@ -14810,10 +14810,10 @@
         <v>44292.392379375</v>
       </c>
       <c r="B1305" t="inlineStr"/>
-      <c r="C1305" t="n">
+      <c r="C1305" t="inlineStr"/>
+      <c r="D1305" t="n">
         <v>24.7</v>
       </c>
-      <c r="D1305" t="inlineStr"/>
       <c r="E1305" t="inlineStr"/>
     </row>
     <row r="1306">
@@ -14821,10 +14821,10 @@
         <v>44292.39238032408</v>
       </c>
       <c r="B1306" t="inlineStr"/>
-      <c r="C1306" t="inlineStr"/>
-      <c r="D1306" t="n">
+      <c r="C1306" t="n">
         <v>25.8</v>
       </c>
+      <c r="D1306" t="inlineStr"/>
       <c r="E1306" t="inlineStr"/>
     </row>
     <row r="1307">
@@ -14865,10 +14865,10 @@
         <v>44292.39898038194</v>
       </c>
       <c r="B1310" t="inlineStr"/>
-      <c r="C1310" t="n">
+      <c r="C1310" t="inlineStr"/>
+      <c r="D1310" t="n">
         <v>24.7</v>
       </c>
-      <c r="D1310" t="inlineStr"/>
       <c r="E1310" t="inlineStr"/>
     </row>
     <row r="1311">
@@ -14876,10 +14876,10 @@
         <v>44292.39915539352</v>
       </c>
       <c r="B1311" t="inlineStr"/>
-      <c r="C1311" t="inlineStr"/>
-      <c r="D1311" t="n">
+      <c r="C1311" t="n">
         <v>25.8</v>
       </c>
+      <c r="D1311" t="inlineStr"/>
       <c r="E1311" t="inlineStr"/>
     </row>
     <row r="1312">
@@ -14909,10 +14909,10 @@
         <v>44292.45022896991</v>
       </c>
       <c r="B1314" t="inlineStr"/>
-      <c r="C1314" t="inlineStr"/>
-      <c r="D1314" t="n">
+      <c r="C1314" t="n">
         <v>25.4</v>
       </c>
+      <c r="D1314" t="inlineStr"/>
       <c r="E1314" t="inlineStr"/>
     </row>
     <row r="1315">
@@ -14931,10 +14931,10 @@
         <v>44292.54403972222</v>
       </c>
       <c r="B1316" t="inlineStr"/>
-      <c r="C1316" t="n">
+      <c r="C1316" t="inlineStr"/>
+      <c r="D1316" t="n">
         <v>28.1</v>
       </c>
-      <c r="D1316" t="inlineStr"/>
       <c r="E1316" t="inlineStr"/>
     </row>
     <row r="1317">
@@ -14942,10 +14942,10 @@
         <v>44292.54404003472</v>
       </c>
       <c r="B1317" t="inlineStr"/>
-      <c r="C1317" t="inlineStr"/>
-      <c r="D1317" t="n">
+      <c r="C1317" t="n">
         <v>27.5</v>
       </c>
+      <c r="D1317" t="inlineStr"/>
       <c r="E1317" t="inlineStr"/>
     </row>
     <row r="1318">
@@ -14986,10 +14986,10 @@
         <v>44293.14231716435</v>
       </c>
       <c r="B1321" t="inlineStr"/>
-      <c r="C1321" t="n">
+      <c r="C1321" t="inlineStr"/>
+      <c r="D1321" t="n">
         <v>27.3</v>
       </c>
-      <c r="D1321" t="inlineStr"/>
       <c r="E1321" t="inlineStr"/>
     </row>
     <row r="1322">
@@ -14997,10 +14997,10 @@
         <v>44293.14231746528</v>
       </c>
       <c r="B1322" t="inlineStr"/>
-      <c r="C1322" t="inlineStr"/>
-      <c r="D1322" t="n">
+      <c r="C1322" t="n">
         <v>26.6</v>
       </c>
+      <c r="D1322" t="inlineStr"/>
       <c r="E1322" t="inlineStr"/>
     </row>
     <row r="1323">
@@ -15030,10 +15030,10 @@
         <v>44293.14909146991</v>
       </c>
       <c r="B1325" t="inlineStr"/>
-      <c r="C1325" t="n">
+      <c r="C1325" t="inlineStr"/>
+      <c r="D1325" t="n">
         <v>27.3</v>
       </c>
-      <c r="D1325" t="inlineStr"/>
       <c r="E1325" t="inlineStr"/>
     </row>
     <row r="1326">
@@ -15041,10 +15041,10 @@
         <v>44293.14909221065</v>
       </c>
       <c r="B1326" t="inlineStr"/>
-      <c r="C1326" t="inlineStr"/>
-      <c r="D1326" t="n">
+      <c r="C1326" t="n">
         <v>26.6</v>
       </c>
+      <c r="D1326" t="inlineStr"/>
       <c r="E1326" t="inlineStr"/>
     </row>
     <row r="1327">
@@ -15063,10 +15063,10 @@
         <v>44293.3215830787</v>
       </c>
       <c r="B1328" t="inlineStr"/>
-      <c r="C1328" t="n">
+      <c r="C1328" t="inlineStr"/>
+      <c r="D1328" t="n">
         <v>21.2</v>
       </c>
-      <c r="D1328" t="inlineStr"/>
       <c r="E1328" t="inlineStr"/>
     </row>
     <row r="1329">
@@ -15074,10 +15074,10 @@
         <v>44293.32158391204</v>
       </c>
       <c r="B1329" t="inlineStr"/>
-      <c r="C1329" t="inlineStr"/>
-      <c r="D1329" t="n">
+      <c r="C1329" t="n">
         <v>21.2</v>
       </c>
+      <c r="D1329" t="inlineStr"/>
       <c r="E1329" t="inlineStr"/>
     </row>
     <row r="1330">
@@ -15118,10 +15118,10 @@
         <v>44293.62765722222</v>
       </c>
       <c r="B1333" t="inlineStr"/>
-      <c r="C1333" t="n">
+      <c r="C1333" t="inlineStr"/>
+      <c r="D1333" t="n">
         <v>28.3</v>
       </c>
-      <c r="D1333" t="inlineStr"/>
       <c r="E1333" t="inlineStr"/>
     </row>
     <row r="1334">
@@ -15129,10 +15129,10 @@
         <v>44293.62765758102</v>
       </c>
       <c r="B1334" t="inlineStr"/>
-      <c r="C1334" t="inlineStr"/>
-      <c r="D1334" t="n">
+      <c r="C1334" t="n">
         <v>27.6</v>
       </c>
+      <c r="D1334" t="inlineStr"/>
       <c r="E1334" t="inlineStr"/>
     </row>
     <row r="1335">
@@ -15162,10 +15162,10 @@
         <v>44293.89084280092</v>
       </c>
       <c r="B1337" t="inlineStr"/>
-      <c r="C1337" t="n">
+      <c r="C1337" t="inlineStr"/>
+      <c r="D1337" t="n">
         <v>27.1</v>
       </c>
-      <c r="D1337" t="inlineStr"/>
       <c r="E1337" t="inlineStr"/>
     </row>
     <row r="1338">
@@ -15173,10 +15173,10 @@
         <v>44293.89084355324</v>
       </c>
       <c r="B1338" t="inlineStr"/>
-      <c r="C1338" t="inlineStr"/>
-      <c r="D1338" t="n">
+      <c r="C1338" t="n">
         <v>26.8</v>
       </c>
+      <c r="D1338" t="inlineStr"/>
       <c r="E1338" t="inlineStr"/>
     </row>
     <row r="1339">
@@ -15206,10 +15206,10 @@
         <v>44293.89744490741</v>
       </c>
       <c r="B1341" t="inlineStr"/>
-      <c r="C1341" t="n">
+      <c r="C1341" t="inlineStr"/>
+      <c r="D1341" t="n">
         <v>27.1</v>
       </c>
-      <c r="D1341" t="inlineStr"/>
       <c r="E1341" t="inlineStr"/>
     </row>
     <row r="1342">
@@ -15217,10 +15217,10 @@
         <v>44293.89761972222</v>
       </c>
       <c r="B1342" t="inlineStr"/>
-      <c r="C1342" t="inlineStr"/>
-      <c r="D1342" t="n">
+      <c r="C1342" t="n">
         <v>26.8</v>
       </c>
+      <c r="D1342" t="inlineStr"/>
       <c r="E1342" t="inlineStr"/>
     </row>
     <row r="1343">
@@ -15239,10 +15239,10 @@
         <v>44294.30909833333</v>
       </c>
       <c r="B1344" t="inlineStr"/>
-      <c r="C1344" t="inlineStr"/>
-      <c r="D1344" t="n">
+      <c r="C1344" t="n">
         <v>22.2</v>
       </c>
+      <c r="D1344" t="inlineStr"/>
       <c r="E1344" t="inlineStr"/>
     </row>
     <row r="1345">
@@ -15261,10 +15261,10 @@
         <v>44294.30979259259</v>
       </c>
       <c r="B1346" t="inlineStr"/>
-      <c r="C1346" t="n">
+      <c r="C1346" t="inlineStr"/>
+      <c r="D1346" t="n">
         <v>22.7</v>
       </c>
-      <c r="D1346" t="inlineStr"/>
       <c r="E1346" t="inlineStr"/>
     </row>
     <row r="1347">
@@ -15305,10 +15305,10 @@
         <v>44294.55731262732</v>
       </c>
       <c r="B1350" t="inlineStr"/>
-      <c r="C1350" t="n">
+      <c r="C1350" t="inlineStr"/>
+      <c r="D1350" t="n">
         <v>27.5</v>
       </c>
-      <c r="D1350" t="inlineStr"/>
       <c r="E1350" t="inlineStr"/>
     </row>
     <row r="1351">
@@ -15316,10 +15316,10 @@
         <v>44294.5573130324</v>
       </c>
       <c r="B1351" t="inlineStr"/>
-      <c r="C1351" t="inlineStr"/>
-      <c r="D1351" t="n">
+      <c r="C1351" t="n">
         <v>27.1</v>
       </c>
+      <c r="D1351" t="inlineStr"/>
       <c r="E1351" t="inlineStr"/>
     </row>
     <row r="1352">
@@ -15338,10 +15338,10 @@
         <v>44294.64085736111</v>
       </c>
       <c r="B1353" t="inlineStr"/>
-      <c r="C1353" t="n">
+      <c r="C1353" t="inlineStr"/>
+      <c r="D1353" t="n">
         <v>27.3</v>
       </c>
-      <c r="D1353" t="inlineStr"/>
       <c r="E1353" t="inlineStr"/>
     </row>
     <row r="1354">
@@ -15349,10 +15349,10 @@
         <v>44294.64085798611</v>
       </c>
       <c r="B1354" t="inlineStr"/>
-      <c r="C1354" t="inlineStr"/>
-      <c r="D1354" t="n">
+      <c r="C1354" t="n">
         <v>26.3</v>
       </c>
+      <c r="D1354" t="inlineStr"/>
       <c r="E1354" t="inlineStr"/>
     </row>
     <row r="1355">
@@ -15382,10 +15382,10 @@
         <v>44294.64745973379</v>
       </c>
       <c r="B1357" t="inlineStr"/>
-      <c r="C1357" t="n">
+      <c r="C1357" t="inlineStr"/>
+      <c r="D1357" t="n">
         <v>27.3</v>
       </c>
-      <c r="D1357" t="inlineStr"/>
       <c r="E1357" t="inlineStr"/>
     </row>
     <row r="1358">
@@ -15393,10 +15393,10 @@
         <v>44294.64746027777</v>
       </c>
       <c r="B1358" t="inlineStr"/>
-      <c r="C1358" t="inlineStr"/>
-      <c r="D1358" t="n">
+      <c r="C1358" t="n">
         <v>26.3</v>
       </c>
+      <c r="D1358" t="inlineStr"/>
       <c r="E1358" t="inlineStr"/>
     </row>
     <row r="1359">
@@ -15415,10 +15415,10 @@
         <v>44295.37867417824</v>
       </c>
       <c r="B1360" t="inlineStr"/>
-      <c r="C1360" t="n">
+      <c r="C1360" t="inlineStr"/>
+      <c r="D1360" t="n">
         <v>24.4</v>
       </c>
-      <c r="D1360" t="inlineStr"/>
       <c r="E1360" t="inlineStr"/>
     </row>
     <row r="1361">
@@ -15426,10 +15426,10 @@
         <v>44295.37867459491</v>
       </c>
       <c r="B1361" t="inlineStr"/>
-      <c r="C1361" t="inlineStr"/>
-      <c r="D1361" t="n">
+      <c r="C1361" t="n">
         <v>23.8</v>
       </c>
+      <c r="D1361" t="inlineStr"/>
       <c r="E1361" t="inlineStr"/>
     </row>
     <row r="1362">
@@ -15459,10 +15459,10 @@
         <v>44295.39274349537</v>
       </c>
       <c r="B1364" t="inlineStr"/>
-      <c r="C1364" t="n">
+      <c r="C1364" t="inlineStr"/>
+      <c r="D1364" t="n">
         <v>24.4</v>
       </c>
-      <c r="D1364" t="inlineStr"/>
       <c r="E1364" t="inlineStr"/>
     </row>
     <row r="1365">
@@ -15470,10 +15470,10 @@
         <v>44295.39274381944</v>
       </c>
       <c r="B1365" t="inlineStr"/>
-      <c r="C1365" t="inlineStr"/>
-      <c r="D1365" t="n">
+      <c r="C1365" t="n">
         <v>23.8</v>
       </c>
+      <c r="D1365" t="inlineStr"/>
       <c r="E1365" t="inlineStr"/>
     </row>
     <row r="1366">
@@ -15514,10 +15514,10 @@
         <v>44295.39951655093</v>
       </c>
       <c r="B1369" t="inlineStr"/>
-      <c r="C1369" t="n">
+      <c r="C1369" t="inlineStr"/>
+      <c r="D1369" t="n">
         <v>24.4</v>
       </c>
-      <c r="D1369" t="inlineStr"/>
       <c r="E1369" t="inlineStr"/>
     </row>
     <row r="1370">
@@ -15525,10 +15525,10 @@
         <v>44295.3995168287</v>
       </c>
       <c r="B1370" t="inlineStr"/>
-      <c r="C1370" t="inlineStr"/>
-      <c r="D1370" t="n">
+      <c r="C1370" t="n">
         <v>23.8</v>
       </c>
+      <c r="D1370" t="inlineStr"/>
       <c r="E1370" t="inlineStr"/>
     </row>
     <row r="1371">
@@ -15580,10 +15580,10 @@
         <v>44295.59978671296</v>
       </c>
       <c r="B1375" t="inlineStr"/>
-      <c r="C1375" t="inlineStr"/>
-      <c r="D1375" t="n">
+      <c r="C1375" t="n">
         <v>27.3</v>
       </c>
+      <c r="D1375" t="inlineStr"/>
       <c r="E1375" t="inlineStr"/>
     </row>
     <row r="1376">
@@ -15602,10 +15602,10 @@
         <v>44295.64165681713</v>
       </c>
       <c r="B1377" t="inlineStr"/>
-      <c r="C1377" t="n">
+      <c r="C1377" t="inlineStr"/>
+      <c r="D1377" t="n">
         <v>27.8</v>
       </c>
-      <c r="D1377" t="inlineStr"/>
       <c r="E1377" t="inlineStr"/>
     </row>
     <row r="1378">
@@ -15624,10 +15624,10 @@
         <v>44296.14045204861</v>
       </c>
       <c r="B1379" t="inlineStr"/>
-      <c r="C1379" t="n">
+      <c r="C1379" t="inlineStr"/>
+      <c r="D1379" t="n">
         <v>27.8</v>
       </c>
-      <c r="D1379" t="inlineStr"/>
       <c r="E1379" t="inlineStr"/>
     </row>
     <row r="1380">
@@ -15635,10 +15635,10 @@
         <v>44296.14045275463</v>
       </c>
       <c r="B1380" t="inlineStr"/>
-      <c r="C1380" t="inlineStr"/>
-      <c r="D1380" t="n">
+      <c r="C1380" t="n">
         <v>27.3</v>
       </c>
+      <c r="D1380" t="inlineStr"/>
       <c r="E1380" t="inlineStr"/>
     </row>
     <row r="1381">
@@ -15668,10 +15668,10 @@
         <v>44296.14705122685</v>
       </c>
       <c r="B1383" t="inlineStr"/>
-      <c r="C1383" t="n">
+      <c r="C1383" t="inlineStr"/>
+      <c r="D1383" t="n">
         <v>27.8</v>
       </c>
-      <c r="D1383" t="inlineStr"/>
       <c r="E1383" t="inlineStr"/>
     </row>
     <row r="1384">
@@ -15679,10 +15679,10 @@
         <v>44296.14722601852</v>
       </c>
       <c r="B1384" t="inlineStr"/>
-      <c r="C1384" t="inlineStr"/>
-      <c r="D1384" t="n">
+      <c r="C1384" t="n">
         <v>27.3</v>
       </c>
+      <c r="D1384" t="inlineStr"/>
       <c r="E1384" t="inlineStr"/>
     </row>
     <row r="1385">
@@ -15712,10 +15712,10 @@
         <v>44296.89032391203</v>
       </c>
       <c r="B1387" t="inlineStr"/>
-      <c r="C1387" t="n">
+      <c r="C1387" t="inlineStr"/>
+      <c r="D1387" t="n">
         <v>27.8</v>
       </c>
-      <c r="D1387" t="inlineStr"/>
       <c r="E1387" t="inlineStr"/>
     </row>
     <row r="1388">
@@ -15723,10 +15723,10 @@
         <v>44296.89032446759</v>
       </c>
       <c r="B1388" t="inlineStr"/>
-      <c r="C1388" t="inlineStr"/>
-      <c r="D1388" t="n">
+      <c r="C1388" t="n">
         <v>27.3</v>
       </c>
+      <c r="D1388" t="inlineStr"/>
       <c r="E1388" t="inlineStr"/>
     </row>
     <row r="1389">
@@ -15756,10 +15756,10 @@
         <v>44296.89709775463</v>
       </c>
       <c r="B1391" t="inlineStr"/>
-      <c r="C1391" t="n">
+      <c r="C1391" t="inlineStr"/>
+      <c r="D1391" t="n">
         <v>27.8</v>
       </c>
-      <c r="D1391" t="inlineStr"/>
       <c r="E1391" t="inlineStr"/>
     </row>
     <row r="1392">
@@ -15767,10 +15767,10 @@
         <v>44296.89709877314</v>
       </c>
       <c r="B1392" t="inlineStr"/>
-      <c r="C1392" t="inlineStr"/>
-      <c r="D1392" t="n">
+      <c r="C1392" t="n">
         <v>27.3</v>
       </c>
+      <c r="D1392" t="inlineStr"/>
       <c r="E1392" t="inlineStr"/>
     </row>
     <row r="1393">
@@ -15800,10 +15800,10 @@
         <v>44297.64034834491</v>
       </c>
       <c r="B1395" t="inlineStr"/>
-      <c r="C1395" t="n">
+      <c r="C1395" t="inlineStr"/>
+      <c r="D1395" t="n">
         <v>27.8</v>
       </c>
-      <c r="D1395" t="inlineStr"/>
       <c r="E1395" t="inlineStr"/>
     </row>
     <row r="1396">
@@ -15811,10 +15811,10 @@
         <v>44297.6403487963</v>
       </c>
       <c r="B1396" t="inlineStr"/>
-      <c r="C1396" t="inlineStr"/>
-      <c r="D1396" t="n">
+      <c r="C1396" t="n">
         <v>27.3</v>
       </c>
+      <c r="D1396" t="inlineStr"/>
       <c r="E1396" t="inlineStr"/>
     </row>
     <row r="1397">
@@ -15844,10 +15844,10 @@
         <v>44297.64712209491</v>
       </c>
       <c r="B1399" t="inlineStr"/>
-      <c r="C1399" t="n">
+      <c r="C1399" t="inlineStr"/>
+      <c r="D1399" t="n">
         <v>27.8</v>
       </c>
-      <c r="D1399" t="inlineStr"/>
       <c r="E1399" t="inlineStr"/>
     </row>
     <row r="1400">
@@ -15855,10 +15855,10 @@
         <v>44297.64712278935</v>
       </c>
       <c r="B1400" t="inlineStr"/>
-      <c r="C1400" t="inlineStr"/>
-      <c r="D1400" t="n">
+      <c r="C1400" t="n">
         <v>27.3</v>
       </c>
+      <c r="D1400" t="inlineStr"/>
       <c r="E1400" t="inlineStr"/>
     </row>
     <row r="1401">
@@ -15888,10 +15888,10 @@
         <v>44298.33271592593</v>
       </c>
       <c r="B1403" t="inlineStr"/>
-      <c r="C1403" t="n">
+      <c r="C1403" t="inlineStr"/>
+      <c r="D1403" t="n">
         <v>22.6</v>
       </c>
-      <c r="D1403" t="inlineStr"/>
       <c r="E1403" t="inlineStr"/>
     </row>
     <row r="1404">
@@ -15899,10 +15899,10 @@
         <v>44298.33271637731</v>
       </c>
       <c r="B1404" t="inlineStr"/>
-      <c r="C1404" t="inlineStr"/>
-      <c r="D1404" t="n">
+      <c r="C1404" t="n">
         <v>22.7</v>
       </c>
+      <c r="D1404" t="inlineStr"/>
       <c r="E1404" t="inlineStr"/>
     </row>
     <row r="1405">
@@ -15921,10 +15921,10 @@
         <v>44298.39038077546</v>
       </c>
       <c r="B1406" t="inlineStr"/>
-      <c r="C1406" t="n">
+      <c r="C1406" t="inlineStr"/>
+      <c r="D1406" t="n">
         <v>24.6</v>
       </c>
-      <c r="D1406" t="inlineStr"/>
       <c r="E1406" t="inlineStr"/>
     </row>
     <row r="1407">
@@ -15932,10 +15932,10 @@
         <v>44298.39038109954</v>
       </c>
       <c r="B1407" t="inlineStr"/>
-      <c r="C1407" t="inlineStr"/>
-      <c r="D1407" t="n">
+      <c r="C1407" t="n">
         <v>25.8</v>
       </c>
+      <c r="D1407" t="inlineStr"/>
       <c r="E1407" t="inlineStr"/>
     </row>
     <row r="1408">
@@ -15976,10 +15976,10 @@
         <v>44298.39715462963</v>
       </c>
       <c r="B1411" t="inlineStr"/>
-      <c r="C1411" t="n">
+      <c r="C1411" t="inlineStr"/>
+      <c r="D1411" t="n">
         <v>24.6</v>
       </c>
-      <c r="D1411" t="inlineStr"/>
       <c r="E1411" t="inlineStr"/>
     </row>
     <row r="1412">
@@ -15987,10 +15987,10 @@
         <v>44298.39715512731</v>
       </c>
       <c r="B1412" t="inlineStr"/>
-      <c r="C1412" t="inlineStr"/>
-      <c r="D1412" t="n">
+      <c r="C1412" t="n">
         <v>25.8</v>
       </c>
+      <c r="D1412" t="inlineStr"/>
       <c r="E1412" t="inlineStr"/>
     </row>
     <row r="1413">
@@ -16020,10 +16020,10 @@
         <v>44298.40601444444</v>
       </c>
       <c r="B1415" t="inlineStr"/>
-      <c r="C1415" t="inlineStr"/>
-      <c r="D1415" t="n">
+      <c r="C1415" t="n">
         <v>24.9</v>
       </c>
+      <c r="D1415" t="inlineStr"/>
       <c r="E1415" t="inlineStr"/>
     </row>
     <row r="1416">
@@ -16053,10 +16053,10 @@
         <v>44298.62833825232</v>
       </c>
       <c r="B1418" t="inlineStr"/>
-      <c r="C1418" t="n">
+      <c r="C1418" t="inlineStr"/>
+      <c r="D1418" t="n">
         <v>28.1</v>
       </c>
-      <c r="D1418" t="inlineStr"/>
       <c r="E1418" t="inlineStr"/>
     </row>
     <row r="1419">
@@ -16064,10 +16064,10 @@
         <v>44298.62833930556</v>
       </c>
       <c r="B1419" t="inlineStr"/>
-      <c r="C1419" t="inlineStr"/>
-      <c r="D1419" t="n">
+      <c r="C1419" t="n">
         <v>27.8</v>
       </c>
+      <c r="D1419" t="inlineStr"/>
       <c r="E1419" t="inlineStr"/>
     </row>
     <row r="1420">
@@ -16097,10 +16097,10 @@
         <v>44299.14039559028</v>
       </c>
       <c r="B1422" t="inlineStr"/>
-      <c r="C1422" t="n">
+      <c r="C1422" t="inlineStr"/>
+      <c r="D1422" t="n">
         <v>28.1</v>
       </c>
-      <c r="D1422" t="inlineStr"/>
       <c r="E1422" t="inlineStr"/>
     </row>
     <row r="1423">
@@ -16108,10 +16108,10 @@
         <v>44299.1403959838</v>
       </c>
       <c r="B1423" t="inlineStr"/>
-      <c r="C1423" t="inlineStr"/>
-      <c r="D1423" t="n">
+      <c r="C1423" t="n">
         <v>27.8</v>
       </c>
+      <c r="D1423" t="inlineStr"/>
       <c r="E1423" t="inlineStr"/>
     </row>
     <row r="1424">
@@ -16141,10 +16141,10 @@
         <v>44299.1471696875</v>
       </c>
       <c r="B1426" t="inlineStr"/>
-      <c r="C1426" t="n">
+      <c r="C1426" t="inlineStr"/>
+      <c r="D1426" t="n">
         <v>28.1</v>
       </c>
-      <c r="D1426" t="inlineStr"/>
       <c r="E1426" t="inlineStr"/>
     </row>
     <row r="1427">
@@ -16152,10 +16152,10 @@
         <v>44299.14717001157</v>
       </c>
       <c r="B1427" t="inlineStr"/>
-      <c r="C1427" t="inlineStr"/>
-      <c r="D1427" t="n">
+      <c r="C1427" t="n">
         <v>27.8</v>
       </c>
+      <c r="D1427" t="inlineStr"/>
       <c r="E1427" t="inlineStr"/>
     </row>
     <row r="1428">
@@ -16174,10 +16174,10 @@
         <v>44299.30731967593</v>
       </c>
       <c r="B1429" t="inlineStr"/>
-      <c r="C1429" t="n">
+      <c r="C1429" t="inlineStr"/>
+      <c r="D1429" t="n">
         <v>21.8</v>
       </c>
-      <c r="D1429" t="inlineStr"/>
       <c r="E1429" t="inlineStr"/>
     </row>
     <row r="1430">
@@ -16185,10 +16185,10 @@
         <v>44299.30732</v>
       </c>
       <c r="B1430" t="inlineStr"/>
-      <c r="C1430" t="inlineStr"/>
-      <c r="D1430" t="n">
+      <c r="C1430" t="n">
         <v>21.8</v>
       </c>
+      <c r="D1430" t="inlineStr"/>
       <c r="E1430" t="inlineStr"/>
     </row>
     <row r="1431">
@@ -16240,10 +16240,10 @@
         <v>44299.89043085648</v>
       </c>
       <c r="B1435" t="inlineStr"/>
-      <c r="C1435" t="n">
+      <c r="C1435" t="inlineStr"/>
+      <c r="D1435" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr"/>
     </row>
     <row r="1436">
@@ -16251,10 +16251,10 @@
         <v>44299.8904312037</v>
       </c>
       <c r="B1436" t="inlineStr"/>
-      <c r="C1436" t="inlineStr"/>
-      <c r="D1436" t="n">
+      <c r="C1436" t="n">
         <v>26.6</v>
       </c>
+      <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr"/>
     </row>
     <row r="1437">
@@ -16284,10 +16284,10 @@
         <v>44299.89720535879</v>
       </c>
       <c r="B1439" t="inlineStr"/>
-      <c r="C1439" t="n">
+      <c r="C1439" t="inlineStr"/>
+      <c r="D1439" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr"/>
     </row>
     <row r="1440">
@@ -16295,10 +16295,10 @@
         <v>44299.89824842592</v>
       </c>
       <c r="B1440" t="inlineStr"/>
-      <c r="C1440" t="inlineStr"/>
-      <c r="D1440" t="n">
+      <c r="C1440" t="n">
         <v>26.6</v>
       </c>
+      <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr"/>
     </row>
     <row r="1441">
@@ -16339,10 +16339,10 @@
         <v>44300.36446480324</v>
       </c>
       <c r="B1444" t="inlineStr"/>
-      <c r="C1444" t="n">
+      <c r="C1444" t="inlineStr"/>
+      <c r="D1444" t="n">
         <v>23.7</v>
       </c>
-      <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr"/>
     </row>
     <row r="1445">
@@ -16350,10 +16350,10 @@
         <v>44300.36446538194</v>
       </c>
       <c r="B1445" t="inlineStr"/>
-      <c r="C1445" t="inlineStr"/>
-      <c r="D1445" t="n">
+      <c r="C1445" t="n">
         <v>23.7</v>
       </c>
+      <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr"/>
     </row>
     <row r="1446">
@@ -16383,10 +16383,10 @@
         <v>44300.64046357639</v>
       </c>
       <c r="B1448" t="inlineStr"/>
-      <c r="C1448" t="n">
+      <c r="C1448" t="inlineStr"/>
+      <c r="D1448" t="n">
         <v>26.5</v>
       </c>
-      <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr"/>
     </row>
     <row r="1449">
@@ -16394,10 +16394,10 @@
         <v>44300.64046402778</v>
       </c>
       <c r="B1449" t="inlineStr"/>
-      <c r="C1449" t="inlineStr"/>
-      <c r="D1449" t="n">
+      <c r="C1449" t="n">
         <v>26.1</v>
       </c>
+      <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr"/>
     </row>
     <row r="1450">
@@ -16427,10 +16427,10 @@
         <v>44300.6472375</v>
       </c>
       <c r="B1452" t="inlineStr"/>
-      <c r="C1452" t="n">
+      <c r="C1452" t="inlineStr"/>
+      <c r="D1452" t="n">
         <v>26.5</v>
       </c>
-      <c r="D1452" t="inlineStr"/>
       <c r="E1452" t="inlineStr"/>
     </row>
     <row r="1453">
@@ -16438,10 +16438,10 @@
         <v>44300.64723805556</v>
       </c>
       <c r="B1453" t="inlineStr"/>
-      <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="n">
+      <c r="C1453" t="n">
         <v>26.1</v>
       </c>
+      <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr"/>
     </row>
     <row r="1454">
@@ -16471,10 +16471,10 @@
         <v>44301.30779903935</v>
       </c>
       <c r="B1456" t="inlineStr"/>
-      <c r="C1456" t="n">
+      <c r="C1456" t="inlineStr"/>
+      <c r="D1456" t="n">
         <v>21.6</v>
       </c>
-      <c r="D1456" t="inlineStr"/>
       <c r="E1456" t="inlineStr"/>
     </row>
     <row r="1457">
@@ -16482,10 +16482,10 @@
         <v>44301.30779943287</v>
       </c>
       <c r="B1457" t="inlineStr"/>
-      <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="n">
+      <c r="C1457" t="n">
         <v>21.4</v>
       </c>
+      <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr"/>
     </row>
     <row r="1458">
@@ -16515,10 +16515,10 @@
         <v>44301.39299637731</v>
       </c>
       <c r="B1460" t="inlineStr"/>
-      <c r="C1460" t="n">
+      <c r="C1460" t="inlineStr"/>
+      <c r="D1460" t="n">
         <v>25.4</v>
       </c>
-      <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr"/>
     </row>
     <row r="1461">
@@ -16526,10 +16526,10 @@
         <v>44301.39299668981</v>
       </c>
       <c r="B1461" t="inlineStr"/>
-      <c r="C1461" t="inlineStr"/>
-      <c r="D1461" t="n">
+      <c r="C1461" t="n">
         <v>24.9</v>
       </c>
+      <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr"/>
     </row>
     <row r="1462">
@@ -16570,10 +16570,10 @@
         <v>44301.39977017361</v>
       </c>
       <c r="B1465" t="inlineStr"/>
-      <c r="C1465" t="n">
+      <c r="C1465" t="inlineStr"/>
+      <c r="D1465" t="n">
         <v>25.4</v>
       </c>
-      <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr"/>
     </row>
     <row r="1466">
@@ -16581,10 +16581,10 @@
         <v>44301.39977752315</v>
       </c>
       <c r="B1466" t="inlineStr"/>
-      <c r="C1466" t="inlineStr"/>
-      <c r="D1466" t="n">
+      <c r="C1466" t="n">
         <v>24.9</v>
       </c>
+      <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr"/>
     </row>
     <row r="1467">
@@ -16625,10 +16625,10 @@
         <v>44301.48823684028</v>
       </c>
       <c r="B1470" t="inlineStr"/>
-      <c r="C1470" t="inlineStr"/>
-      <c r="D1470" t="n">
+      <c r="C1470" t="n">
         <v>24.6</v>
       </c>
+      <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr"/>
     </row>
     <row r="1471">
@@ -16647,10 +16647,10 @@
         <v>44301.53374165509</v>
       </c>
       <c r="B1472" t="inlineStr"/>
-      <c r="C1472" t="n">
+      <c r="C1472" t="inlineStr"/>
+      <c r="D1472" t="n">
         <v>24.7</v>
       </c>
-      <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr"/>
     </row>
     <row r="1473">
@@ -16658,10 +16658,10 @@
         <v>44301.57542458333</v>
       </c>
       <c r="B1473" t="inlineStr"/>
-      <c r="C1473" t="inlineStr"/>
-      <c r="D1473" t="n">
+      <c r="C1473" t="n">
         <v>26.5</v>
       </c>
+      <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr"/>
     </row>
     <row r="1474">
@@ -16669,10 +16669,10 @@
         <v>44301.6223140625</v>
       </c>
       <c r="B1474" t="inlineStr"/>
-      <c r="C1474" t="n">
+      <c r="C1474" t="inlineStr"/>
+      <c r="D1474" t="n">
         <v>27</v>
       </c>
-      <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr"/>
     </row>
     <row r="1475">
@@ -16702,10 +16702,10 @@
         <v>44302.14500787037</v>
       </c>
       <c r="B1477" t="inlineStr"/>
-      <c r="C1477" t="n">
+      <c r="C1477" t="inlineStr"/>
+      <c r="D1477" t="n">
         <v>27</v>
       </c>
-      <c r="D1477" t="inlineStr"/>
       <c r="E1477" t="inlineStr"/>
     </row>
     <row r="1478">
@@ -16713,10 +16713,10 @@
         <v>44302.14500829861</v>
       </c>
       <c r="B1478" t="inlineStr"/>
-      <c r="C1478" t="inlineStr"/>
-      <c r="D1478" t="n">
+      <c r="C1478" t="n">
         <v>26.5</v>
       </c>
+      <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr"/>
     </row>
     <row r="1479">
@@ -16746,10 +16746,10 @@
         <v>44302.15177903936</v>
       </c>
       <c r="B1481" t="inlineStr"/>
-      <c r="C1481" t="n">
+      <c r="C1481" t="inlineStr"/>
+      <c r="D1481" t="n">
         <v>27</v>
       </c>
-      <c r="D1481" t="inlineStr"/>
       <c r="E1481" t="inlineStr"/>
     </row>
     <row r="1482">
@@ -16757,10 +16757,10 @@
         <v>44302.15177935185</v>
       </c>
       <c r="B1482" t="inlineStr"/>
-      <c r="C1482" t="inlineStr"/>
-      <c r="D1482" t="n">
+      <c r="C1482" t="n">
         <v>26.5</v>
       </c>
+      <c r="D1482" t="inlineStr"/>
       <c r="E1482" t="inlineStr"/>
     </row>
     <row r="1483">
@@ -16779,10 +16779,10 @@
         <v>44302.32660958333</v>
       </c>
       <c r="B1484" t="inlineStr"/>
-      <c r="C1484" t="inlineStr"/>
-      <c r="D1484" t="n">
+      <c r="C1484" t="n">
         <v>21.8</v>
       </c>
+      <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr"/>
     </row>
     <row r="1485">
@@ -16801,10 +16801,10 @@
         <v>44302.32730346065</v>
       </c>
       <c r="B1486" t="inlineStr"/>
-      <c r="C1486" t="n">
+      <c r="C1486" t="inlineStr"/>
+      <c r="D1486" t="n">
         <v>22.4</v>
       </c>
-      <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr"/>
     </row>
     <row r="1487">
@@ -16823,10 +16823,10 @@
         <v>44302.48702905093</v>
       </c>
       <c r="B1488" t="inlineStr"/>
-      <c r="C1488" t="n">
+      <c r="C1488" t="inlineStr"/>
+      <c r="D1488" t="n">
         <v>27.1</v>
       </c>
-      <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr"/>
     </row>
     <row r="1489">
@@ -16834,10 +16834,10 @@
         <v>44302.48702956019</v>
       </c>
       <c r="B1489" t="inlineStr"/>
-      <c r="C1489" t="inlineStr"/>
-      <c r="D1489" t="n">
+      <c r="C1489" t="n">
         <v>26.6</v>
       </c>
+      <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr"/>
     </row>
     <row r="1490">
@@ -16878,10 +16878,10 @@
         <v>44302.75578422454</v>
       </c>
       <c r="B1493" t="inlineStr"/>
-      <c r="C1493" t="n">
+      <c r="C1493" t="inlineStr"/>
+      <c r="D1493" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr"/>
     </row>
     <row r="1494">
@@ -16889,10 +16889,10 @@
         <v>44302.7557847338</v>
       </c>
       <c r="B1494" t="inlineStr"/>
-      <c r="C1494" t="inlineStr"/>
-      <c r="D1494" t="n">
+      <c r="C1494" t="n">
         <v>26.3</v>
       </c>
+      <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr"/>
     </row>
     <row r="1495">
@@ -16922,10 +16922,10 @@
         <v>44302.77188462963</v>
       </c>
       <c r="B1497" t="inlineStr"/>
-      <c r="C1497" t="n">
+      <c r="C1497" t="inlineStr"/>
+      <c r="D1497" t="n">
         <v>26.8</v>
       </c>
-      <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr"/>
     </row>
     <row r="1498">
@@ -16933,10 +16933,10 @@
         <v>44302.77188465278</v>
       </c>
       <c r="B1498" t="inlineStr"/>
-      <c r="C1498" t="inlineStr"/>
-      <c r="D1498" t="n">
+      <c r="C1498" t="n">
         <v>26.3</v>
       </c>
+      <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr"/>
     </row>
     <row r="1499">
